--- a/src/langXls.xlsx
+++ b/src/langXls.xlsx
@@ -10229,6 +10229,12 @@
     <x:t>短信登錄</x:t>
   </x:si>
   <x:si>
+    <x:t>frontstage.form.label.fundsPassword</x:t>
+  </x:si>
+  <x:si>
+    <x:t>資金密碼</x:t>
+  </x:si>
+  <x:si>
     <x:t>frontstage.form.button.Add</x:t>
   </x:si>
   <x:si>
@@ -10319,6 +10325,9 @@
     <x:t>提款</x:t>
   </x:si>
   <x:si>
+    <x:t>frontstage.form.button.reset</x:t>
+  </x:si>
+  <x:si>
     <x:t>frontstage.menu.UserDailyRewordRecord</x:t>
   </x:si>
   <x:si>
@@ -11249,6 +11258,9 @@
     <x:t>week</x:t>
   </x:si>
   <x:si>
+    <x:t>frontstage.state.Agent.SettlementCategoryEnum.Week</x:t>
+  </x:si>
+  <x:si>
     <x:t>frontstage.state.GameCategoryEnum.ESport</x:t>
   </x:si>
   <x:si>
@@ -11468,6 +11480,12 @@
     <x:t>重置手機成功</x:t>
   </x:si>
   <x:si>
+    <x:t>frontstage.user.securitySetting.Phone.modifyFailingMsg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>重置手機失敗</x:t>
+  </x:si>
+  <x:si>
     <x:t>frontstage.user.securitySetting.Email.label</x:t>
   </x:si>
   <x:si>
@@ -11495,6 +11513,12 @@
     <x:t>通過郵箱來登錄帳號，帳戶資金變動通知，並在帳號有疑似異常操作時接收提示信息。</x:t>
   </x:si>
   <x:si>
+    <x:t>frontstage.user.securitySetting.Email.modifyFailingMsg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>重置郵箱失敗</x:t>
+  </x:si>
+  <x:si>
     <x:t>frontstage.user.securitySetting.Password.label</x:t>
   </x:si>
   <x:si>
@@ -11531,6 +11555,12 @@
     <x:t>設置密碼，登錄時可使用密碼登錄。</x:t>
   </x:si>
   <x:si>
+    <x:t>frontstage.user.securitySetting.Password.mifyFailingMsg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>重置登錄密碼失敗</x:t>
+  </x:si>
+  <x:si>
     <x:t>frontstage.user.securitySetting.FundsPassword.modifySuccessMsg</x:t>
   </x:si>
   <x:si>
@@ -11567,6 +11597,24 @@
     <x:t>設置資金密碼成功</x:t>
   </x:si>
   <x:si>
+    <x:t>frontstage.user.securitySetting.FundsPassword.mifyFailingMsg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>重置資金密碼失敗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.user.securitySetting.FundsPassword.settingFailingMsg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>設置資金密碼失敗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.user.securitySetting.modifyFailingMsg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>修改失敗</x:t>
+  </x:si>
+  <x:si>
     <x:t>frontstage.user.BankCard.addBankCard</x:t>
   </x:si>
   <x:si>
@@ -11735,6 +11783,12 @@
     <x:t>雲閃付</x:t>
   </x:si>
   <x:si>
+    <x:t>frontstage.user.TppPaymentTypeEnum.BqPay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BQPay</x:t>
+  </x:si>
+  <x:si>
     <x:t>frontstage.user.transfer.msg.successfulTransfer</x:t>
   </x:si>
   <x:si>
@@ -12857,60 +12911,6 @@
     <x:t>[中心錢包]轉[沙龙]</x:t>
   </x:si>
   <x:si>
-    <x:t>frontstage.form.label.fundsPassword</x:t>
-  </x:si>
-  <x:si>
-    <x:t>資金密碼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.form.button.reset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.Agent.SettlementCategoryEnum.Week</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.user.securitySetting.Phone.modifyFailingMsg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>重置手機失敗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.user.securitySetting.Email.modifyFailingMsg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>重置郵箱失敗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.user.securitySetting.Password.mifyFailingMsg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>重置登錄密碼失敗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.user.securitySetting.FundsPassword.mifyFailingMsg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>重置資金密碼失敗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.user.securitySetting.FundsPassword.settingFailingMsg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>設置資金密碼失敗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.user.securitySetting.modifyFailingMsg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>修改失敗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.user.TppPaymentTypeEnum.BqPay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BQPay</x:t>
-  </x:si>
-  <x:si>
     <x:t>frontstage.user.changeRecordType.CenterToPs</x:t>
   </x:si>
   <x:si>
@@ -13475,30 +13475,30 @@
     <x:t>frontstage.state.WithdrawalStateTypeEnum.Undefined</x:t>
   </x:si>
   <x:si>
+    <x:t>frontstage.state.TppChannelEnum.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.TppChannelEnum.Undefined</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.Agent.BenefitSharingSourceEnum.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.Agent.BenefitSharingSourceEnum.Undefined</x:t>
+  </x:si>
+  <x:si>
     <x:t>frontstage.state.WalletTransferStateTypeEnum.0</x:t>
   </x:si>
   <x:si>
     <x:t>frontstage.state.WalletTransferStateTypeEnum.Undefined</x:t>
   </x:si>
   <x:si>
-    <x:t>frontstage.state.TppChannelEnum.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.TppChannelEnum.Undefined</x:t>
-  </x:si>
-  <x:si>
     <x:t>frontstage.state.BetOrderState.0</x:t>
   </x:si>
   <x:si>
     <x:t>frontstage.state.BetOrderState.Undefined</x:t>
   </x:si>
   <x:si>
-    <x:t>frontstage.state.Agent.BenefitSharingSourceEnum.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.Agent.BenefitSharingSourceEnum.Undefined</x:t>
-  </x:si>
-  <x:si>
     <x:t>frontstage.user.changeRecordType.Undefined</x:t>
   </x:si>
   <x:si>
@@ -13943,6 +13943,195 @@
     <x:t>frontstage.state.WithdrawalStateTypeEnum.Reject</x:t>
   </x:si>
   <x:si>
+    <x:t>frontstage.state.TppChannelEnum.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bank card transfer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>银行卡转帐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.TppChannelEnum.BankCard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.TppChannelEnum.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tpp-online payment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tpp-线上支付</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tpp-線上支付</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.TppChannelEnum.OnlinePayment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.TppChannelEnum.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tpp-WeChat payment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tpp-微信支付</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.TppChannelEnum.WeChatPay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.TppChannelEnum.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tpp- Alipay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tpp-支付宝</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tpp-支付寶</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.TppChannelEnum.Alipay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.TppChannelEnum.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tpp-Jingdong Pay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tpp-京东支付</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tpp-京東支付</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.TppChannelEnum.JingdongQrCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.TppChannelEnum.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tpp-UnionPay QrCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tpp-银联扫码</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tpp-銀聯掃碼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.TppChannelEnum.UnionPayQrCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.TppChannelEnum.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tpp-Quick Pass</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tpp-雲閃付</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.TppChannelEnum.UnionPay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.Agent.SettlementCategoryEnum.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.Agent.SettlementCategoryEnum.Undefined</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.Agent.SettlementCategoryEnum.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>小时</x:t>
+  </x:si>
+  <x:si>
+    <x:t>小時</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.Agent.SettlementCategoryEnum.Hour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.Agent.SettlementCategoryEnum.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>日</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.Agent.SettlementCategoryEnum.Day</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.Agent.SettlementCategoryEnum.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>half a month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.Agent.SettlementCategoryEnum.HalfMonth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.Agent.SettlementCategoryEnum.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.Agent.SettlementCategoryEnum.Month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.Agent.SettlementCategoryEnum.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>season</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.Agent.SettlementCategoryEnum.Quarter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.Agent.BenefitSharingSourceEnum.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid bet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.Agent.BenefitSharingSourceEnum.BetAviliable</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.Agent.BenefitSharingSourceEnum.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Negative profit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.Agent.BenefitSharingSourceEnum.WinLose</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.Agent.BenefitSharingSourceEnum.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Negative profit (uneven accounts)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.Agent.BenefitSharingSourceEnum.Lose</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.GameCategoryEnum.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gaming</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frontstage.state.GameCategoryEnum.Gaming</x:t>
+  </x:si>
+  <x:si>
     <x:t>frontstage.state.WalletTransferStateTypeEnum.1</x:t>
   </x:si>
   <x:si>
@@ -13979,102 +14168,6 @@
     <x:t>frontstage.user.transfer.msg.transferFailed</x:t>
   </x:si>
   <x:si>
-    <x:t>frontstage.state.TppChannelEnum.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bank card transfer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>银行卡转帐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.TppChannelEnum.BankCard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.TppChannelEnum.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tpp-online payment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tpp-线上支付</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tpp-線上支付</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.TppChannelEnum.OnlinePayment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.TppChannelEnum.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tpp-WeChat payment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tpp-微信支付</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.TppChannelEnum.WeChatPay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.TppChannelEnum.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tpp- Alipay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tpp-支付宝</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tpp-支付寶</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.TppChannelEnum.Alipay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.TppChannelEnum.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tpp-Jingdong Pay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tpp-京东支付</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tpp-京東支付</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.TppChannelEnum.JingdongQrCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.TppChannelEnum.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tpp-UnionPay QrCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tpp-银联扫码</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tpp-銀聯掃碼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.TppChannelEnum.UnionPayQrCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.TppChannelEnum.7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tpp-Quick Pass</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tpp-雲閃付</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.TppChannelEnum.UnionPay</x:t>
-  </x:si>
-  <x:si>
     <x:t>frontstage.state.BetOrderState.1</x:t>
   </x:si>
   <x:si>
@@ -14120,93 +14213,6 @@
     <x:t>frontstage.state.BetOrderState.Canceled</x:t>
   </x:si>
   <x:si>
-    <x:t>frontstage.state.Agent.BenefitSharingSourceEnum.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid bet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.Agent.BenefitSharingSourceEnum.BetAviliable</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.Agent.BenefitSharingSourceEnum.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Negative profit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.Agent.BenefitSharingSourceEnum.WinLose</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.Agent.BenefitSharingSourceEnum.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Negative profit (uneven accounts)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.Agent.BenefitSharingSourceEnum.Lose</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.Agent.SettlementCategoryEnum.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hour</x:t>
-  </x:si>
-  <x:si>
-    <x:t>小时</x:t>
-  </x:si>
-  <x:si>
-    <x:t>小時</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.Agent.SettlementCategoryEnum.Hour</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.Agent.SettlementCategoryEnum.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>日</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.Agent.SettlementCategoryEnum.Day</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.Agent.SettlementCategoryEnum.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>half a month</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.Agent.SettlementCategoryEnum.HalfMonth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.Agent.SettlementCategoryEnum.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>month</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.Agent.SettlementCategoryEnum.Month</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.Agent.SettlementCategoryEnum.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>season</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.Agent.SettlementCategoryEnum.Quarter</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.GameCategoryEnum.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gaming</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.GameCategoryEnum.Gaming</x:t>
-  </x:si>
-  <x:si>
     <x:t>frontstage.user.transferRecord.column.From</x:t>
   </x:si>
   <x:si>
@@ -14247,12 +14253,6 @@
   </x:si>
   <x:si>
     <x:t>frontstage.user.fundsPassword</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.Agent.SettlementCategoryEnum.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frontstage.state.Agent.SettlementCategoryEnum.Undefined</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -28433,7 +28433,7 @@
         <x:v>2976</x:v>
       </x:c>
       <x:c r="E813" s="0" t="n">
-        <x:v>900</x:v>
+        <x:v>899</x:v>
       </x:c>
     </x:row>
     <x:row r="814" spans="1:5">
@@ -28450,7 +28450,7 @@
         <x:v>2979</x:v>
       </x:c>
       <x:c r="E814" s="0" t="n">
-        <x:v>901</x:v>
+        <x:v>900</x:v>
       </x:c>
     </x:row>
     <x:row r="815" spans="1:5">
@@ -28467,7 +28467,7 @@
         <x:v>2983</x:v>
       </x:c>
       <x:c r="E815" s="0" t="n">
-        <x:v>902</x:v>
+        <x:v>901</x:v>
       </x:c>
     </x:row>
     <x:row r="816" spans="1:5">
@@ -28484,7 +28484,7 @@
         <x:v>2987</x:v>
       </x:c>
       <x:c r="E816" s="0" t="n">
-        <x:v>903</x:v>
+        <x:v>902</x:v>
       </x:c>
     </x:row>
     <x:row r="817" spans="1:5">
@@ -28501,7 +28501,7 @@
         <x:v>2605</x:v>
       </x:c>
       <x:c r="E817" s="0" t="n">
-        <x:v>904</x:v>
+        <x:v>903</x:v>
       </x:c>
     </x:row>
     <x:row r="818" spans="1:5">
@@ -28586,7 +28586,7 @@
         <x:v>3006</x:v>
       </x:c>
       <x:c r="E822" s="0" t="n">
-        <x:v>920</x:v>
+        <x:v>915</x:v>
       </x:c>
     </x:row>
     <x:row r="823" spans="1:5">
@@ -28671,7 +28671,7 @@
         <x:v>3024</x:v>
       </x:c>
       <x:c r="E827" s="0" t="n">
-        <x:v>931</x:v>
+        <x:v>926</x:v>
       </x:c>
     </x:row>
     <x:row r="828" spans="1:5">
@@ -28688,7 +28688,7 @@
         <x:v>3027</x:v>
       </x:c>
       <x:c r="E828" s="0" t="n">
-        <x:v>933</x:v>
+        <x:v>927</x:v>
       </x:c>
     </x:row>
     <x:row r="829" spans="1:5">
@@ -28705,7 +28705,7 @@
         <x:v>3030</x:v>
       </x:c>
       <x:c r="E829" s="0" t="n">
-        <x:v>934</x:v>
+        <x:v>928</x:v>
       </x:c>
     </x:row>
     <x:row r="830" spans="1:5">
@@ -28722,7 +28722,7 @@
         <x:v>3033</x:v>
       </x:c>
       <x:c r="E830" s="0" t="n">
-        <x:v>935</x:v>
+        <x:v>929</x:v>
       </x:c>
     </x:row>
     <x:row r="831" spans="1:5">
@@ -28739,7 +28739,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="E831" s="0" t="n">
-        <x:v>936</x:v>
+        <x:v>930</x:v>
       </x:c>
     </x:row>
     <x:row r="832" spans="1:5">
@@ -28756,7 +28756,7 @@
         <x:v>3039</x:v>
       </x:c>
       <x:c r="E832" s="0" t="n">
-        <x:v>938</x:v>
+        <x:v>931</x:v>
       </x:c>
     </x:row>
     <x:row r="833" spans="1:5">
@@ -28773,7 +28773,7 @@
         <x:v>3043</x:v>
       </x:c>
       <x:c r="E833" s="0" t="n">
-        <x:v>940</x:v>
+        <x:v>932</x:v>
       </x:c>
     </x:row>
     <x:row r="834" spans="1:5">
@@ -28790,7 +28790,7 @@
         <x:v>3047</x:v>
       </x:c>
       <x:c r="E834" s="0" t="n">
-        <x:v>941</x:v>
+        <x:v>933</x:v>
       </x:c>
     </x:row>
     <x:row r="835" spans="1:5">
@@ -28807,7 +28807,7 @@
         <x:v>2257</x:v>
       </x:c>
       <x:c r="E835" s="0" t="n">
-        <x:v>942</x:v>
+        <x:v>934</x:v>
       </x:c>
     </x:row>
     <x:row r="836" spans="1:5">
@@ -28824,7 +28824,7 @@
         <x:v>3052</x:v>
       </x:c>
       <x:c r="E836" s="0" t="n">
-        <x:v>943</x:v>
+        <x:v>935</x:v>
       </x:c>
     </x:row>
     <x:row r="837" spans="1:5">
@@ -28841,7 +28841,7 @@
         <x:v>3056</x:v>
       </x:c>
       <x:c r="E837" s="0" t="n">
-        <x:v>944</x:v>
+        <x:v>936</x:v>
       </x:c>
     </x:row>
     <x:row r="838" spans="1:5">
@@ -28858,7 +28858,7 @@
         <x:v>3060</x:v>
       </x:c>
       <x:c r="E838" s="0" t="n">
-        <x:v>946</x:v>
+        <x:v>938</x:v>
       </x:c>
     </x:row>
     <x:row r="839" spans="1:5">
@@ -28875,7 +28875,7 @@
         <x:v>3064</x:v>
       </x:c>
       <x:c r="E839" s="0" t="n">
-        <x:v>947</x:v>
+        <x:v>939</x:v>
       </x:c>
     </x:row>
     <x:row r="840" spans="1:5">
@@ -28892,7 +28892,7 @@
         <x:v>2369</x:v>
       </x:c>
       <x:c r="E840" s="0" t="n">
-        <x:v>948</x:v>
+        <x:v>940</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:5">
@@ -28909,7 +28909,7 @@
         <x:v>3070</x:v>
       </x:c>
       <x:c r="E841" s="0" t="n">
-        <x:v>949</x:v>
+        <x:v>941</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:5">
@@ -28926,7 +28926,7 @@
         <x:v>3074</x:v>
       </x:c>
       <x:c r="E842" s="0" t="n">
-        <x:v>950</x:v>
+        <x:v>942</x:v>
       </x:c>
     </x:row>
     <x:row r="843" spans="1:5">
@@ -28943,7 +28943,7 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="E843" s="0" t="n">
-        <x:v>951</x:v>
+        <x:v>943</x:v>
       </x:c>
     </x:row>
     <x:row r="844" spans="1:5">
@@ -28960,7 +28960,7 @@
         <x:v>3079</x:v>
       </x:c>
       <x:c r="E844" s="0" t="n">
-        <x:v>952</x:v>
+        <x:v>944</x:v>
       </x:c>
     </x:row>
     <x:row r="845" spans="1:5">
@@ -28977,7 +28977,7 @@
         <x:v>3081</x:v>
       </x:c>
       <x:c r="E845" s="0" t="n">
-        <x:v>957</x:v>
+        <x:v>945</x:v>
       </x:c>
     </x:row>
     <x:row r="846" spans="1:5">
@@ -28994,7 +28994,7 @@
         <x:v>3085</x:v>
       </x:c>
       <x:c r="E846" s="0" t="n">
-        <x:v>958</x:v>
+        <x:v>946</x:v>
       </x:c>
     </x:row>
     <x:row r="847" spans="1:5">
@@ -29011,7 +29011,7 @@
         <x:v>3089</x:v>
       </x:c>
       <x:c r="E847" s="0" t="n">
-        <x:v>959</x:v>
+        <x:v>947</x:v>
       </x:c>
     </x:row>
     <x:row r="848" spans="1:5">
@@ -29028,7 +29028,7 @@
         <x:v>3093</x:v>
       </x:c>
       <x:c r="E848" s="0" t="n">
-        <x:v>960</x:v>
+        <x:v>948</x:v>
       </x:c>
     </x:row>
     <x:row r="849" spans="1:5">
@@ -29045,7 +29045,7 @@
         <x:v>3097</x:v>
       </x:c>
       <x:c r="E849" s="0" t="n">
-        <x:v>961</x:v>
+        <x:v>949</x:v>
       </x:c>
     </x:row>
     <x:row r="850" spans="1:5">
@@ -29062,7 +29062,7 @@
         <x:v>3101</x:v>
       </x:c>
       <x:c r="E850" s="0" t="n">
-        <x:v>962</x:v>
+        <x:v>950</x:v>
       </x:c>
     </x:row>
     <x:row r="851" spans="1:5">
@@ -29079,7 +29079,7 @@
         <x:v>3105</x:v>
       </x:c>
       <x:c r="E851" s="0" t="n">
-        <x:v>963</x:v>
+        <x:v>951</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:5">
@@ -29096,7 +29096,7 @@
         <x:v>3109</x:v>
       </x:c>
       <x:c r="E852" s="0" t="n">
-        <x:v>965</x:v>
+        <x:v>952</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:5">
@@ -29113,7 +29113,7 @@
         <x:v>3113</x:v>
       </x:c>
       <x:c r="E853" s="0" t="n">
-        <x:v>966</x:v>
+        <x:v>953</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:5">
@@ -29130,7 +29130,7 @@
         <x:v>3116</x:v>
       </x:c>
       <x:c r="E854" s="0" t="n">
-        <x:v>967</x:v>
+        <x:v>954</x:v>
       </x:c>
     </x:row>
     <x:row r="855" spans="1:5">
@@ -29147,7 +29147,7 @@
         <x:v>3120</x:v>
       </x:c>
       <x:c r="E855" s="0" t="n">
-        <x:v>968</x:v>
+        <x:v>955</x:v>
       </x:c>
     </x:row>
     <x:row r="856" spans="1:5">
@@ -29164,7 +29164,7 @@
         <x:v>3124</x:v>
       </x:c>
       <x:c r="E856" s="0" t="n">
-        <x:v>969</x:v>
+        <x:v>956</x:v>
       </x:c>
     </x:row>
     <x:row r="857" spans="1:5">
@@ -29181,7 +29181,7 @@
         <x:v>3126</x:v>
       </x:c>
       <x:c r="E857" s="0" t="n">
-        <x:v>970</x:v>
+        <x:v>957</x:v>
       </x:c>
     </x:row>
     <x:row r="858" spans="1:5">
@@ -29198,7 +29198,7 @@
         <x:v>3128</x:v>
       </x:c>
       <x:c r="E858" s="0" t="n">
-        <x:v>971</x:v>
+        <x:v>958</x:v>
       </x:c>
     </x:row>
     <x:row r="859" spans="1:5">
@@ -29215,7 +29215,7 @@
         <x:v>3130</x:v>
       </x:c>
       <x:c r="E859" s="0" t="n">
-        <x:v>972</x:v>
+        <x:v>959</x:v>
       </x:c>
     </x:row>
     <x:row r="860" spans="1:5">
@@ -29232,7 +29232,7 @@
         <x:v>2773</x:v>
       </x:c>
       <x:c r="E860" s="0" t="n">
-        <x:v>974</x:v>
+        <x:v>960</x:v>
       </x:c>
     </x:row>
     <x:row r="861" spans="1:5">
@@ -29249,7 +29249,7 @@
         <x:v>3135</x:v>
       </x:c>
       <x:c r="E861" s="0" t="n">
-        <x:v>976</x:v>
+        <x:v>961</x:v>
       </x:c>
     </x:row>
     <x:row r="862" spans="1:5">
@@ -29266,7 +29266,7 @@
         <x:v>3139</x:v>
       </x:c>
       <x:c r="E862" s="0" t="n">
-        <x:v>978</x:v>
+        <x:v>962</x:v>
       </x:c>
     </x:row>
     <x:row r="863" spans="1:5">
@@ -29283,7 +29283,7 @@
         <x:v>3143</x:v>
       </x:c>
       <x:c r="E863" s="0" t="n">
-        <x:v>979</x:v>
+        <x:v>963</x:v>
       </x:c>
     </x:row>
     <x:row r="864" spans="1:5">
@@ -29300,7 +29300,7 @@
         <x:v>3147</x:v>
       </x:c>
       <x:c r="E864" s="0" t="n">
-        <x:v>981</x:v>
+        <x:v>964</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:5">
@@ -29317,7 +29317,7 @@
         <x:v>2779</x:v>
       </x:c>
       <x:c r="E865" s="0" t="n">
-        <x:v>982</x:v>
+        <x:v>965</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:5">
@@ -29334,7 +29334,7 @@
         <x:v>3153</x:v>
       </x:c>
       <x:c r="E866" s="0" t="n">
-        <x:v>983</x:v>
+        <x:v>966</x:v>
       </x:c>
     </x:row>
     <x:row r="867" spans="1:5">
@@ -29351,7 +29351,7 @@
         <x:v>3157</x:v>
       </x:c>
       <x:c r="E867" s="0" t="n">
-        <x:v>984</x:v>
+        <x:v>967</x:v>
       </x:c>
     </x:row>
     <x:row r="868" spans="1:5">
@@ -29368,7 +29368,7 @@
         <x:v>3161</x:v>
       </x:c>
       <x:c r="E868" s="0" t="n">
-        <x:v>985</x:v>
+        <x:v>968</x:v>
       </x:c>
     </x:row>
     <x:row r="869" spans="1:5">
@@ -29385,7 +29385,7 @@
         <x:v>3165</x:v>
       </x:c>
       <x:c r="E869" s="0" t="n">
-        <x:v>986</x:v>
+        <x:v>969</x:v>
       </x:c>
     </x:row>
     <x:row r="870" spans="1:5">
@@ -29997,7 +29997,7 @@
         <x:v>3309</x:v>
       </x:c>
       <x:c r="E905" s="0" t="n">
-        <x:v>1024</x:v>
+        <x:v>1023</x:v>
       </x:c>
     </x:row>
     <x:row r="906" spans="1:5">
@@ -30014,7 +30014,7 @@
         <x:v>3313</x:v>
       </x:c>
       <x:c r="E906" s="0" t="n">
-        <x:v>1025</x:v>
+        <x:v>1024</x:v>
       </x:c>
     </x:row>
     <x:row r="907" spans="1:5">
@@ -30031,7 +30031,7 @@
         <x:v>3317</x:v>
       </x:c>
       <x:c r="E907" s="0" t="n">
-        <x:v>1026</x:v>
+        <x:v>1025</x:v>
       </x:c>
     </x:row>
     <x:row r="908" spans="1:5">
@@ -30048,7 +30048,7 @@
         <x:v>3321</x:v>
       </x:c>
       <x:c r="E908" s="0" t="n">
-        <x:v>1027</x:v>
+        <x:v>1026</x:v>
       </x:c>
     </x:row>
     <x:row r="909" spans="1:5">
@@ -30065,7 +30065,7 @@
         <x:v>3325</x:v>
       </x:c>
       <x:c r="E909" s="0" t="n">
-        <x:v>1028</x:v>
+        <x:v>1027</x:v>
       </x:c>
     </x:row>
     <x:row r="910" spans="1:5">
@@ -30082,7 +30082,7 @@
         <x:v>3329</x:v>
       </x:c>
       <x:c r="E910" s="0" t="n">
-        <x:v>1029</x:v>
+        <x:v>1028</x:v>
       </x:c>
     </x:row>
     <x:row r="911" spans="1:5">
@@ -30099,7 +30099,7 @@
         <x:v>3333</x:v>
       </x:c>
       <x:c r="E911" s="0" t="n">
-        <x:v>1030</x:v>
+        <x:v>1029</x:v>
       </x:c>
     </x:row>
     <x:row r="912" spans="1:5">
@@ -30116,7 +30116,7 @@
         <x:v>3337</x:v>
       </x:c>
       <x:c r="E912" s="0" t="n">
-        <x:v>1031</x:v>
+        <x:v>1030</x:v>
       </x:c>
     </x:row>
     <x:row r="913" spans="1:5">
@@ -30133,7 +30133,7 @@
         <x:v>3341</x:v>
       </x:c>
       <x:c r="E913" s="0" t="n">
-        <x:v>1032</x:v>
+        <x:v>1031</x:v>
       </x:c>
     </x:row>
     <x:row r="914" spans="1:5">
@@ -30379,30 +30379,30 @@
         <x:v>3395</x:v>
       </x:c>
       <x:c r="B928" s="0" t="s">
+        <x:v>1823</x:v>
+      </x:c>
+      <x:c r="C928" s="0" t="s">
+        <x:v>1823</x:v>
+      </x:c>
+      <x:c r="D928" s="0" t="s">
         <x:v>3396</x:v>
       </x:c>
-      <x:c r="C928" s="0" t="s">
-        <x:v>3397</x:v>
-      </x:c>
-      <x:c r="D928" s="0" t="s">
-        <x:v>3397</x:v>
-      </x:c>
       <x:c r="E928" s="0" t="n">
-        <x:v>1048</x:v>
+        <x:v>1047</x:v>
       </x:c>
     </x:row>
     <x:row r="929" spans="1:5">
       <x:c r="A929" s="0" t="s">
+        <x:v>3397</x:v>
+      </x:c>
+      <x:c r="B929" s="0" t="s">
         <x:v>3398</x:v>
       </x:c>
-      <x:c r="B929" s="0" t="s">
+      <x:c r="C929" s="0" t="s">
         <x:v>3399</x:v>
       </x:c>
-      <x:c r="C929" s="0" t="s">
-        <x:v>3400</x:v>
-      </x:c>
       <x:c r="D929" s="0" t="s">
-        <x:v>3401</x:v>
+        <x:v>3399</x:v>
       </x:c>
       <x:c r="E929" s="0" t="n">
         <x:v>1049</x:v>
@@ -30410,36 +30410,36 @@
     </x:row>
     <x:row r="930" spans="1:5">
       <x:c r="A930" s="0" t="s">
+        <x:v>3400</x:v>
+      </x:c>
+      <x:c r="B930" s="0" t="s">
+        <x:v>3401</x:v>
+      </x:c>
+      <x:c r="C930" s="0" t="s">
         <x:v>3402</x:v>
       </x:c>
-      <x:c r="B930" s="0" t="s">
+      <x:c r="D930" s="0" t="s">
         <x:v>3403</x:v>
       </x:c>
-      <x:c r="C930" s="0" t="s">
-        <x:v>3404</x:v>
-      </x:c>
-      <x:c r="D930" s="0" t="s">
-        <x:v>3405</x:v>
-      </x:c>
       <x:c r="E930" s="0" t="n">
-        <x:v>1051</x:v>
+        <x:v>1050</x:v>
       </x:c>
     </x:row>
     <x:row r="931" spans="1:5">
       <x:c r="A931" s="0" t="s">
+        <x:v>3404</x:v>
+      </x:c>
+      <x:c r="B931" s="0" t="s">
+        <x:v>3405</x:v>
+      </x:c>
+      <x:c r="C931" s="0" t="s">
         <x:v>3406</x:v>
       </x:c>
-      <x:c r="B931" s="0" t="s">
+      <x:c r="D931" s="0" t="s">
         <x:v>3407</x:v>
       </x:c>
-      <x:c r="C931" s="0" t="s">
-        <x:v>2619</x:v>
-      </x:c>
-      <x:c r="D931" s="0" t="s">
-        <x:v>2619</x:v>
-      </x:c>
       <x:c r="E931" s="0" t="n">
-        <x:v>1053</x:v>
+        <x:v>1051</x:v>
       </x:c>
     </x:row>
     <x:row r="932" spans="1:5">
@@ -30450,81 +30450,81 @@
         <x:v>3409</x:v>
       </x:c>
       <x:c r="C932" s="0" t="s">
-        <x:v>3410</x:v>
+        <x:v>2619</x:v>
       </x:c>
       <x:c r="D932" s="0" t="s">
-        <x:v>3411</x:v>
+        <x:v>2619</x:v>
       </x:c>
       <x:c r="E932" s="0" t="n">
-        <x:v>1054</x:v>
+        <x:v>1052</x:v>
       </x:c>
     </x:row>
     <x:row r="933" spans="1:5">
       <x:c r="A933" s="0" t="s">
+        <x:v>3410</x:v>
+      </x:c>
+      <x:c r="B933" s="0" t="s">
+        <x:v>3411</x:v>
+      </x:c>
+      <x:c r="C933" s="0" t="s">
         <x:v>3412</x:v>
       </x:c>
-      <x:c r="B933" s="0" t="s">
+      <x:c r="D933" s="0" t="s">
         <x:v>3413</x:v>
       </x:c>
-      <x:c r="C933" s="0" t="s">
-        <x:v>3414</x:v>
-      </x:c>
-      <x:c r="D933" s="0" t="s">
-        <x:v>3415</x:v>
-      </x:c>
       <x:c r="E933" s="0" t="n">
-        <x:v>1055</x:v>
+        <x:v>1053</x:v>
       </x:c>
     </x:row>
     <x:row r="934" spans="1:5">
       <x:c r="A934" s="0" t="s">
+        <x:v>3414</x:v>
+      </x:c>
+      <x:c r="B934" s="0" t="s">
+        <x:v>3415</x:v>
+      </x:c>
+      <x:c r="C934" s="0" t="s">
         <x:v>3416</x:v>
       </x:c>
-      <x:c r="B934" s="0" t="s">
+      <x:c r="D934" s="0" t="s">
         <x:v>3417</x:v>
       </x:c>
-      <x:c r="C934" s="0" t="s">
-        <x:v>3418</x:v>
-      </x:c>
-      <x:c r="D934" s="0" t="s">
-        <x:v>3418</x:v>
-      </x:c>
       <x:c r="E934" s="0" t="n">
-        <x:v>1056</x:v>
+        <x:v>1054</x:v>
       </x:c>
     </x:row>
     <x:row r="935" spans="1:5">
       <x:c r="A935" s="0" t="s">
+        <x:v>3418</x:v>
+      </x:c>
+      <x:c r="B935" s="0" t="s">
         <x:v>3419</x:v>
       </x:c>
-      <x:c r="B935" s="0" t="s">
+      <x:c r="C935" s="0" t="s">
         <x:v>3420</x:v>
       </x:c>
-      <x:c r="C935" s="0" t="s">
-        <x:v>3421</x:v>
-      </x:c>
       <x:c r="D935" s="0" t="s">
-        <x:v>3422</x:v>
+        <x:v>3420</x:v>
       </x:c>
       <x:c r="E935" s="0" t="n">
-        <x:v>1057</x:v>
+        <x:v>1055</x:v>
       </x:c>
     </x:row>
     <x:row r="936" spans="1:5">
       <x:c r="A936" s="0" t="s">
+        <x:v>3421</x:v>
+      </x:c>
+      <x:c r="B936" s="0" t="s">
+        <x:v>3422</x:v>
+      </x:c>
+      <x:c r="C936" s="0" t="s">
         <x:v>3423</x:v>
-      </x:c>
-      <x:c r="B936" s="0" t="s">
-        <x:v>734</x:v>
-      </x:c>
-      <x:c r="C936" s="0" t="s">
-        <x:v>3424</x:v>
       </x:c>
       <x:c r="D936" s="0" t="s">
         <x:v>3424</x:v>
       </x:c>
       <x:c r="E936" s="0" t="n">
-        <x:v>1058</x:v>
+        <x:v>1056</x:v>
       </x:c>
     </x:row>
     <x:row r="937" spans="1:5">
@@ -30532,47 +30532,47 @@
         <x:v>3425</x:v>
       </x:c>
       <x:c r="B937" s="0" t="s">
+        <x:v>734</x:v>
+      </x:c>
+      <x:c r="C937" s="0" t="s">
         <x:v>3426</x:v>
       </x:c>
-      <x:c r="C937" s="0" t="s">
-        <x:v>3427</x:v>
-      </x:c>
       <x:c r="D937" s="0" t="s">
-        <x:v>3428</x:v>
+        <x:v>3426</x:v>
       </x:c>
       <x:c r="E937" s="0" t="n">
-        <x:v>1059</x:v>
+        <x:v>1057</x:v>
       </x:c>
     </x:row>
     <x:row r="938" spans="1:5">
       <x:c r="A938" s="0" t="s">
-        <x:v>3429</x:v>
+        <x:v>3427</x:v>
       </x:c>
       <x:c r="B938" s="0" t="s">
-        <x:v>3430</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="C938" s="0" t="s">
-        <x:v>3431</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="D938" s="0" t="s">
-        <x:v>3432</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E938" s="0" t="n">
-        <x:v>1060</x:v>
+        <x:v>1058</x:v>
       </x:c>
     </x:row>
     <x:row r="939" spans="1:5">
       <x:c r="A939" s="0" t="s">
-        <x:v>3433</x:v>
+        <x:v>3428</x:v>
       </x:c>
       <x:c r="B939" s="0" t="s">
-        <x:v>3434</x:v>
+        <x:v>3429</x:v>
       </x:c>
       <x:c r="C939" s="0" t="s">
-        <x:v>3435</x:v>
+        <x:v>3430</x:v>
       </x:c>
       <x:c r="D939" s="0" t="s">
-        <x:v>3436</x:v>
+        <x:v>3431</x:v>
       </x:c>
       <x:c r="E939" s="0" t="n">
         <x:v>1061</x:v>
@@ -30580,594 +30580,594 @@
     </x:row>
     <x:row r="940" spans="1:5">
       <x:c r="A940" s="0" t="s">
-        <x:v>3437</x:v>
+        <x:v>3432</x:v>
       </x:c>
       <x:c r="B940" s="0" t="s">
-        <x:v>3438</x:v>
+        <x:v>3433</x:v>
       </x:c>
       <x:c r="C940" s="0" t="s">
-        <x:v>3439</x:v>
+        <x:v>3434</x:v>
       </x:c>
       <x:c r="D940" s="0" t="s">
-        <x:v>3440</x:v>
+        <x:v>3435</x:v>
       </x:c>
       <x:c r="E940" s="0" t="n">
-        <x:v>1063</x:v>
+        <x:v>1062</x:v>
       </x:c>
     </x:row>
     <x:row r="941" spans="1:5">
       <x:c r="A941" s="0" t="s">
-        <x:v>3441</x:v>
+        <x:v>3436</x:v>
       </x:c>
       <x:c r="B941" s="0" t="s">
-        <x:v>3442</x:v>
+        <x:v>3437</x:v>
       </x:c>
       <x:c r="C941" s="0" t="s">
-        <x:v>3443</x:v>
+        <x:v>3438</x:v>
       </x:c>
       <x:c r="D941" s="0" t="s">
-        <x:v>3444</x:v>
+        <x:v>3439</x:v>
       </x:c>
       <x:c r="E941" s="0" t="n">
-        <x:v>1064</x:v>
+        <x:v>1063</x:v>
       </x:c>
     </x:row>
     <x:row r="942" spans="1:5">
       <x:c r="A942" s="0" t="s">
-        <x:v>3445</x:v>
+        <x:v>3440</x:v>
       </x:c>
       <x:c r="B942" s="0" t="s">
-        <x:v>3446</x:v>
+        <x:v>3441</x:v>
       </x:c>
       <x:c r="C942" s="0" t="s">
-        <x:v>3447</x:v>
+        <x:v>3442</x:v>
       </x:c>
       <x:c r="D942" s="0" t="s">
-        <x:v>3422</x:v>
+        <x:v>3443</x:v>
       </x:c>
       <x:c r="E942" s="0" t="n">
-        <x:v>1066</x:v>
+        <x:v>1064</x:v>
       </x:c>
     </x:row>
     <x:row r="943" spans="1:5">
       <x:c r="A943" s="0" t="s">
-        <x:v>3448</x:v>
+        <x:v>3444</x:v>
       </x:c>
       <x:c r="B943" s="0" t="s">
-        <x:v>3449</x:v>
+        <x:v>3445</x:v>
       </x:c>
       <x:c r="C943" s="0" t="s">
-        <x:v>3424</x:v>
+        <x:v>3446</x:v>
       </x:c>
       <x:c r="D943" s="0" t="s">
-        <x:v>3424</x:v>
+        <x:v>3447</x:v>
       </x:c>
       <x:c r="E943" s="0" t="n">
-        <x:v>1067</x:v>
+        <x:v>1065</x:v>
       </x:c>
     </x:row>
     <x:row r="944" spans="1:5">
       <x:c r="A944" s="0" t="s">
+        <x:v>3448</x:v>
+      </x:c>
+      <x:c r="B944" s="0" t="s">
+        <x:v>3449</x:v>
+      </x:c>
+      <x:c r="C944" s="0" t="s">
         <x:v>3450</x:v>
       </x:c>
-      <x:c r="B944" s="0" t="s">
-        <x:v>3451</x:v>
-      </x:c>
-      <x:c r="C944" s="0" t="s">
-        <x:v>3452</x:v>
-      </x:c>
       <x:c r="D944" s="0" t="s">
-        <x:v>3453</x:v>
+        <x:v>3424</x:v>
       </x:c>
       <x:c r="E944" s="0" t="n">
-        <x:v>1068</x:v>
+        <x:v>1066</x:v>
       </x:c>
     </x:row>
     <x:row r="945" spans="1:5">
       <x:c r="A945" s="0" t="s">
-        <x:v>3454</x:v>
+        <x:v>3451</x:v>
       </x:c>
       <x:c r="B945" s="0" t="s">
-        <x:v>3455</x:v>
+        <x:v>3452</x:v>
       </x:c>
       <x:c r="C945" s="0" t="s">
-        <x:v>3456</x:v>
+        <x:v>3426</x:v>
       </x:c>
       <x:c r="D945" s="0" t="s">
-        <x:v>3457</x:v>
+        <x:v>3426</x:v>
       </x:c>
       <x:c r="E945" s="0" t="n">
-        <x:v>1069</x:v>
+        <x:v>1067</x:v>
       </x:c>
     </x:row>
     <x:row r="946" spans="1:5">
       <x:c r="A946" s="0" t="s">
-        <x:v>3458</x:v>
+        <x:v>3453</x:v>
       </x:c>
       <x:c r="B946" s="0" t="s">
-        <x:v>3459</x:v>
+        <x:v>3454</x:v>
       </x:c>
       <x:c r="C946" s="0" t="s">
-        <x:v>3460</x:v>
+        <x:v>3455</x:v>
       </x:c>
       <x:c r="D946" s="0" t="s">
-        <x:v>3461</x:v>
+        <x:v>3456</x:v>
       </x:c>
       <x:c r="E946" s="0" t="n">
-        <x:v>1071</x:v>
+        <x:v>1068</x:v>
       </x:c>
     </x:row>
     <x:row r="947" spans="1:5">
       <x:c r="A947" s="0" t="s">
-        <x:v>3462</x:v>
+        <x:v>3457</x:v>
       </x:c>
       <x:c r="B947" s="0" t="s">
-        <x:v>3463</x:v>
+        <x:v>3458</x:v>
       </x:c>
       <x:c r="C947" s="0" t="s">
-        <x:v>3464</x:v>
+        <x:v>3459</x:v>
       </x:c>
       <x:c r="D947" s="0" t="s">
-        <x:v>3465</x:v>
+        <x:v>3460</x:v>
       </x:c>
       <x:c r="E947" s="0" t="n">
-        <x:v>1072</x:v>
+        <x:v>1069</x:v>
       </x:c>
     </x:row>
     <x:row r="948" spans="1:5">
       <x:c r="A948" s="0" t="s">
-        <x:v>3466</x:v>
+        <x:v>3461</x:v>
       </x:c>
       <x:c r="B948" s="0" t="s">
-        <x:v>3467</x:v>
+        <x:v>3462</x:v>
       </x:c>
       <x:c r="C948" s="0" t="s">
-        <x:v>3468</x:v>
+        <x:v>3463</x:v>
       </x:c>
       <x:c r="D948" s="0" t="s">
-        <x:v>3469</x:v>
+        <x:v>3464</x:v>
       </x:c>
       <x:c r="E948" s="0" t="n">
-        <x:v>1073</x:v>
+        <x:v>1070</x:v>
       </x:c>
     </x:row>
     <x:row r="949" spans="1:5">
       <x:c r="A949" s="0" t="s">
-        <x:v>3470</x:v>
+        <x:v>3465</x:v>
       </x:c>
       <x:c r="B949" s="0" t="s">
-        <x:v>3471</x:v>
+        <x:v>3466</x:v>
       </x:c>
       <x:c r="C949" s="0" t="s">
-        <x:v>3472</x:v>
+        <x:v>3467</x:v>
       </x:c>
       <x:c r="D949" s="0" t="s">
-        <x:v>3473</x:v>
+        <x:v>3468</x:v>
       </x:c>
       <x:c r="E949" s="0" t="n">
-        <x:v>1074</x:v>
+        <x:v>1071</x:v>
       </x:c>
     </x:row>
     <x:row r="950" spans="1:5">
       <x:c r="A950" s="0" t="s">
-        <x:v>3474</x:v>
+        <x:v>3469</x:v>
       </x:c>
       <x:c r="B950" s="0" t="s">
-        <x:v>1540</x:v>
+        <x:v>3470</x:v>
       </x:c>
       <x:c r="C950" s="0" t="s">
-        <x:v>3475</x:v>
+        <x:v>3471</x:v>
       </x:c>
       <x:c r="D950" s="0" t="s">
-        <x:v>3476</x:v>
+        <x:v>3472</x:v>
       </x:c>
       <x:c r="E950" s="0" t="n">
-        <x:v>1075</x:v>
+        <x:v>1072</x:v>
       </x:c>
     </x:row>
     <x:row r="951" spans="1:5">
       <x:c r="A951" s="0" t="s">
-        <x:v>3477</x:v>
+        <x:v>3473</x:v>
       </x:c>
       <x:c r="B951" s="0" t="s">
-        <x:v>3478</x:v>
+        <x:v>3474</x:v>
       </x:c>
       <x:c r="C951" s="0" t="s">
-        <x:v>3479</x:v>
+        <x:v>3475</x:v>
       </x:c>
       <x:c r="D951" s="0" t="s">
-        <x:v>3480</x:v>
+        <x:v>3476</x:v>
       </x:c>
       <x:c r="E951" s="0" t="n">
-        <x:v>1076</x:v>
+        <x:v>1073</x:v>
       </x:c>
     </x:row>
     <x:row r="952" spans="1:5">
       <x:c r="A952" s="0" t="s">
-        <x:v>3481</x:v>
+        <x:v>3477</x:v>
       </x:c>
       <x:c r="B952" s="0" t="s">
-        <x:v>3482</x:v>
+        <x:v>1540</x:v>
       </x:c>
       <x:c r="C952" s="0" t="s">
-        <x:v>3483</x:v>
+        <x:v>3478</x:v>
       </x:c>
       <x:c r="D952" s="0" t="s">
-        <x:v>3484</x:v>
+        <x:v>3479</x:v>
       </x:c>
       <x:c r="E952" s="0" t="n">
-        <x:v>1077</x:v>
+        <x:v>1074</x:v>
       </x:c>
     </x:row>
     <x:row r="953" spans="1:5">
       <x:c r="A953" s="0" t="s">
-        <x:v>3485</x:v>
+        <x:v>3480</x:v>
       </x:c>
       <x:c r="B953" s="0" t="s">
-        <x:v>3486</x:v>
+        <x:v>3481</x:v>
       </x:c>
       <x:c r="C953" s="0" t="s">
-        <x:v>3487</x:v>
+        <x:v>3482</x:v>
       </x:c>
       <x:c r="D953" s="0" t="s">
-        <x:v>3488</x:v>
+        <x:v>3483</x:v>
       </x:c>
       <x:c r="E953" s="0" t="n">
-        <x:v>1081</x:v>
+        <x:v>1075</x:v>
       </x:c>
     </x:row>
     <x:row r="954" spans="1:5">
       <x:c r="A954" s="0" t="s">
-        <x:v>3489</x:v>
+        <x:v>3484</x:v>
       </x:c>
       <x:c r="B954" s="0" t="s">
-        <x:v>3490</x:v>
+        <x:v>3485</x:v>
       </x:c>
       <x:c r="C954" s="0" t="s">
-        <x:v>3491</x:v>
+        <x:v>3486</x:v>
       </x:c>
       <x:c r="D954" s="0" t="s">
-        <x:v>3492</x:v>
+        <x:v>3487</x:v>
       </x:c>
       <x:c r="E954" s="0" t="n">
-        <x:v>1082</x:v>
+        <x:v>1076</x:v>
       </x:c>
     </x:row>
     <x:row r="955" spans="1:5">
       <x:c r="A955" s="0" t="s">
-        <x:v>3493</x:v>
+        <x:v>3488</x:v>
       </x:c>
       <x:c r="B955" s="0" t="s">
-        <x:v>3494</x:v>
+        <x:v>3489</x:v>
       </x:c>
       <x:c r="C955" s="0" t="s">
-        <x:v>3495</x:v>
+        <x:v>3490</x:v>
       </x:c>
       <x:c r="D955" s="0" t="s">
-        <x:v>3496</x:v>
+        <x:v>3491</x:v>
       </x:c>
       <x:c r="E955" s="0" t="n">
-        <x:v>1083</x:v>
+        <x:v>1077</x:v>
       </x:c>
     </x:row>
     <x:row r="956" spans="1:5">
       <x:c r="A956" s="0" t="s">
-        <x:v>3497</x:v>
+        <x:v>3492</x:v>
       </x:c>
       <x:c r="B956" s="0" t="s">
-        <x:v>3498</x:v>
+        <x:v>3493</x:v>
       </x:c>
       <x:c r="C956" s="0" t="s">
-        <x:v>3499</x:v>
+        <x:v>3494</x:v>
       </x:c>
       <x:c r="D956" s="0" t="s">
-        <x:v>3499</x:v>
+        <x:v>3495</x:v>
       </x:c>
       <x:c r="E956" s="0" t="n">
-        <x:v>1084</x:v>
+        <x:v>1078</x:v>
       </x:c>
     </x:row>
     <x:row r="957" spans="1:5">
       <x:c r="A957" s="0" t="s">
-        <x:v>3500</x:v>
+        <x:v>3496</x:v>
       </x:c>
       <x:c r="B957" s="0" t="s">
-        <x:v>3501</x:v>
+        <x:v>3497</x:v>
       </x:c>
       <x:c r="C957" s="0" t="s">
-        <x:v>3502</x:v>
+        <x:v>3498</x:v>
       </x:c>
       <x:c r="D957" s="0" t="s">
-        <x:v>3503</x:v>
+        <x:v>3499</x:v>
       </x:c>
       <x:c r="E957" s="0" t="n">
-        <x:v>1085</x:v>
+        <x:v>1079</x:v>
       </x:c>
     </x:row>
     <x:row r="958" spans="1:5">
       <x:c r="A958" s="0" t="s">
-        <x:v>3504</x:v>
+        <x:v>3500</x:v>
       </x:c>
       <x:c r="B958" s="0" t="s">
-        <x:v>3505</x:v>
+        <x:v>3501</x:v>
       </x:c>
       <x:c r="C958" s="0" t="s">
-        <x:v>3506</x:v>
+        <x:v>3502</x:v>
       </x:c>
       <x:c r="D958" s="0" t="s">
-        <x:v>3507</x:v>
+        <x:v>3502</x:v>
       </x:c>
       <x:c r="E958" s="0" t="n">
-        <x:v>1086</x:v>
+        <x:v>1080</x:v>
       </x:c>
     </x:row>
     <x:row r="959" spans="1:5">
       <x:c r="A959" s="0" t="s">
-        <x:v>3508</x:v>
+        <x:v>3503</x:v>
       </x:c>
       <x:c r="B959" s="0" t="s">
-        <x:v>3509</x:v>
+        <x:v>3504</x:v>
       </x:c>
       <x:c r="C959" s="0" t="s">
-        <x:v>3510</x:v>
+        <x:v>3505</x:v>
       </x:c>
       <x:c r="D959" s="0" t="s">
-        <x:v>3511</x:v>
+        <x:v>3506</x:v>
       </x:c>
       <x:c r="E959" s="0" t="n">
-        <x:v>1087</x:v>
+        <x:v>1081</x:v>
       </x:c>
     </x:row>
     <x:row r="960" spans="1:5">
       <x:c r="A960" s="0" t="s">
-        <x:v>3512</x:v>
+        <x:v>3507</x:v>
       </x:c>
       <x:c r="B960" s="0" t="s">
-        <x:v>3513</x:v>
+        <x:v>3508</x:v>
       </x:c>
       <x:c r="C960" s="0" t="s">
-        <x:v>3514</x:v>
+        <x:v>3509</x:v>
       </x:c>
       <x:c r="D960" s="0" t="s">
-        <x:v>3515</x:v>
+        <x:v>3510</x:v>
       </x:c>
       <x:c r="E960" s="0" t="n">
-        <x:v>1088</x:v>
+        <x:v>1082</x:v>
       </x:c>
     </x:row>
     <x:row r="961" spans="1:5">
       <x:c r="A961" s="0" t="s">
-        <x:v>3516</x:v>
+        <x:v>3511</x:v>
       </x:c>
       <x:c r="B961" s="0" t="s">
-        <x:v>3517</x:v>
+        <x:v>3512</x:v>
       </x:c>
       <x:c r="C961" s="0" t="s">
-        <x:v>3518</x:v>
+        <x:v>3513</x:v>
       </x:c>
       <x:c r="D961" s="0" t="s">
-        <x:v>3519</x:v>
+        <x:v>3514</x:v>
       </x:c>
       <x:c r="E961" s="0" t="n">
-        <x:v>1089</x:v>
+        <x:v>1083</x:v>
       </x:c>
     </x:row>
     <x:row r="962" spans="1:5">
       <x:c r="A962" s="0" t="s">
-        <x:v>3520</x:v>
+        <x:v>3515</x:v>
       </x:c>
       <x:c r="B962" s="0" t="s">
-        <x:v>3521</x:v>
+        <x:v>3516</x:v>
       </x:c>
       <x:c r="C962" s="0" t="s">
-        <x:v>3522</x:v>
+        <x:v>3517</x:v>
       </x:c>
       <x:c r="D962" s="0" t="s">
-        <x:v>3523</x:v>
+        <x:v>3518</x:v>
       </x:c>
       <x:c r="E962" s="0" t="n">
-        <x:v>1090</x:v>
+        <x:v>1084</x:v>
       </x:c>
     </x:row>
     <x:row r="963" spans="1:5">
       <x:c r="A963" s="0" t="s">
-        <x:v>3524</x:v>
+        <x:v>3519</x:v>
       </x:c>
       <x:c r="B963" s="0" t="s">
-        <x:v>3525</x:v>
+        <x:v>3520</x:v>
       </x:c>
       <x:c r="C963" s="0" t="s">
-        <x:v>3526</x:v>
+        <x:v>3521</x:v>
       </x:c>
       <x:c r="D963" s="0" t="s">
-        <x:v>3527</x:v>
+        <x:v>3522</x:v>
       </x:c>
       <x:c r="E963" s="0" t="n">
-        <x:v>1091</x:v>
+        <x:v>1085</x:v>
       </x:c>
     </x:row>
     <x:row r="964" spans="1:5">
       <x:c r="A964" s="0" t="s">
-        <x:v>3528</x:v>
+        <x:v>3523</x:v>
       </x:c>
       <x:c r="B964" s="0" t="s">
-        <x:v>3529</x:v>
+        <x:v>3524</x:v>
       </x:c>
       <x:c r="C964" s="0" t="s">
-        <x:v>3530</x:v>
+        <x:v>3525</x:v>
       </x:c>
       <x:c r="D964" s="0" t="s">
-        <x:v>3531</x:v>
+        <x:v>3526</x:v>
       </x:c>
       <x:c r="E964" s="0" t="n">
-        <x:v>1092</x:v>
+        <x:v>1086</x:v>
       </x:c>
     </x:row>
     <x:row r="965" spans="1:5">
       <x:c r="A965" s="0" t="s">
-        <x:v>3532</x:v>
+        <x:v>3527</x:v>
       </x:c>
       <x:c r="B965" s="0" t="s">
-        <x:v>3533</x:v>
+        <x:v>3528</x:v>
       </x:c>
       <x:c r="C965" s="0" t="s">
-        <x:v>3534</x:v>
+        <x:v>3529</x:v>
       </x:c>
       <x:c r="D965" s="0" t="s">
-        <x:v>3535</x:v>
+        <x:v>3530</x:v>
       </x:c>
       <x:c r="E965" s="0" t="n">
-        <x:v>1093</x:v>
+        <x:v>1087</x:v>
       </x:c>
     </x:row>
     <x:row r="966" spans="1:5">
       <x:c r="A966" s="0" t="s">
-        <x:v>3536</x:v>
+        <x:v>3531</x:v>
       </x:c>
       <x:c r="B966" s="0" t="s">
-        <x:v>3537</x:v>
+        <x:v>3532</x:v>
       </x:c>
       <x:c r="C966" s="0" t="s">
-        <x:v>3538</x:v>
+        <x:v>3533</x:v>
       </x:c>
       <x:c r="D966" s="0" t="s">
-        <x:v>3539</x:v>
+        <x:v>3534</x:v>
       </x:c>
       <x:c r="E966" s="0" t="n">
-        <x:v>1094</x:v>
+        <x:v>1088</x:v>
       </x:c>
     </x:row>
     <x:row r="967" spans="1:5">
       <x:c r="A967" s="0" t="s">
-        <x:v>3540</x:v>
+        <x:v>3535</x:v>
       </x:c>
       <x:c r="B967" s="0" t="s">
-        <x:v>3541</x:v>
+        <x:v>3536</x:v>
       </x:c>
       <x:c r="C967" s="0" t="s">
-        <x:v>3542</x:v>
+        <x:v>3537</x:v>
       </x:c>
       <x:c r="D967" s="0" t="s">
-        <x:v>3543</x:v>
+        <x:v>3538</x:v>
       </x:c>
       <x:c r="E967" s="0" t="n">
-        <x:v>1095</x:v>
+        <x:v>1089</x:v>
       </x:c>
     </x:row>
     <x:row r="968" spans="1:5">
       <x:c r="A968" s="0" t="s">
-        <x:v>3544</x:v>
+        <x:v>3539</x:v>
       </x:c>
       <x:c r="B968" s="0" t="s">
-        <x:v>2001</x:v>
+        <x:v>3540</x:v>
       </x:c>
       <x:c r="C968" s="0" t="s">
-        <x:v>3545</x:v>
+        <x:v>3541</x:v>
       </x:c>
       <x:c r="D968" s="0" t="s">
-        <x:v>3546</x:v>
+        <x:v>3542</x:v>
       </x:c>
       <x:c r="E968" s="0" t="n">
-        <x:v>1096</x:v>
+        <x:v>1090</x:v>
       </x:c>
     </x:row>
     <x:row r="969" spans="1:5">
       <x:c r="A969" s="0" t="s">
-        <x:v>3547</x:v>
+        <x:v>3543</x:v>
       </x:c>
       <x:c r="B969" s="0" t="s">
-        <x:v>3548</x:v>
+        <x:v>3544</x:v>
       </x:c>
       <x:c r="C969" s="0" t="s">
-        <x:v>3472</x:v>
+        <x:v>3545</x:v>
       </x:c>
       <x:c r="D969" s="0" t="s">
-        <x:v>3473</x:v>
+        <x:v>3546</x:v>
       </x:c>
       <x:c r="E969" s="0" t="n">
-        <x:v>1097</x:v>
+        <x:v>1091</x:v>
       </x:c>
     </x:row>
     <x:row r="970" spans="1:5">
       <x:c r="A970" s="0" t="s">
+        <x:v>3547</x:v>
+      </x:c>
+      <x:c r="B970" s="0" t="s">
+        <x:v>2001</x:v>
+      </x:c>
+      <x:c r="C970" s="0" t="s">
+        <x:v>3548</x:v>
+      </x:c>
+      <x:c r="D970" s="0" t="s">
         <x:v>3549</x:v>
       </x:c>
-      <x:c r="B970" s="0" t="s">
-        <x:v>3550</x:v>
-      </x:c>
-      <x:c r="C970" s="0" t="s">
-        <x:v>3551</x:v>
-      </x:c>
-      <x:c r="D970" s="0" t="s">
-        <x:v>3552</x:v>
-      </x:c>
       <x:c r="E970" s="0" t="n">
-        <x:v>1098</x:v>
+        <x:v>1092</x:v>
       </x:c>
     </x:row>
     <x:row r="971" spans="1:5">
       <x:c r="A971" s="0" t="s">
-        <x:v>3553</x:v>
+        <x:v>3550</x:v>
       </x:c>
       <x:c r="B971" s="0" t="s">
-        <x:v>3554</x:v>
+        <x:v>3551</x:v>
       </x:c>
       <x:c r="C971" s="0" t="s">
-        <x:v>3555</x:v>
+        <x:v>3475</x:v>
       </x:c>
       <x:c r="D971" s="0" t="s">
-        <x:v>3556</x:v>
+        <x:v>3476</x:v>
       </x:c>
       <x:c r="E971" s="0" t="n">
-        <x:v>1099</x:v>
+        <x:v>1093</x:v>
       </x:c>
     </x:row>
     <x:row r="972" spans="1:5">
       <x:c r="A972" s="0" t="s">
-        <x:v>3557</x:v>
+        <x:v>3552</x:v>
       </x:c>
       <x:c r="B972" s="0" t="s">
-        <x:v>3558</x:v>
+        <x:v>3553</x:v>
       </x:c>
       <x:c r="C972" s="0" t="s">
-        <x:v>3559</x:v>
+        <x:v>3554</x:v>
       </x:c>
       <x:c r="D972" s="0" t="s">
-        <x:v>3560</x:v>
+        <x:v>3555</x:v>
       </x:c>
       <x:c r="E972" s="0" t="n">
-        <x:v>1100</x:v>
+        <x:v>1094</x:v>
       </x:c>
     </x:row>
     <x:row r="973" spans="1:5">
       <x:c r="A973" s="0" t="s">
-        <x:v>3561</x:v>
+        <x:v>3556</x:v>
       </x:c>
       <x:c r="B973" s="0" t="s">
-        <x:v>3562</x:v>
+        <x:v>3557</x:v>
       </x:c>
       <x:c r="C973" s="0" t="s">
-        <x:v>3563</x:v>
+        <x:v>3558</x:v>
       </x:c>
       <x:c r="D973" s="0" t="s">
-        <x:v>3564</x:v>
+        <x:v>3559</x:v>
       </x:c>
       <x:c r="E973" s="0" t="n">
-        <x:v>1101</x:v>
+        <x:v>1095</x:v>
       </x:c>
     </x:row>
     <x:row r="974" spans="1:5">
       <x:c r="A974" s="0" t="s">
-        <x:v>3565</x:v>
+        <x:v>3560</x:v>
       </x:c>
       <x:c r="B974" s="0" t="s">
-        <x:v>3566</x:v>
+        <x:v>3561</x:v>
       </x:c>
       <x:c r="C974" s="0" t="s">
-        <x:v>3567</x:v>
+        <x:v>3562</x:v>
       </x:c>
       <x:c r="D974" s="0" t="s">
-        <x:v>3568</x:v>
+        <x:v>3563</x:v>
       </x:c>
       <x:c r="E974" s="0" t="n">
         <x:v>1102</x:v>
@@ -31175,16 +31175,16 @@
     </x:row>
     <x:row r="975" spans="1:5">
       <x:c r="A975" s="0" t="s">
-        <x:v>3569</x:v>
+        <x:v>3564</x:v>
       </x:c>
       <x:c r="B975" s="0" t="s">
-        <x:v>3570</x:v>
+        <x:v>3565</x:v>
       </x:c>
       <x:c r="C975" s="0" t="s">
-        <x:v>3571</x:v>
+        <x:v>3566</x:v>
       </x:c>
       <x:c r="D975" s="0" t="s">
-        <x:v>3572</x:v>
+        <x:v>3567</x:v>
       </x:c>
       <x:c r="E975" s="0" t="n">
         <x:v>1103</x:v>
@@ -31192,16 +31192,16 @@
     </x:row>
     <x:row r="976" spans="1:5">
       <x:c r="A976" s="0" t="s">
-        <x:v>3573</x:v>
+        <x:v>3568</x:v>
       </x:c>
       <x:c r="B976" s="0" t="s">
-        <x:v>3574</x:v>
+        <x:v>3569</x:v>
       </x:c>
       <x:c r="C976" s="0" t="s">
-        <x:v>3575</x:v>
+        <x:v>3570</x:v>
       </x:c>
       <x:c r="D976" s="0" t="s">
-        <x:v>3576</x:v>
+        <x:v>3571</x:v>
       </x:c>
       <x:c r="E976" s="0" t="n">
         <x:v>1104</x:v>
@@ -31209,16 +31209,16 @@
     </x:row>
     <x:row r="977" spans="1:5">
       <x:c r="A977" s="0" t="s">
-        <x:v>3577</x:v>
+        <x:v>3572</x:v>
       </x:c>
       <x:c r="B977" s="0" t="s">
-        <x:v>3578</x:v>
+        <x:v>3573</x:v>
       </x:c>
       <x:c r="C977" s="0" t="s">
-        <x:v>3579</x:v>
+        <x:v>3574</x:v>
       </x:c>
       <x:c r="D977" s="0" t="s">
-        <x:v>3580</x:v>
+        <x:v>3575</x:v>
       </x:c>
       <x:c r="E977" s="0" t="n">
         <x:v>1105</x:v>
@@ -31226,16 +31226,16 @@
     </x:row>
     <x:row r="978" spans="1:5">
       <x:c r="A978" s="0" t="s">
-        <x:v>3581</x:v>
+        <x:v>3576</x:v>
       </x:c>
       <x:c r="B978" s="0" t="s">
-        <x:v>3582</x:v>
+        <x:v>3577</x:v>
       </x:c>
       <x:c r="C978" s="0" t="s">
-        <x:v>3583</x:v>
+        <x:v>3578</x:v>
       </x:c>
       <x:c r="D978" s="0" t="s">
-        <x:v>3584</x:v>
+        <x:v>3579</x:v>
       </x:c>
       <x:c r="E978" s="0" t="n">
         <x:v>1106</x:v>
@@ -31243,16 +31243,16 @@
     </x:row>
     <x:row r="979" spans="1:5">
       <x:c r="A979" s="0" t="s">
-        <x:v>3585</x:v>
+        <x:v>3580</x:v>
       </x:c>
       <x:c r="B979" s="0" t="s">
-        <x:v>3586</x:v>
+        <x:v>3581</x:v>
       </x:c>
       <x:c r="C979" s="0" t="s">
-        <x:v>3587</x:v>
+        <x:v>3582</x:v>
       </x:c>
       <x:c r="D979" s="0" t="s">
-        <x:v>3588</x:v>
+        <x:v>3583</x:v>
       </x:c>
       <x:c r="E979" s="0" t="n">
         <x:v>1107</x:v>
@@ -31260,16 +31260,16 @@
     </x:row>
     <x:row r="980" spans="1:5">
       <x:c r="A980" s="0" t="s">
-        <x:v>3589</x:v>
+        <x:v>3584</x:v>
       </x:c>
       <x:c r="B980" s="0" t="s">
-        <x:v>3590</x:v>
+        <x:v>3585</x:v>
       </x:c>
       <x:c r="C980" s="0" t="s">
-        <x:v>3591</x:v>
+        <x:v>3586</x:v>
       </x:c>
       <x:c r="D980" s="0" t="s">
-        <x:v>3592</x:v>
+        <x:v>3587</x:v>
       </x:c>
       <x:c r="E980" s="0" t="n">
         <x:v>1108</x:v>
@@ -31277,16 +31277,16 @@
     </x:row>
     <x:row r="981" spans="1:5">
       <x:c r="A981" s="0" t="s">
-        <x:v>3593</x:v>
+        <x:v>3588</x:v>
       </x:c>
       <x:c r="B981" s="0" t="s">
-        <x:v>3594</x:v>
+        <x:v>3589</x:v>
       </x:c>
       <x:c r="C981" s="0" t="s">
-        <x:v>3595</x:v>
+        <x:v>3590</x:v>
       </x:c>
       <x:c r="D981" s="0" t="s">
-        <x:v>3596</x:v>
+        <x:v>3591</x:v>
       </x:c>
       <x:c r="E981" s="0" t="n">
         <x:v>1109</x:v>
@@ -31294,16 +31294,16 @@
     </x:row>
     <x:row r="982" spans="1:5">
       <x:c r="A982" s="0" t="s">
-        <x:v>3597</x:v>
+        <x:v>3592</x:v>
       </x:c>
       <x:c r="B982" s="0" t="s">
-        <x:v>3598</x:v>
+        <x:v>3593</x:v>
       </x:c>
       <x:c r="C982" s="0" t="s">
-        <x:v>3599</x:v>
+        <x:v>3594</x:v>
       </x:c>
       <x:c r="D982" s="0" t="s">
-        <x:v>3600</x:v>
+        <x:v>3595</x:v>
       </x:c>
       <x:c r="E982" s="0" t="n">
         <x:v>1110</x:v>
@@ -31311,16 +31311,16 @@
     </x:row>
     <x:row r="983" spans="1:5">
       <x:c r="A983" s="0" t="s">
-        <x:v>3601</x:v>
+        <x:v>3596</x:v>
       </x:c>
       <x:c r="B983" s="0" t="s">
-        <x:v>3602</x:v>
+        <x:v>3597</x:v>
       </x:c>
       <x:c r="C983" s="0" t="s">
-        <x:v>3603</x:v>
+        <x:v>3598</x:v>
       </x:c>
       <x:c r="D983" s="0" t="s">
-        <x:v>3603</x:v>
+        <x:v>3599</x:v>
       </x:c>
       <x:c r="E983" s="0" t="n">
         <x:v>1111</x:v>
@@ -31328,16 +31328,16 @@
     </x:row>
     <x:row r="984" spans="1:5">
       <x:c r="A984" s="0" t="s">
-        <x:v>3604</x:v>
+        <x:v>3600</x:v>
       </x:c>
       <x:c r="B984" s="0" t="s">
-        <x:v>3605</x:v>
+        <x:v>3601</x:v>
       </x:c>
       <x:c r="C984" s="0" t="s">
-        <x:v>3606</x:v>
+        <x:v>3602</x:v>
       </x:c>
       <x:c r="D984" s="0" t="s">
-        <x:v>3607</x:v>
+        <x:v>3603</x:v>
       </x:c>
       <x:c r="E984" s="0" t="n">
         <x:v>1112</x:v>
@@ -31345,16 +31345,16 @@
     </x:row>
     <x:row r="985" spans="1:5">
       <x:c r="A985" s="0" t="s">
-        <x:v>3608</x:v>
+        <x:v>3604</x:v>
       </x:c>
       <x:c r="B985" s="0" t="s">
-        <x:v>3609</x:v>
+        <x:v>3605</x:v>
       </x:c>
       <x:c r="C985" s="0" t="s">
-        <x:v>3610</x:v>
+        <x:v>3606</x:v>
       </x:c>
       <x:c r="D985" s="0" t="s">
-        <x:v>3611</x:v>
+        <x:v>3606</x:v>
       </x:c>
       <x:c r="E985" s="0" t="n">
         <x:v>1113</x:v>
@@ -31362,16 +31362,16 @@
     </x:row>
     <x:row r="986" spans="1:5">
       <x:c r="A986" s="0" t="s">
-        <x:v>3612</x:v>
+        <x:v>3607</x:v>
       </x:c>
       <x:c r="B986" s="0" t="s">
-        <x:v>3613</x:v>
+        <x:v>3608</x:v>
       </x:c>
       <x:c r="C986" s="0" t="s">
-        <x:v>3614</x:v>
+        <x:v>3609</x:v>
       </x:c>
       <x:c r="D986" s="0" t="s">
-        <x:v>3615</x:v>
+        <x:v>3610</x:v>
       </x:c>
       <x:c r="E986" s="0" t="n">
         <x:v>1114</x:v>
@@ -31379,16 +31379,16 @@
     </x:row>
     <x:row r="987" spans="1:5">
       <x:c r="A987" s="0" t="s">
-        <x:v>3616</x:v>
+        <x:v>3611</x:v>
       </x:c>
       <x:c r="B987" s="0" t="s">
-        <x:v>3617</x:v>
+        <x:v>3612</x:v>
       </x:c>
       <x:c r="C987" s="0" t="s">
-        <x:v>3618</x:v>
+        <x:v>3613</x:v>
       </x:c>
       <x:c r="D987" s="0" t="s">
-        <x:v>3619</x:v>
+        <x:v>3614</x:v>
       </x:c>
       <x:c r="E987" s="0" t="n">
         <x:v>1115</x:v>
@@ -31396,50 +31396,50 @@
     </x:row>
     <x:row r="988" spans="1:5">
       <x:c r="A988" s="0" t="s">
-        <x:v>3620</x:v>
+        <x:v>3615</x:v>
       </x:c>
       <x:c r="B988" s="0" t="s">
-        <x:v>3621</x:v>
+        <x:v>3616</x:v>
       </x:c>
       <x:c r="C988" s="0" t="s">
-        <x:v>3622</x:v>
+        <x:v>3617</x:v>
       </x:c>
       <x:c r="D988" s="0" t="s">
-        <x:v>3623</x:v>
+        <x:v>3618</x:v>
       </x:c>
       <x:c r="E988" s="0" t="n">
-        <x:v>1118</x:v>
+        <x:v>1116</x:v>
       </x:c>
     </x:row>
     <x:row r="989" spans="1:5">
       <x:c r="A989" s="0" t="s">
-        <x:v>3624</x:v>
+        <x:v>3619</x:v>
       </x:c>
       <x:c r="B989" s="0" t="s">
-        <x:v>3625</x:v>
+        <x:v>3620</x:v>
       </x:c>
       <x:c r="C989" s="0" t="s">
-        <x:v>3626</x:v>
+        <x:v>3621</x:v>
       </x:c>
       <x:c r="D989" s="0" t="s">
-        <x:v>3627</x:v>
+        <x:v>3622</x:v>
       </x:c>
       <x:c r="E989" s="0" t="n">
-        <x:v>1119</x:v>
+        <x:v>1117</x:v>
       </x:c>
     </x:row>
     <x:row r="990" spans="1:5">
       <x:c r="A990" s="0" t="s">
-        <x:v>3628</x:v>
+        <x:v>3623</x:v>
       </x:c>
       <x:c r="B990" s="0" t="s">
-        <x:v>3629</x:v>
+        <x:v>3624</x:v>
       </x:c>
       <x:c r="C990" s="0" t="s">
-        <x:v>3630</x:v>
+        <x:v>3625</x:v>
       </x:c>
       <x:c r="D990" s="0" t="s">
-        <x:v>3631</x:v>
+        <x:v>3626</x:v>
       </x:c>
       <x:c r="E990" s="0" t="n">
         <x:v>1120</x:v>
@@ -31447,512 +31447,512 @@
     </x:row>
     <x:row r="991" spans="1:5">
       <x:c r="A991" s="0" t="s">
-        <x:v>3632</x:v>
+        <x:v>3627</x:v>
       </x:c>
       <x:c r="B991" s="0" t="s">
-        <x:v>3633</x:v>
+        <x:v>3628</x:v>
       </x:c>
       <x:c r="C991" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>3629</x:v>
       </x:c>
       <x:c r="D991" s="0" t="s">
-        <x:v>527</x:v>
+        <x:v>3630</x:v>
       </x:c>
       <x:c r="E991" s="0" t="n">
-        <x:v>1122</x:v>
+        <x:v>1121</x:v>
       </x:c>
     </x:row>
     <x:row r="992" spans="1:5">
       <x:c r="A992" s="0" t="s">
+        <x:v>3631</x:v>
+      </x:c>
+      <x:c r="B992" s="0" t="s">
+        <x:v>3632</x:v>
+      </x:c>
+      <x:c r="C992" s="0" t="s">
+        <x:v>3633</x:v>
+      </x:c>
+      <x:c r="D992" s="0" t="s">
         <x:v>3634</x:v>
       </x:c>
-      <x:c r="B992" s="0" t="s">
-        <x:v>3635</x:v>
-      </x:c>
-      <x:c r="C992" s="0" t="s">
-        <x:v>3636</x:v>
-      </x:c>
-      <x:c r="D992" s="0" t="s">
-        <x:v>3637</x:v>
-      </x:c>
       <x:c r="E992" s="0" t="n">
-        <x:v>1123</x:v>
+        <x:v>1122</x:v>
       </x:c>
     </x:row>
     <x:row r="993" spans="1:5">
       <x:c r="A993" s="0" t="s">
-        <x:v>3638</x:v>
+        <x:v>3635</x:v>
       </x:c>
       <x:c r="B993" s="0" t="s">
-        <x:v>3639</x:v>
+        <x:v>3636</x:v>
       </x:c>
       <x:c r="C993" s="0" t="s">
-        <x:v>3640</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="D993" s="0" t="s">
-        <x:v>3641</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="E993" s="0" t="n">
-        <x:v>1125</x:v>
+        <x:v>1123</x:v>
       </x:c>
     </x:row>
     <x:row r="994" spans="1:5">
       <x:c r="A994" s="0" t="s">
-        <x:v>3642</x:v>
+        <x:v>3637</x:v>
       </x:c>
       <x:c r="B994" s="0" t="s">
-        <x:v>3643</x:v>
+        <x:v>3638</x:v>
       </x:c>
       <x:c r="C994" s="0" t="s">
-        <x:v>3644</x:v>
+        <x:v>3639</x:v>
       </x:c>
       <x:c r="D994" s="0" t="s">
-        <x:v>3645</x:v>
+        <x:v>3640</x:v>
       </x:c>
       <x:c r="E994" s="0" t="n">
-        <x:v>1126</x:v>
+        <x:v>1124</x:v>
       </x:c>
     </x:row>
     <x:row r="995" spans="1:5">
       <x:c r="A995" s="0" t="s">
-        <x:v>3646</x:v>
+        <x:v>3641</x:v>
       </x:c>
       <x:c r="B995" s="0" t="s">
-        <x:v>3647</x:v>
+        <x:v>3642</x:v>
       </x:c>
       <x:c r="C995" s="0" t="s">
-        <x:v>3648</x:v>
+        <x:v>3643</x:v>
       </x:c>
       <x:c r="D995" s="0" t="s">
-        <x:v>3649</x:v>
+        <x:v>3644</x:v>
       </x:c>
       <x:c r="E995" s="0" t="n">
-        <x:v>1127</x:v>
+        <x:v>1125</x:v>
       </x:c>
     </x:row>
     <x:row r="996" spans="1:5">
       <x:c r="A996" s="0" t="s">
-        <x:v>3650</x:v>
+        <x:v>3645</x:v>
       </x:c>
       <x:c r="B996" s="0" t="s">
-        <x:v>3651</x:v>
+        <x:v>3646</x:v>
       </x:c>
       <x:c r="C996" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>3647</x:v>
       </x:c>
       <x:c r="D996" s="0" t="s">
-        <x:v>531</x:v>
+        <x:v>3648</x:v>
       </x:c>
       <x:c r="E996" s="0" t="n">
-        <x:v>1128</x:v>
+        <x:v>1126</x:v>
       </x:c>
     </x:row>
     <x:row r="997" spans="1:5">
       <x:c r="A997" s="0" t="s">
+        <x:v>3649</x:v>
+      </x:c>
+      <x:c r="B997" s="0" t="s">
+        <x:v>3650</x:v>
+      </x:c>
+      <x:c r="C997" s="0" t="s">
+        <x:v>3651</x:v>
+      </x:c>
+      <x:c r="D997" s="0" t="s">
         <x:v>3652</x:v>
       </x:c>
-      <x:c r="B997" s="0" t="s">
-        <x:v>3653</x:v>
-      </x:c>
-      <x:c r="C997" s="0" t="s">
-        <x:v>3654</x:v>
-      </x:c>
-      <x:c r="D997" s="0" t="s">
-        <x:v>3655</x:v>
-      </x:c>
       <x:c r="E997" s="0" t="n">
-        <x:v>1129</x:v>
+        <x:v>1127</x:v>
       </x:c>
     </x:row>
     <x:row r="998" spans="1:5">
       <x:c r="A998" s="0" t="s">
-        <x:v>3656</x:v>
+        <x:v>3653</x:v>
       </x:c>
       <x:c r="B998" s="0" t="s">
-        <x:v>3657</x:v>
+        <x:v>3654</x:v>
       </x:c>
       <x:c r="C998" s="0" t="s">
-        <x:v>3658</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="D998" s="0" t="s">
-        <x:v>3659</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="E998" s="0" t="n">
-        <x:v>1130</x:v>
+        <x:v>1128</x:v>
       </x:c>
     </x:row>
     <x:row r="999" spans="1:5">
       <x:c r="A999" s="0" t="s">
-        <x:v>3660</x:v>
+        <x:v>3655</x:v>
       </x:c>
       <x:c r="B999" s="0" t="s">
-        <x:v>3661</x:v>
+        <x:v>3656</x:v>
       </x:c>
       <x:c r="C999" s="0" t="s">
-        <x:v>3662</x:v>
+        <x:v>3657</x:v>
       </x:c>
       <x:c r="D999" s="0" t="s">
-        <x:v>3663</x:v>
+        <x:v>3658</x:v>
       </x:c>
       <x:c r="E999" s="0" t="n">
-        <x:v>1131</x:v>
+        <x:v>1129</x:v>
       </x:c>
     </x:row>
     <x:row r="1000" spans="1:5">
       <x:c r="A1000" s="0" t="s">
-        <x:v>3664</x:v>
+        <x:v>3659</x:v>
       </x:c>
       <x:c r="B1000" s="0" t="s">
-        <x:v>3665</x:v>
+        <x:v>3660</x:v>
       </x:c>
       <x:c r="C1000" s="0" t="s">
-        <x:v>3666</x:v>
+        <x:v>3661</x:v>
       </x:c>
       <x:c r="D1000" s="0" t="s">
-        <x:v>3667</x:v>
+        <x:v>3662</x:v>
       </x:c>
       <x:c r="E1000" s="0" t="n">
-        <x:v>1132</x:v>
+        <x:v>1130</x:v>
       </x:c>
     </x:row>
     <x:row r="1001" spans="1:5">
       <x:c r="A1001" s="0" t="s">
-        <x:v>3668</x:v>
+        <x:v>3663</x:v>
       </x:c>
       <x:c r="B1001" s="0" t="s">
-        <x:v>3669</x:v>
+        <x:v>3664</x:v>
       </x:c>
       <x:c r="C1001" s="0" t="s">
-        <x:v>522</x:v>
+        <x:v>3665</x:v>
       </x:c>
       <x:c r="D1001" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>3666</x:v>
       </x:c>
       <x:c r="E1001" s="0" t="n">
-        <x:v>1133</x:v>
+        <x:v>1131</x:v>
       </x:c>
     </x:row>
     <x:row r="1002" spans="1:5">
       <x:c r="A1002" s="0" t="s">
+        <x:v>3667</x:v>
+      </x:c>
+      <x:c r="B1002" s="0" t="s">
+        <x:v>3668</x:v>
+      </x:c>
+      <x:c r="C1002" s="0" t="s">
+        <x:v>3669</x:v>
+      </x:c>
+      <x:c r="D1002" s="0" t="s">
         <x:v>3670</x:v>
       </x:c>
-      <x:c r="B1002" s="0" t="s">
-        <x:v>3671</x:v>
-      </x:c>
-      <x:c r="C1002" s="0" t="s">
-        <x:v>3672</x:v>
-      </x:c>
-      <x:c r="D1002" s="0" t="s">
-        <x:v>3673</x:v>
-      </x:c>
       <x:c r="E1002" s="0" t="n">
-        <x:v>1134</x:v>
+        <x:v>1132</x:v>
       </x:c>
     </x:row>
     <x:row r="1003" spans="1:5">
       <x:c r="A1003" s="0" t="s">
-        <x:v>3674</x:v>
+        <x:v>3671</x:v>
       </x:c>
       <x:c r="B1003" s="0" t="s">
-        <x:v>3675</x:v>
+        <x:v>3672</x:v>
       </x:c>
       <x:c r="C1003" s="0" t="s">
-        <x:v>3676</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="D1003" s="0" t="s">
-        <x:v>3677</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="E1003" s="0" t="n">
-        <x:v>1135</x:v>
+        <x:v>1133</x:v>
       </x:c>
     </x:row>
     <x:row r="1004" spans="1:5">
       <x:c r="A1004" s="0" t="s">
-        <x:v>3678</x:v>
+        <x:v>3673</x:v>
       </x:c>
       <x:c r="B1004" s="0" t="s">
-        <x:v>3679</x:v>
+        <x:v>3674</x:v>
       </x:c>
       <x:c r="C1004" s="0" t="s">
-        <x:v>3680</x:v>
+        <x:v>3675</x:v>
       </x:c>
       <x:c r="D1004" s="0" t="s">
-        <x:v>3681</x:v>
+        <x:v>3676</x:v>
       </x:c>
       <x:c r="E1004" s="0" t="n">
-        <x:v>1136</x:v>
+        <x:v>1134</x:v>
       </x:c>
     </x:row>
     <x:row r="1005" spans="1:5">
       <x:c r="A1005" s="0" t="s">
-        <x:v>3682</x:v>
+        <x:v>3677</x:v>
       </x:c>
       <x:c r="B1005" s="0" t="s">
-        <x:v>3683</x:v>
+        <x:v>3678</x:v>
       </x:c>
       <x:c r="C1005" s="0" t="s">
-        <x:v>3684</x:v>
+        <x:v>3679</x:v>
       </x:c>
       <x:c r="D1005" s="0" t="s">
-        <x:v>3685</x:v>
+        <x:v>3680</x:v>
       </x:c>
       <x:c r="E1005" s="0" t="n">
-        <x:v>1137</x:v>
+        <x:v>1135</x:v>
       </x:c>
     </x:row>
     <x:row r="1006" spans="1:5">
       <x:c r="A1006" s="0" t="s">
-        <x:v>3686</x:v>
+        <x:v>3681</x:v>
       </x:c>
       <x:c r="B1006" s="0" t="s">
-        <x:v>3687</x:v>
+        <x:v>3682</x:v>
       </x:c>
       <x:c r="C1006" s="0" t="s">
-        <x:v>3688</x:v>
+        <x:v>3683</x:v>
       </x:c>
       <x:c r="D1006" s="0" t="s">
-        <x:v>3689</x:v>
+        <x:v>3684</x:v>
       </x:c>
       <x:c r="E1006" s="0" t="n">
-        <x:v>1138</x:v>
+        <x:v>1136</x:v>
       </x:c>
     </x:row>
     <x:row r="1007" spans="1:5">
       <x:c r="A1007" s="0" t="s">
-        <x:v>3690</x:v>
+        <x:v>3685</x:v>
       </x:c>
       <x:c r="B1007" s="0" t="s">
-        <x:v>3691</x:v>
+        <x:v>3686</x:v>
       </x:c>
       <x:c r="C1007" s="0" t="s">
-        <x:v>3692</x:v>
+        <x:v>3687</x:v>
       </x:c>
       <x:c r="D1007" s="0" t="s">
-        <x:v>3693</x:v>
+        <x:v>3688</x:v>
       </x:c>
       <x:c r="E1007" s="0" t="n">
-        <x:v>1139</x:v>
+        <x:v>1137</x:v>
       </x:c>
     </x:row>
     <x:row r="1008" spans="1:5">
       <x:c r="A1008" s="0" t="s">
-        <x:v>3694</x:v>
+        <x:v>3689</x:v>
       </x:c>
       <x:c r="B1008" s="0" t="s">
-        <x:v>3695</x:v>
+        <x:v>3690</x:v>
       </x:c>
       <x:c r="C1008" s="0" t="s">
-        <x:v>3696</x:v>
+        <x:v>3691</x:v>
       </x:c>
       <x:c r="D1008" s="0" t="s">
-        <x:v>3697</x:v>
+        <x:v>3692</x:v>
       </x:c>
       <x:c r="E1008" s="0" t="n">
-        <x:v>1140</x:v>
+        <x:v>1138</x:v>
       </x:c>
     </x:row>
     <x:row r="1009" spans="1:5">
       <x:c r="A1009" s="0" t="s">
-        <x:v>3698</x:v>
+        <x:v>3693</x:v>
       </x:c>
       <x:c r="B1009" s="0" t="s">
-        <x:v>3699</x:v>
+        <x:v>3694</x:v>
       </x:c>
       <x:c r="C1009" s="0" t="s">
-        <x:v>3700</x:v>
+        <x:v>3695</x:v>
       </x:c>
       <x:c r="D1009" s="0" t="s">
-        <x:v>3701</x:v>
+        <x:v>3696</x:v>
       </x:c>
       <x:c r="E1009" s="0" t="n">
-        <x:v>1141</x:v>
+        <x:v>1139</x:v>
       </x:c>
     </x:row>
     <x:row r="1010" spans="1:5">
       <x:c r="A1010" s="0" t="s">
-        <x:v>3702</x:v>
+        <x:v>3697</x:v>
       </x:c>
       <x:c r="B1010" s="0" t="s">
-        <x:v>3703</x:v>
+        <x:v>3698</x:v>
       </x:c>
       <x:c r="C1010" s="0" t="s">
-        <x:v>3704</x:v>
+        <x:v>3699</x:v>
       </x:c>
       <x:c r="D1010" s="0" t="s">
-        <x:v>3705</x:v>
+        <x:v>3700</x:v>
       </x:c>
       <x:c r="E1010" s="0" t="n">
-        <x:v>1142</x:v>
+        <x:v>1140</x:v>
       </x:c>
     </x:row>
     <x:row r="1011" spans="1:5">
       <x:c r="A1011" s="0" t="s">
-        <x:v>3706</x:v>
+        <x:v>3701</x:v>
       </x:c>
       <x:c r="B1011" s="0" t="s">
-        <x:v>3707</x:v>
+        <x:v>3702</x:v>
       </x:c>
       <x:c r="C1011" s="0" t="s">
-        <x:v>3708</x:v>
+        <x:v>3703</x:v>
       </x:c>
       <x:c r="D1011" s="0" t="s">
-        <x:v>3709</x:v>
+        <x:v>3704</x:v>
       </x:c>
       <x:c r="E1011" s="0" t="n">
-        <x:v>1143</x:v>
+        <x:v>1141</x:v>
       </x:c>
     </x:row>
     <x:row r="1012" spans="1:5">
       <x:c r="A1012" s="0" t="s">
-        <x:v>3710</x:v>
+        <x:v>3705</x:v>
       </x:c>
       <x:c r="B1012" s="0" t="s">
-        <x:v>3711</x:v>
+        <x:v>3706</x:v>
       </x:c>
       <x:c r="C1012" s="0" t="s">
-        <x:v>3712</x:v>
+        <x:v>3707</x:v>
       </x:c>
       <x:c r="D1012" s="0" t="s">
-        <x:v>3713</x:v>
+        <x:v>3708</x:v>
       </x:c>
       <x:c r="E1012" s="0" t="n">
-        <x:v>1144</x:v>
+        <x:v>1142</x:v>
       </x:c>
     </x:row>
     <x:row r="1013" spans="1:5">
       <x:c r="A1013" s="0" t="s">
-        <x:v>3714</x:v>
+        <x:v>3709</x:v>
       </x:c>
       <x:c r="B1013" s="0" t="s">
-        <x:v>3715</x:v>
+        <x:v>3710</x:v>
       </x:c>
       <x:c r="C1013" s="0" t="s">
-        <x:v>3716</x:v>
+        <x:v>3711</x:v>
       </x:c>
       <x:c r="D1013" s="0" t="s">
-        <x:v>3717</x:v>
+        <x:v>3712</x:v>
       </x:c>
       <x:c r="E1013" s="0" t="n">
-        <x:v>1145</x:v>
+        <x:v>1143</x:v>
       </x:c>
     </x:row>
     <x:row r="1014" spans="1:5">
       <x:c r="A1014" s="0" t="s">
-        <x:v>3718</x:v>
+        <x:v>3713</x:v>
       </x:c>
       <x:c r="B1014" s="0" t="s">
-        <x:v>3719</x:v>
+        <x:v>3714</x:v>
       </x:c>
       <x:c r="C1014" s="0" t="s">
-        <x:v>3720</x:v>
+        <x:v>3715</x:v>
       </x:c>
       <x:c r="D1014" s="0" t="s">
-        <x:v>3720</x:v>
+        <x:v>3716</x:v>
       </x:c>
       <x:c r="E1014" s="0" t="n">
-        <x:v>1149</x:v>
+        <x:v>1144</x:v>
       </x:c>
     </x:row>
     <x:row r="1015" spans="1:5">
       <x:c r="A1015" s="0" t="s">
-        <x:v>3721</x:v>
+        <x:v>3717</x:v>
       </x:c>
       <x:c r="B1015" s="0" t="s">
-        <x:v>3722</x:v>
+        <x:v>3718</x:v>
       </x:c>
       <x:c r="C1015" s="0" t="s">
-        <x:v>3720</x:v>
+        <x:v>3719</x:v>
       </x:c>
       <x:c r="D1015" s="0" t="s">
         <x:v>3720</x:v>
       </x:c>
       <x:c r="E1015" s="0" t="n">
-        <x:v>1150</x:v>
+        <x:v>1145</x:v>
       </x:c>
     </x:row>
     <x:row r="1016" spans="1:5">
       <x:c r="A1016" s="0" t="s">
+        <x:v>3721</x:v>
+      </x:c>
+      <x:c r="B1016" s="0" t="s">
+        <x:v>3722</x:v>
+      </x:c>
+      <x:c r="C1016" s="0" t="s">
         <x:v>3723</x:v>
       </x:c>
-      <x:c r="B1016" s="0" t="s">
-        <x:v>3724</x:v>
-      </x:c>
-      <x:c r="C1016" s="0" t="s">
-        <x:v>3725</x:v>
-      </x:c>
       <x:c r="D1016" s="0" t="s">
-        <x:v>3726</x:v>
+        <x:v>3723</x:v>
       </x:c>
       <x:c r="E1016" s="0" t="n">
-        <x:v>1157</x:v>
+        <x:v>1151</x:v>
       </x:c>
     </x:row>
     <x:row r="1017" spans="1:5">
       <x:c r="A1017" s="0" t="s">
-        <x:v>3727</x:v>
+        <x:v>3724</x:v>
       </x:c>
       <x:c r="B1017" s="0" t="s">
-        <x:v>3728</x:v>
+        <x:v>3725</x:v>
       </x:c>
       <x:c r="C1017" s="0" t="s">
-        <x:v>3725</x:v>
+        <x:v>3723</x:v>
       </x:c>
       <x:c r="D1017" s="0" t="s">
-        <x:v>3726</x:v>
+        <x:v>3723</x:v>
       </x:c>
       <x:c r="E1017" s="0" t="n">
-        <x:v>1162</x:v>
+        <x:v>1152</x:v>
       </x:c>
     </x:row>
     <x:row r="1018" spans="1:5">
       <x:c r="A1018" s="0" t="s">
+        <x:v>3726</x:v>
+      </x:c>
+      <x:c r="B1018" s="0" t="s">
+        <x:v>3727</x:v>
+      </x:c>
+      <x:c r="C1018" s="0" t="s">
+        <x:v>3728</x:v>
+      </x:c>
+      <x:c r="D1018" s="0" t="s">
         <x:v>3729</x:v>
       </x:c>
-      <x:c r="B1018" s="0" t="s">
-        <x:v>3730</x:v>
-      </x:c>
-      <x:c r="C1018" s="0" t="s">
-        <x:v>3731</x:v>
-      </x:c>
-      <x:c r="D1018" s="0" t="s">
-        <x:v>3732</x:v>
-      </x:c>
       <x:c r="E1018" s="0" t="n">
-        <x:v>1188</x:v>
+        <x:v>1159</x:v>
       </x:c>
     </x:row>
     <x:row r="1019" spans="1:5">
       <x:c r="A1019" s="0" t="s">
-        <x:v>3733</x:v>
+        <x:v>3730</x:v>
       </x:c>
       <x:c r="B1019" s="0" t="s">
-        <x:v>3734</x:v>
+        <x:v>3731</x:v>
       </x:c>
       <x:c r="C1019" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>3728</x:v>
       </x:c>
       <x:c r="D1019" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>3729</x:v>
       </x:c>
       <x:c r="E1019" s="0" t="n">
-        <x:v>1213</x:v>
+        <x:v>1161</x:v>
       </x:c>
     </x:row>
     <x:row r="1020" spans="1:5">
       <x:c r="A1020" s="0" t="s">
+        <x:v>3732</x:v>
+      </x:c>
+      <x:c r="B1020" s="0" t="s">
+        <x:v>3733</x:v>
+      </x:c>
+      <x:c r="C1020" s="0" t="s">
+        <x:v>3734</x:v>
+      </x:c>
+      <x:c r="D1020" s="0" t="s">
         <x:v>3735</x:v>
       </x:c>
-      <x:c r="B1020" s="0" t="s">
-        <x:v>3482</x:v>
-      </x:c>
-      <x:c r="C1020" s="0" t="s">
-        <x:v>606</x:v>
-      </x:c>
-      <x:c r="D1020" s="0" t="s">
-        <x:v>607</x:v>
-      </x:c>
       <x:c r="E1020" s="0" t="n">
-        <x:v>1237</x:v>
+        <x:v>1174</x:v>
       </x:c>
     </x:row>
     <x:row r="1021" spans="1:5">
@@ -31963,78 +31963,78 @@
         <x:v>3737</x:v>
       </x:c>
       <x:c r="C1021" s="0" t="s">
-        <x:v>3738</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D1021" s="0" t="s">
-        <x:v>3739</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E1021" s="0" t="n">
-        <x:v>1238</x:v>
+        <x:v>1186</x:v>
       </x:c>
     </x:row>
     <x:row r="1022" spans="1:5">
       <x:c r="A1022" s="0" t="s">
-        <x:v>3740</x:v>
+        <x:v>3738</x:v>
       </x:c>
       <x:c r="B1022" s="0" t="s">
-        <x:v>3741</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="C1022" s="0" t="s">
-        <x:v>3742</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="D1022" s="0" t="s">
-        <x:v>3742</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E1022" s="0" t="n">
-        <x:v>1240</x:v>
+        <x:v>1190</x:v>
       </x:c>
     </x:row>
     <x:row r="1023" spans="1:5">
       <x:c r="A1023" s="0" t="s">
-        <x:v>3743</x:v>
+        <x:v>3739</x:v>
       </x:c>
       <x:c r="B1023" s="0" t="s">
-        <x:v>3744</x:v>
+        <x:v>3485</x:v>
       </x:c>
       <x:c r="C1023" s="0" t="s">
-        <x:v>3745</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="D1023" s="0" t="s">
-        <x:v>3745</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="E1023" s="0" t="n">
-        <x:v>1241</x:v>
+        <x:v>1214</x:v>
       </x:c>
     </x:row>
     <x:row r="1024" spans="1:5">
       <x:c r="A1024" s="0" t="s">
-        <x:v>3746</x:v>
+        <x:v>3740</x:v>
       </x:c>
       <x:c r="B1024" s="0" t="s">
-        <x:v>915</x:v>
+        <x:v>3741</x:v>
       </x:c>
       <x:c r="C1024" s="0" t="s">
-        <x:v>3747</x:v>
+        <x:v>3742</x:v>
       </x:c>
       <x:c r="D1024" s="0" t="s">
-        <x:v>3748</x:v>
+        <x:v>3743</x:v>
       </x:c>
       <x:c r="E1024" s="0" t="n">
-        <x:v>1242</x:v>
+        <x:v>1243</x:v>
       </x:c>
     </x:row>
     <x:row r="1025" spans="1:5">
       <x:c r="A1025" s="0" t="s">
-        <x:v>3749</x:v>
+        <x:v>3744</x:v>
       </x:c>
       <x:c r="B1025" s="0" t="s">
-        <x:v>3750</x:v>
+        <x:v>3745</x:v>
       </x:c>
       <x:c r="C1025" s="0" t="s">
-        <x:v>3751</x:v>
+        <x:v>3746</x:v>
       </x:c>
       <x:c r="D1025" s="0" t="s">
-        <x:v>3752</x:v>
+        <x:v>3746</x:v>
       </x:c>
       <x:c r="E1025" s="0" t="n">
         <x:v>1244</x:v>
@@ -32042,101 +32042,101 @@
     </x:row>
     <x:row r="1026" spans="1:5">
       <x:c r="A1026" s="0" t="s">
-        <x:v>3753</x:v>
+        <x:v>3747</x:v>
       </x:c>
       <x:c r="B1026" s="0" t="s">
-        <x:v>3754</x:v>
+        <x:v>3748</x:v>
       </x:c>
       <x:c r="C1026" s="0" t="s">
-        <x:v>3755</x:v>
+        <x:v>3749</x:v>
       </x:c>
       <x:c r="D1026" s="0" t="s">
-        <x:v>3756</x:v>
+        <x:v>3749</x:v>
       </x:c>
       <x:c r="E1026" s="0" t="n">
-        <x:v>1247</x:v>
+        <x:v>1245</x:v>
       </x:c>
     </x:row>
     <x:row r="1027" spans="1:5">
       <x:c r="A1027" s="0" t="s">
-        <x:v>3757</x:v>
+        <x:v>3750</x:v>
       </x:c>
       <x:c r="B1027" s="0" t="s">
-        <x:v>3758</x:v>
+        <x:v>915</x:v>
       </x:c>
       <x:c r="C1027" s="0" t="s">
-        <x:v>2737</x:v>
+        <x:v>3751</x:v>
       </x:c>
       <x:c r="D1027" s="0" t="s">
-        <x:v>2738</x:v>
+        <x:v>3752</x:v>
       </x:c>
       <x:c r="E1027" s="0" t="n">
-        <x:v>1248</x:v>
+        <x:v>1246</x:v>
       </x:c>
     </x:row>
     <x:row r="1028" spans="1:5">
       <x:c r="A1028" s="0" t="s">
-        <x:v>3759</x:v>
+        <x:v>3753</x:v>
       </x:c>
       <x:c r="B1028" s="0" t="s">
-        <x:v>3760</x:v>
+        <x:v>3754</x:v>
       </x:c>
       <x:c r="C1028" s="0" t="s">
-        <x:v>3761</x:v>
+        <x:v>3755</x:v>
       </x:c>
       <x:c r="D1028" s="0" t="s">
-        <x:v>3762</x:v>
+        <x:v>3756</x:v>
       </x:c>
       <x:c r="E1028" s="0" t="n">
-        <x:v>1249</x:v>
+        <x:v>1248</x:v>
       </x:c>
     </x:row>
     <x:row r="1029" spans="1:5">
       <x:c r="A1029" s="0" t="s">
-        <x:v>3763</x:v>
+        <x:v>3757</x:v>
       </x:c>
       <x:c r="B1029" s="0" t="s">
-        <x:v>3764</x:v>
+        <x:v>3758</x:v>
       </x:c>
       <x:c r="C1029" s="0" t="s">
-        <x:v>3765</x:v>
+        <x:v>3759</x:v>
       </x:c>
       <x:c r="D1029" s="0" t="s">
-        <x:v>3765</x:v>
+        <x:v>3760</x:v>
       </x:c>
       <x:c r="E1029" s="0" t="n">
-        <x:v>1250</x:v>
+        <x:v>1249</x:v>
       </x:c>
     </x:row>
     <x:row r="1030" spans="1:5">
       <x:c r="A1030" s="0" t="s">
-        <x:v>3766</x:v>
+        <x:v>3761</x:v>
       </x:c>
       <x:c r="B1030" s="0" t="s">
-        <x:v>3767</x:v>
+        <x:v>3762</x:v>
       </x:c>
       <x:c r="C1030" s="0" t="s">
-        <x:v>3768</x:v>
+        <x:v>2737</x:v>
       </x:c>
       <x:c r="D1030" s="0" t="s">
-        <x:v>3769</x:v>
+        <x:v>2738</x:v>
       </x:c>
       <x:c r="E1030" s="0" t="n">
-        <x:v>1252</x:v>
+        <x:v>1253</x:v>
       </x:c>
     </x:row>
     <x:row r="1031" spans="1:5">
       <x:c r="A1031" s="0" t="s">
-        <x:v>3770</x:v>
+        <x:v>3763</x:v>
       </x:c>
       <x:c r="B1031" s="0" t="s">
-        <x:v>3771</x:v>
+        <x:v>3764</x:v>
       </x:c>
       <x:c r="C1031" s="0" t="s">
-        <x:v>3772</x:v>
+        <x:v>3765</x:v>
       </x:c>
       <x:c r="D1031" s="0" t="s">
-        <x:v>3773</x:v>
+        <x:v>3766</x:v>
       </x:c>
       <x:c r="E1031" s="0" t="n">
         <x:v>1254</x:v>
@@ -32144,169 +32144,169 @@
     </x:row>
     <x:row r="1032" spans="1:5">
       <x:c r="A1032" s="0" t="s">
-        <x:v>3774</x:v>
+        <x:v>3767</x:v>
       </x:c>
       <x:c r="B1032" s="0" t="s">
-        <x:v>3775</x:v>
+        <x:v>3768</x:v>
       </x:c>
       <x:c r="C1032" s="0" t="s">
-        <x:v>3776</x:v>
+        <x:v>3769</x:v>
       </x:c>
       <x:c r="D1032" s="0" t="s">
-        <x:v>3777</x:v>
+        <x:v>3769</x:v>
       </x:c>
       <x:c r="E1032" s="0" t="n">
-        <x:v>1256</x:v>
+        <x:v>1255</x:v>
       </x:c>
     </x:row>
     <x:row r="1033" spans="1:5">
       <x:c r="A1033" s="0" t="s">
-        <x:v>3778</x:v>
+        <x:v>3770</x:v>
       </x:c>
       <x:c r="B1033" s="0" t="s">
-        <x:v>3779</x:v>
+        <x:v>3771</x:v>
       </x:c>
       <x:c r="C1033" s="0" t="s">
-        <x:v>3780</x:v>
+        <x:v>3772</x:v>
       </x:c>
       <x:c r="D1033" s="0" t="s">
-        <x:v>3780</x:v>
+        <x:v>3773</x:v>
       </x:c>
       <x:c r="E1033" s="0" t="n">
-        <x:v>1257</x:v>
+        <x:v>1256</x:v>
       </x:c>
     </x:row>
     <x:row r="1034" spans="1:5">
       <x:c r="A1034" s="0" t="s">
-        <x:v>3781</x:v>
+        <x:v>3774</x:v>
       </x:c>
       <x:c r="B1034" s="0" t="s">
-        <x:v>3782</x:v>
+        <x:v>3775</x:v>
       </x:c>
       <x:c r="C1034" s="0" t="s">
-        <x:v>2174</x:v>
+        <x:v>3776</x:v>
       </x:c>
       <x:c r="D1034" s="0" t="s">
-        <x:v>2175</x:v>
+        <x:v>3777</x:v>
       </x:c>
       <x:c r="E1034" s="0" t="n">
-        <x:v>1258</x:v>
+        <x:v>1257</x:v>
       </x:c>
     </x:row>
     <x:row r="1035" spans="1:5">
       <x:c r="A1035" s="0" t="s">
-        <x:v>3783</x:v>
+        <x:v>3778</x:v>
       </x:c>
       <x:c r="B1035" s="0" t="s">
-        <x:v>2150</x:v>
+        <x:v>3779</x:v>
       </x:c>
       <x:c r="C1035" s="0" t="s">
-        <x:v>2765</x:v>
+        <x:v>3780</x:v>
       </x:c>
       <x:c r="D1035" s="0" t="s">
-        <x:v>2765</x:v>
+        <x:v>3781</x:v>
       </x:c>
       <x:c r="E1035" s="0" t="n">
-        <x:v>1259</x:v>
+        <x:v>1260</x:v>
       </x:c>
     </x:row>
     <x:row r="1036" spans="1:5">
       <x:c r="A1036" s="0" t="s">
+        <x:v>3782</x:v>
+      </x:c>
+      <x:c r="B1036" s="0" t="s">
+        <x:v>3783</x:v>
+      </x:c>
+      <x:c r="C1036" s="0" t="s">
         <x:v>3784</x:v>
       </x:c>
-      <x:c r="B1036" s="0" t="s">
-        <x:v>3785</x:v>
-      </x:c>
-      <x:c r="C1036" s="0" t="s">
-        <x:v>3786</x:v>
-      </x:c>
       <x:c r="D1036" s="0" t="s">
-        <x:v>3787</x:v>
+        <x:v>3784</x:v>
       </x:c>
       <x:c r="E1036" s="0" t="n">
-        <x:v>1260</x:v>
+        <x:v>1261</x:v>
       </x:c>
     </x:row>
     <x:row r="1037" spans="1:5">
       <x:c r="A1037" s="0" t="s">
-        <x:v>3788</x:v>
+        <x:v>3785</x:v>
       </x:c>
       <x:c r="B1037" s="0" t="s">
-        <x:v>3789</x:v>
+        <x:v>3786</x:v>
       </x:c>
       <x:c r="C1037" s="0" t="s">
-        <x:v>2155</x:v>
+        <x:v>2174</x:v>
       </x:c>
       <x:c r="D1037" s="0" t="s">
-        <x:v>2156</x:v>
+        <x:v>2175</x:v>
       </x:c>
       <x:c r="E1037" s="0" t="n">
-        <x:v>1261</x:v>
+        <x:v>1262</x:v>
       </x:c>
     </x:row>
     <x:row r="1038" spans="1:5">
       <x:c r="A1038" s="0" t="s">
-        <x:v>3790</x:v>
+        <x:v>3787</x:v>
       </x:c>
       <x:c r="B1038" s="0" t="s">
-        <x:v>3791</x:v>
+        <x:v>2150</x:v>
       </x:c>
       <x:c r="C1038" s="0" t="s">
-        <x:v>3792</x:v>
+        <x:v>2765</x:v>
       </x:c>
       <x:c r="D1038" s="0" t="s">
-        <x:v>3793</x:v>
+        <x:v>2765</x:v>
       </x:c>
       <x:c r="E1038" s="0" t="n">
-        <x:v>1262</x:v>
+        <x:v>1263</x:v>
       </x:c>
     </x:row>
     <x:row r="1039" spans="1:5">
       <x:c r="A1039" s="0" t="s">
-        <x:v>3794</x:v>
+        <x:v>3788</x:v>
       </x:c>
       <x:c r="B1039" s="0" t="s">
-        <x:v>3795</x:v>
+        <x:v>3789</x:v>
       </x:c>
       <x:c r="C1039" s="0" t="s">
-        <x:v>3796</x:v>
+        <x:v>3790</x:v>
       </x:c>
       <x:c r="D1039" s="0" t="s">
-        <x:v>3797</x:v>
+        <x:v>3791</x:v>
       </x:c>
       <x:c r="E1039" s="0" t="n">
-        <x:v>1265</x:v>
+        <x:v>1264</x:v>
       </x:c>
     </x:row>
     <x:row r="1040" spans="1:5">
       <x:c r="A1040" s="0" t="s">
-        <x:v>3798</x:v>
+        <x:v>3792</x:v>
       </x:c>
       <x:c r="B1040" s="0" t="s">
-        <x:v>3799</x:v>
+        <x:v>3793</x:v>
       </x:c>
       <x:c r="C1040" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>2155</x:v>
       </x:c>
       <x:c r="D1040" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>2156</x:v>
       </x:c>
       <x:c r="E1040" s="0" t="n">
-        <x:v>1266</x:v>
+        <x:v>1265</x:v>
       </x:c>
     </x:row>
     <x:row r="1041" spans="1:5">
       <x:c r="A1041" s="0" t="s">
-        <x:v>3800</x:v>
+        <x:v>3794</x:v>
       </x:c>
       <x:c r="B1041" s="0" t="s">
-        <x:v>3801</x:v>
+        <x:v>3795</x:v>
       </x:c>
       <x:c r="C1041" s="0" t="s">
-        <x:v>3802</x:v>
+        <x:v>3796</x:v>
       </x:c>
       <x:c r="D1041" s="0" t="s">
-        <x:v>3803</x:v>
+        <x:v>3797</x:v>
       </x:c>
       <x:c r="E1041" s="0" t="n">
         <x:v>1267</x:v>
@@ -32314,16 +32314,16 @@
     </x:row>
     <x:row r="1042" spans="1:5">
       <x:c r="A1042" s="0" t="s">
-        <x:v>3804</x:v>
+        <x:v>3798</x:v>
       </x:c>
       <x:c r="B1042" s="0" t="s">
-        <x:v>3805</x:v>
+        <x:v>3799</x:v>
       </x:c>
       <x:c r="C1042" s="0" t="s">
-        <x:v>3806</x:v>
+        <x:v>3800</x:v>
       </x:c>
       <x:c r="D1042" s="0" t="s">
-        <x:v>3807</x:v>
+        <x:v>3801</x:v>
       </x:c>
       <x:c r="E1042" s="0" t="n">
         <x:v>1268</x:v>
@@ -32331,186 +32331,186 @@
     </x:row>
     <x:row r="1043" spans="1:5">
       <x:c r="A1043" s="0" t="s">
-        <x:v>3808</x:v>
+        <x:v>3802</x:v>
       </x:c>
       <x:c r="B1043" s="0" t="s">
-        <x:v>3809</x:v>
+        <x:v>3803</x:v>
       </x:c>
       <x:c r="C1043" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="D1043" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="E1043" s="0" t="n">
-        <x:v>1269</x:v>
+        <x:v>1271</x:v>
       </x:c>
     </x:row>
     <x:row r="1044" spans="1:5">
       <x:c r="A1044" s="0" t="s">
-        <x:v>3810</x:v>
+        <x:v>3804</x:v>
       </x:c>
       <x:c r="B1044" s="0" t="s">
-        <x:v>3811</x:v>
+        <x:v>3805</x:v>
       </x:c>
       <x:c r="C1044" s="0" t="s">
-        <x:v>3812</x:v>
+        <x:v>3806</x:v>
       </x:c>
       <x:c r="D1044" s="0" t="s">
-        <x:v>3812</x:v>
+        <x:v>3807</x:v>
       </x:c>
       <x:c r="E1044" s="0" t="n">
-        <x:v>1270</x:v>
+        <x:v>1272</x:v>
       </x:c>
     </x:row>
     <x:row r="1045" spans="1:5">
       <x:c r="A1045" s="0" t="s">
-        <x:v>3813</x:v>
+        <x:v>3808</x:v>
       </x:c>
       <x:c r="B1045" s="0" t="s">
-        <x:v>3814</x:v>
+        <x:v>3809</x:v>
       </x:c>
       <x:c r="C1045" s="0" t="s">
-        <x:v>3815</x:v>
+        <x:v>3810</x:v>
       </x:c>
       <x:c r="D1045" s="0" t="s">
-        <x:v>3816</x:v>
+        <x:v>3811</x:v>
       </x:c>
       <x:c r="E1045" s="0" t="n">
-        <x:v>1271</x:v>
+        <x:v>1273</x:v>
       </x:c>
     </x:row>
     <x:row r="1046" spans="1:5">
       <x:c r="A1046" s="0" t="s">
-        <x:v>3817</x:v>
+        <x:v>3812</x:v>
       </x:c>
       <x:c r="B1046" s="0" t="s">
-        <x:v>3818</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="C1046" s="0" t="s">
-        <x:v>3819</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="D1046" s="0" t="s">
-        <x:v>3820</x:v>
+        <x:v>3813</x:v>
       </x:c>
       <x:c r="E1046" s="0" t="n">
-        <x:v>1272</x:v>
+        <x:v>1274</x:v>
       </x:c>
     </x:row>
     <x:row r="1047" spans="1:5">
       <x:c r="A1047" s="0" t="s">
-        <x:v>3821</x:v>
+        <x:v>3814</x:v>
       </x:c>
       <x:c r="B1047" s="0" t="s">
-        <x:v>3822</x:v>
+        <x:v>3815</x:v>
       </x:c>
       <x:c r="C1047" s="0" t="s">
-        <x:v>3823</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="D1047" s="0" t="s">
-        <x:v>3824</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="E1047" s="0" t="n">
-        <x:v>1273</x:v>
+        <x:v>1275</x:v>
       </x:c>
     </x:row>
     <x:row r="1048" spans="1:5">
       <x:c r="A1048" s="0" t="s">
-        <x:v>3825</x:v>
+        <x:v>3816</x:v>
       </x:c>
       <x:c r="B1048" s="0" t="s">
-        <x:v>3826</x:v>
+        <x:v>3817</x:v>
       </x:c>
       <x:c r="C1048" s="0" t="s">
-        <x:v>3827</x:v>
+        <x:v>3818</x:v>
       </x:c>
       <x:c r="D1048" s="0" t="s">
-        <x:v>3828</x:v>
+        <x:v>3818</x:v>
       </x:c>
       <x:c r="E1048" s="0" t="n">
-        <x:v>1274</x:v>
+        <x:v>1276</x:v>
       </x:c>
     </x:row>
     <x:row r="1049" spans="1:5">
       <x:c r="A1049" s="0" t="s">
-        <x:v>3829</x:v>
+        <x:v>3819</x:v>
       </x:c>
       <x:c r="B1049" s="0" t="s">
-        <x:v>3830</x:v>
+        <x:v>3820</x:v>
       </x:c>
       <x:c r="C1049" s="0" t="s">
-        <x:v>3831</x:v>
+        <x:v>3821</x:v>
       </x:c>
       <x:c r="D1049" s="0" t="s">
-        <x:v>3832</x:v>
+        <x:v>3822</x:v>
       </x:c>
       <x:c r="E1049" s="0" t="n">
-        <x:v>1276</x:v>
+        <x:v>1277</x:v>
       </x:c>
     </x:row>
     <x:row r="1050" spans="1:5">
       <x:c r="A1050" s="0" t="s">
-        <x:v>3833</x:v>
+        <x:v>3823</x:v>
       </x:c>
       <x:c r="B1050" s="0" t="s">
-        <x:v>3834</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="C1050" s="0" t="s">
-        <x:v>3835</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="D1050" s="0" t="s">
-        <x:v>3836</x:v>
+        <x:v>3824</x:v>
       </x:c>
       <x:c r="E1050" s="0" t="n">
-        <x:v>1277</x:v>
+        <x:v>1278</x:v>
       </x:c>
     </x:row>
     <x:row r="1051" spans="1:5">
       <x:c r="A1051" s="0" t="s">
-        <x:v>3837</x:v>
+        <x:v>3825</x:v>
       </x:c>
       <x:c r="B1051" s="0" t="s">
-        <x:v>3838</x:v>
+        <x:v>3826</x:v>
       </x:c>
       <x:c r="C1051" s="0" t="s">
-        <x:v>3839</x:v>
+        <x:v>3827</x:v>
       </x:c>
       <x:c r="D1051" s="0" t="s">
-        <x:v>3840</x:v>
+        <x:v>3828</x:v>
       </x:c>
       <x:c r="E1051" s="0" t="n">
-        <x:v>1278</x:v>
+        <x:v>1279</x:v>
       </x:c>
     </x:row>
     <x:row r="1052" spans="1:5">
       <x:c r="A1052" s="0" t="s">
-        <x:v>3841</x:v>
+        <x:v>3829</x:v>
       </x:c>
       <x:c r="B1052" s="0" t="s">
-        <x:v>3842</x:v>
+        <x:v>3830</x:v>
       </x:c>
       <x:c r="C1052" s="0" t="s">
-        <x:v>3843</x:v>
+        <x:v>3831</x:v>
       </x:c>
       <x:c r="D1052" s="0" t="s">
-        <x:v>3844</x:v>
+        <x:v>3832</x:v>
       </x:c>
       <x:c r="E1052" s="0" t="n">
-        <x:v>1279</x:v>
+        <x:v>1280</x:v>
       </x:c>
     </x:row>
     <x:row r="1053" spans="1:5">
       <x:c r="A1053" s="0" t="s">
-        <x:v>3845</x:v>
+        <x:v>3833</x:v>
       </x:c>
       <x:c r="B1053" s="0" t="s">
-        <x:v>3846</x:v>
+        <x:v>3834</x:v>
       </x:c>
       <x:c r="C1053" s="0" t="s">
-        <x:v>3847</x:v>
+        <x:v>3835</x:v>
       </x:c>
       <x:c r="D1053" s="0" t="s">
-        <x:v>3847</x:v>
+        <x:v>3836</x:v>
       </x:c>
       <x:c r="E1053" s="0" t="n">
         <x:v>1281</x:v>
@@ -32518,16 +32518,16 @@
     </x:row>
     <x:row r="1054" spans="1:5">
       <x:c r="A1054" s="0" t="s">
-        <x:v>3848</x:v>
+        <x:v>3837</x:v>
       </x:c>
       <x:c r="B1054" s="0" t="s">
-        <x:v>3849</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="C1054" s="0" t="s">
-        <x:v>3850</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="D1054" s="0" t="s">
-        <x:v>3851</x:v>
+        <x:v>3838</x:v>
       </x:c>
       <x:c r="E1054" s="0" t="n">
         <x:v>1282</x:v>
@@ -32535,16 +32535,16 @@
     </x:row>
     <x:row r="1055" spans="1:5">
       <x:c r="A1055" s="0" t="s">
-        <x:v>3852</x:v>
+        <x:v>3839</x:v>
       </x:c>
       <x:c r="B1055" s="0" t="s">
-        <x:v>3853</x:v>
+        <x:v>3840</x:v>
       </x:c>
       <x:c r="C1055" s="0" t="s">
-        <x:v>3854</x:v>
+        <x:v>3841</x:v>
       </x:c>
       <x:c r="D1055" s="0" t="s">
-        <x:v>3855</x:v>
+        <x:v>3842</x:v>
       </x:c>
       <x:c r="E1055" s="0" t="n">
         <x:v>1283</x:v>
@@ -32552,16 +32552,16 @@
     </x:row>
     <x:row r="1056" spans="1:5">
       <x:c r="A1056" s="0" t="s">
-        <x:v>3856</x:v>
+        <x:v>3843</x:v>
       </x:c>
       <x:c r="B1056" s="0" t="s">
-        <x:v>3857</x:v>
+        <x:v>3844</x:v>
       </x:c>
       <x:c r="C1056" s="0" t="s">
-        <x:v>3858</x:v>
+        <x:v>3845</x:v>
       </x:c>
       <x:c r="D1056" s="0" t="s">
-        <x:v>3859</x:v>
+        <x:v>3846</x:v>
       </x:c>
       <x:c r="E1056" s="0" t="n">
         <x:v>1284</x:v>
@@ -32569,16 +32569,16 @@
     </x:row>
     <x:row r="1057" spans="1:5">
       <x:c r="A1057" s="0" t="s">
-        <x:v>3860</x:v>
+        <x:v>3847</x:v>
       </x:c>
       <x:c r="B1057" s="0" t="s">
-        <x:v>3861</x:v>
+        <x:v>3848</x:v>
       </x:c>
       <x:c r="C1057" s="0" t="s">
-        <x:v>3862</x:v>
+        <x:v>3849</x:v>
       </x:c>
       <x:c r="D1057" s="0" t="s">
-        <x:v>3863</x:v>
+        <x:v>3850</x:v>
       </x:c>
       <x:c r="E1057" s="0" t="n">
         <x:v>1285</x:v>
@@ -32586,16 +32586,16 @@
     </x:row>
     <x:row r="1058" spans="1:5">
       <x:c r="A1058" s="0" t="s">
-        <x:v>3864</x:v>
+        <x:v>3851</x:v>
       </x:c>
       <x:c r="B1058" s="0" t="s">
-        <x:v>3865</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="C1058" s="0" t="s">
-        <x:v>3866</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="D1058" s="0" t="s">
-        <x:v>3867</x:v>
+        <x:v>3852</x:v>
       </x:c>
       <x:c r="E1058" s="0" t="n">
         <x:v>1286</x:v>
@@ -32603,16 +32603,16 @@
     </x:row>
     <x:row r="1059" spans="1:5">
       <x:c r="A1059" s="0" t="s">
-        <x:v>3868</x:v>
+        <x:v>3853</x:v>
       </x:c>
       <x:c r="B1059" s="0" t="s">
-        <x:v>3869</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="C1059" s="0" t="s">
-        <x:v>3870</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="D1059" s="0" t="s">
-        <x:v>3871</x:v>
+        <x:v>3854</x:v>
       </x:c>
       <x:c r="E1059" s="0" t="n">
         <x:v>1287</x:v>
@@ -32620,135 +32620,135 @@
     </x:row>
     <x:row r="1060" spans="1:5">
       <x:c r="A1060" s="0" t="s">
-        <x:v>3872</x:v>
+        <x:v>3855</x:v>
       </x:c>
       <x:c r="B1060" s="0" t="s">
-        <x:v>3873</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="C1060" s="0" t="s">
-        <x:v>3874</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="D1060" s="0" t="s">
-        <x:v>3874</x:v>
+        <x:v>3856</x:v>
       </x:c>
       <x:c r="E1060" s="0" t="n">
-        <x:v>1288</x:v>
+        <x:v>1289</x:v>
       </x:c>
     </x:row>
     <x:row r="1061" spans="1:5">
       <x:c r="A1061" s="0" t="s">
-        <x:v>3875</x:v>
+        <x:v>3857</x:v>
       </x:c>
       <x:c r="B1061" s="0" t="s">
-        <x:v>3876</x:v>
+        <x:v>3858</x:v>
       </x:c>
       <x:c r="C1061" s="0" t="s">
-        <x:v>3877</x:v>
+        <x:v>3859</x:v>
       </x:c>
       <x:c r="D1061" s="0" t="s">
-        <x:v>3878</x:v>
+        <x:v>3860</x:v>
       </x:c>
       <x:c r="E1061" s="0" t="n">
-        <x:v>1289</x:v>
+        <x:v>1290</x:v>
       </x:c>
     </x:row>
     <x:row r="1062" spans="1:5">
       <x:c r="A1062" s="0" t="s">
-        <x:v>3879</x:v>
+        <x:v>3861</x:v>
       </x:c>
       <x:c r="B1062" s="0" t="s">
-        <x:v>3880</x:v>
+        <x:v>3862</x:v>
       </x:c>
       <x:c r="C1062" s="0" t="s">
-        <x:v>3881</x:v>
+        <x:v>3863</x:v>
       </x:c>
       <x:c r="D1062" s="0" t="s">
-        <x:v>3881</x:v>
+        <x:v>3863</x:v>
       </x:c>
       <x:c r="E1062" s="0" t="n">
-        <x:v>1290</x:v>
+        <x:v>1291</x:v>
       </x:c>
     </x:row>
     <x:row r="1063" spans="1:5">
       <x:c r="A1063" s="0" t="s">
-        <x:v>3882</x:v>
+        <x:v>3864</x:v>
       </x:c>
       <x:c r="B1063" s="0" t="s">
-        <x:v>3883</x:v>
+        <x:v>3865</x:v>
       </x:c>
       <x:c r="C1063" s="0" t="s">
-        <x:v>3884</x:v>
+        <x:v>3866</x:v>
       </x:c>
       <x:c r="D1063" s="0" t="s">
-        <x:v>3885</x:v>
+        <x:v>3867</x:v>
       </x:c>
       <x:c r="E1063" s="0" t="n">
-        <x:v>1291</x:v>
+        <x:v>1292</x:v>
       </x:c>
     </x:row>
     <x:row r="1064" spans="1:5">
       <x:c r="A1064" s="0" t="s">
-        <x:v>3886</x:v>
+        <x:v>3868</x:v>
       </x:c>
       <x:c r="B1064" s="0" t="s">
-        <x:v>3887</x:v>
+        <x:v>3869</x:v>
       </x:c>
       <x:c r="C1064" s="0" t="s">
-        <x:v>3888</x:v>
+        <x:v>3870</x:v>
       </x:c>
       <x:c r="D1064" s="0" t="s">
-        <x:v>3889</x:v>
+        <x:v>3871</x:v>
       </x:c>
       <x:c r="E1064" s="0" t="n">
-        <x:v>1292</x:v>
+        <x:v>1294</x:v>
       </x:c>
     </x:row>
     <x:row r="1065" spans="1:5">
       <x:c r="A1065" s="0" t="s">
-        <x:v>3890</x:v>
+        <x:v>3872</x:v>
       </x:c>
       <x:c r="B1065" s="0" t="s">
-        <x:v>3891</x:v>
+        <x:v>3873</x:v>
       </x:c>
       <x:c r="C1065" s="0" t="s">
-        <x:v>3892</x:v>
+        <x:v>3874</x:v>
       </x:c>
       <x:c r="D1065" s="0" t="s">
-        <x:v>3892</x:v>
+        <x:v>3875</x:v>
       </x:c>
       <x:c r="E1065" s="0" t="n">
-        <x:v>1293</x:v>
+        <x:v>1295</x:v>
       </x:c>
     </x:row>
     <x:row r="1066" spans="1:5">
       <x:c r="A1066" s="0" t="s">
-        <x:v>3893</x:v>
+        <x:v>3876</x:v>
       </x:c>
       <x:c r="B1066" s="0" t="s">
-        <x:v>3894</x:v>
+        <x:v>3877</x:v>
       </x:c>
       <x:c r="C1066" s="0" t="s">
-        <x:v>3895</x:v>
+        <x:v>3878</x:v>
       </x:c>
       <x:c r="D1066" s="0" t="s">
-        <x:v>3896</x:v>
+        <x:v>3879</x:v>
       </x:c>
       <x:c r="E1066" s="0" t="n">
-        <x:v>1294</x:v>
+        <x:v>1296</x:v>
       </x:c>
     </x:row>
     <x:row r="1067" spans="1:5">
       <x:c r="A1067" s="0" t="s">
-        <x:v>3897</x:v>
+        <x:v>3880</x:v>
       </x:c>
       <x:c r="B1067" s="0" t="s">
-        <x:v>3898</x:v>
+        <x:v>3881</x:v>
       </x:c>
       <x:c r="C1067" s="0" t="s">
-        <x:v>2888</x:v>
+        <x:v>3882</x:v>
       </x:c>
       <x:c r="D1067" s="0" t="s">
-        <x:v>2889</x:v>
+        <x:v>3883</x:v>
       </x:c>
       <x:c r="E1067" s="0" t="n">
         <x:v>1297</x:v>
@@ -32756,356 +32756,356 @@
     </x:row>
     <x:row r="1068" spans="1:5">
       <x:c r="A1068" s="0" t="s">
-        <x:v>3899</x:v>
+        <x:v>3884</x:v>
       </x:c>
       <x:c r="B1068" s="0" t="s">
-        <x:v>3900</x:v>
+        <x:v>3885</x:v>
       </x:c>
       <x:c r="C1068" s="0" t="s">
-        <x:v>3901</x:v>
+        <x:v>3886</x:v>
       </x:c>
       <x:c r="D1068" s="0" t="s">
-        <x:v>3902</x:v>
+        <x:v>3887</x:v>
       </x:c>
       <x:c r="E1068" s="0" t="n">
-        <x:v>1299</x:v>
+        <x:v>1298</x:v>
       </x:c>
     </x:row>
     <x:row r="1069" spans="1:5">
       <x:c r="A1069" s="0" t="s">
-        <x:v>3903</x:v>
+        <x:v>3888</x:v>
       </x:c>
       <x:c r="B1069" s="0" t="s">
-        <x:v>3904</x:v>
+        <x:v>3889</x:v>
       </x:c>
       <x:c r="C1069" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>3890</x:v>
       </x:c>
       <x:c r="D1069" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>3890</x:v>
       </x:c>
       <x:c r="E1069" s="0" t="n">
-        <x:v>1301</x:v>
+        <x:v>1299</x:v>
       </x:c>
     </x:row>
     <x:row r="1070" spans="1:5">
       <x:c r="A1070" s="0" t="s">
-        <x:v>3905</x:v>
+        <x:v>3891</x:v>
       </x:c>
       <x:c r="B1070" s="0" t="s">
-        <x:v>3906</x:v>
+        <x:v>3892</x:v>
       </x:c>
       <x:c r="C1070" s="0" t="s">
-        <x:v>3907</x:v>
+        <x:v>3893</x:v>
       </x:c>
       <x:c r="D1070" s="0" t="s">
-        <x:v>3908</x:v>
+        <x:v>3894</x:v>
       </x:c>
       <x:c r="E1070" s="0" t="n">
-        <x:v>1302</x:v>
+        <x:v>1300</x:v>
       </x:c>
     </x:row>
     <x:row r="1071" spans="1:5">
       <x:c r="A1071" s="0" t="s">
-        <x:v>3909</x:v>
+        <x:v>3895</x:v>
       </x:c>
       <x:c r="B1071" s="0" t="s">
-        <x:v>3910</x:v>
+        <x:v>3896</x:v>
       </x:c>
       <x:c r="C1071" s="0" t="s">
-        <x:v>3911</x:v>
+        <x:v>3897</x:v>
       </x:c>
       <x:c r="D1071" s="0" t="s">
-        <x:v>3912</x:v>
+        <x:v>3897</x:v>
       </x:c>
       <x:c r="E1071" s="0" t="n">
-        <x:v>1303</x:v>
+        <x:v>1301</x:v>
       </x:c>
     </x:row>
     <x:row r="1072" spans="1:5">
       <x:c r="A1072" s="0" t="s">
-        <x:v>3913</x:v>
+        <x:v>3898</x:v>
       </x:c>
       <x:c r="B1072" s="0" t="s">
-        <x:v>3914</x:v>
+        <x:v>3899</x:v>
       </x:c>
       <x:c r="C1072" s="0" t="s">
-        <x:v>3915</x:v>
+        <x:v>3900</x:v>
       </x:c>
       <x:c r="D1072" s="0" t="s">
-        <x:v>3916</x:v>
+        <x:v>3901</x:v>
       </x:c>
       <x:c r="E1072" s="0" t="n">
-        <x:v>1304</x:v>
+        <x:v>1302</x:v>
       </x:c>
     </x:row>
     <x:row r="1073" spans="1:5">
       <x:c r="A1073" s="0" t="s">
-        <x:v>3917</x:v>
+        <x:v>3902</x:v>
       </x:c>
       <x:c r="B1073" s="0" t="s">
-        <x:v>3918</x:v>
+        <x:v>3903</x:v>
       </x:c>
       <x:c r="C1073" s="0" t="s">
-        <x:v>3919</x:v>
+        <x:v>3904</x:v>
       </x:c>
       <x:c r="D1073" s="0" t="s">
-        <x:v>3920</x:v>
+        <x:v>3905</x:v>
       </x:c>
       <x:c r="E1073" s="0" t="n">
-        <x:v>1305</x:v>
+        <x:v>1303</x:v>
       </x:c>
     </x:row>
     <x:row r="1074" spans="1:5">
       <x:c r="A1074" s="0" t="s">
-        <x:v>3921</x:v>
+        <x:v>3906</x:v>
       </x:c>
       <x:c r="B1074" s="0" t="s">
-        <x:v>3922</x:v>
+        <x:v>3907</x:v>
       </x:c>
       <x:c r="C1074" s="0" t="s">
-        <x:v>3923</x:v>
+        <x:v>3908</x:v>
       </x:c>
       <x:c r="D1074" s="0" t="s">
-        <x:v>3924</x:v>
+        <x:v>3908</x:v>
       </x:c>
       <x:c r="E1074" s="0" t="n">
-        <x:v>1306</x:v>
+        <x:v>1304</x:v>
       </x:c>
     </x:row>
     <x:row r="1075" spans="1:5">
       <x:c r="A1075" s="0" t="s">
-        <x:v>3925</x:v>
+        <x:v>3909</x:v>
       </x:c>
       <x:c r="B1075" s="0" t="s">
-        <x:v>3926</x:v>
+        <x:v>3910</x:v>
       </x:c>
       <x:c r="C1075" s="0" t="s">
-        <x:v>3927</x:v>
+        <x:v>3911</x:v>
       </x:c>
       <x:c r="D1075" s="0" t="s">
-        <x:v>3928</x:v>
+        <x:v>3912</x:v>
       </x:c>
       <x:c r="E1075" s="0" t="n">
-        <x:v>1307</x:v>
+        <x:v>1305</x:v>
       </x:c>
     </x:row>
     <x:row r="1076" spans="1:5">
       <x:c r="A1076" s="0" t="s">
-        <x:v>3929</x:v>
+        <x:v>3913</x:v>
       </x:c>
       <x:c r="B1076" s="0" t="s">
-        <x:v>3930</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="C1076" s="0" t="s">
-        <x:v>3931</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="D1076" s="0" t="s">
-        <x:v>3932</x:v>
+        <x:v>3914</x:v>
       </x:c>
       <x:c r="E1076" s="0" t="n">
-        <x:v>1308</x:v>
+        <x:v>1306</x:v>
       </x:c>
     </x:row>
     <x:row r="1077" spans="1:5">
       <x:c r="A1077" s="0" t="s">
-        <x:v>3933</x:v>
+        <x:v>3915</x:v>
       </x:c>
       <x:c r="B1077" s="0" t="s">
-        <x:v>3934</x:v>
+        <x:v>3916</x:v>
       </x:c>
       <x:c r="C1077" s="0" t="s">
-        <x:v>3935</x:v>
+        <x:v>2888</x:v>
       </x:c>
       <x:c r="D1077" s="0" t="s">
-        <x:v>3936</x:v>
+        <x:v>2889</x:v>
       </x:c>
       <x:c r="E1077" s="0" t="n">
-        <x:v>1309</x:v>
+        <x:v>1307</x:v>
       </x:c>
     </x:row>
     <x:row r="1078" spans="1:5">
       <x:c r="A1078" s="0" t="s">
-        <x:v>3937</x:v>
+        <x:v>3917</x:v>
       </x:c>
       <x:c r="B1078" s="0" t="s">
-        <x:v>3938</x:v>
+        <x:v>3918</x:v>
       </x:c>
       <x:c r="C1078" s="0" t="s">
-        <x:v>3939</x:v>
+        <x:v>3919</x:v>
       </x:c>
       <x:c r="D1078" s="0" t="s">
-        <x:v>3940</x:v>
+        <x:v>3920</x:v>
       </x:c>
       <x:c r="E1078" s="0" t="n">
-        <x:v>1310</x:v>
+        <x:v>1309</x:v>
       </x:c>
     </x:row>
     <x:row r="1079" spans="1:5">
       <x:c r="A1079" s="0" t="s">
-        <x:v>3941</x:v>
+        <x:v>3921</x:v>
       </x:c>
       <x:c r="B1079" s="0" t="s">
-        <x:v>3942</x:v>
+        <x:v>3922</x:v>
       </x:c>
       <x:c r="C1079" s="0" t="s">
-        <x:v>3943</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="D1079" s="0" t="s">
-        <x:v>3944</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="E1079" s="0" t="n">
-        <x:v>1312</x:v>
+        <x:v>1313</x:v>
       </x:c>
     </x:row>
     <x:row r="1080" spans="1:5">
       <x:c r="A1080" s="0" t="s">
-        <x:v>3945</x:v>
+        <x:v>3923</x:v>
       </x:c>
       <x:c r="B1080" s="0" t="s">
-        <x:v>3946</x:v>
+        <x:v>3924</x:v>
       </x:c>
       <x:c r="C1080" s="0" t="s">
-        <x:v>3947</x:v>
+        <x:v>3925</x:v>
       </x:c>
       <x:c r="D1080" s="0" t="s">
-        <x:v>3948</x:v>
+        <x:v>3926</x:v>
       </x:c>
       <x:c r="E1080" s="0" t="n">
-        <x:v>1313</x:v>
+        <x:v>1314</x:v>
       </x:c>
     </x:row>
     <x:row r="1081" spans="1:5">
       <x:c r="A1081" s="0" t="s">
-        <x:v>3949</x:v>
+        <x:v>3927</x:v>
       </x:c>
       <x:c r="B1081" s="0" t="s">
-        <x:v>3950</x:v>
+        <x:v>3928</x:v>
       </x:c>
       <x:c r="C1081" s="0" t="s">
-        <x:v>3951</x:v>
+        <x:v>3929</x:v>
       </x:c>
       <x:c r="D1081" s="0" t="s">
-        <x:v>3952</x:v>
+        <x:v>3930</x:v>
       </x:c>
       <x:c r="E1081" s="0" t="n">
-        <x:v>1314</x:v>
+        <x:v>1315</x:v>
       </x:c>
     </x:row>
     <x:row r="1082" spans="1:5">
       <x:c r="A1082" s="0" t="s">
-        <x:v>3953</x:v>
+        <x:v>3931</x:v>
       </x:c>
       <x:c r="B1082" s="0" t="s">
-        <x:v>3954</x:v>
+        <x:v>3932</x:v>
       </x:c>
       <x:c r="C1082" s="0" t="s">
-        <x:v>3955</x:v>
+        <x:v>3933</x:v>
       </x:c>
       <x:c r="D1082" s="0" t="s">
-        <x:v>3956</x:v>
+        <x:v>3934</x:v>
       </x:c>
       <x:c r="E1082" s="0" t="n">
-        <x:v>1315</x:v>
+        <x:v>1316</x:v>
       </x:c>
     </x:row>
     <x:row r="1083" spans="1:5">
       <x:c r="A1083" s="0" t="s">
-        <x:v>3957</x:v>
+        <x:v>3935</x:v>
       </x:c>
       <x:c r="B1083" s="0" t="s">
-        <x:v>3958</x:v>
+        <x:v>3936</x:v>
       </x:c>
       <x:c r="C1083" s="0" t="s">
-        <x:v>3959</x:v>
+        <x:v>3937</x:v>
       </x:c>
       <x:c r="D1083" s="0" t="s">
-        <x:v>3960</x:v>
+        <x:v>3938</x:v>
       </x:c>
       <x:c r="E1083" s="0" t="n">
-        <x:v>1316</x:v>
+        <x:v>1317</x:v>
       </x:c>
     </x:row>
     <x:row r="1084" spans="1:5">
       <x:c r="A1084" s="0" t="s">
-        <x:v>3961</x:v>
+        <x:v>3939</x:v>
       </x:c>
       <x:c r="B1084" s="0" t="s">
-        <x:v>3962</x:v>
+        <x:v>3940</x:v>
       </x:c>
       <x:c r="C1084" s="0" t="s">
-        <x:v>3963</x:v>
+        <x:v>3941</x:v>
       </x:c>
       <x:c r="D1084" s="0" t="s">
-        <x:v>3964</x:v>
+        <x:v>3942</x:v>
       </x:c>
       <x:c r="E1084" s="0" t="n">
-        <x:v>1317</x:v>
+        <x:v>1318</x:v>
       </x:c>
     </x:row>
     <x:row r="1085" spans="1:5">
       <x:c r="A1085" s="0" t="s">
-        <x:v>3965</x:v>
+        <x:v>3943</x:v>
       </x:c>
       <x:c r="B1085" s="0" t="s">
-        <x:v>3966</x:v>
+        <x:v>3944</x:v>
       </x:c>
       <x:c r="C1085" s="0" t="s">
-        <x:v>3967</x:v>
+        <x:v>3945</x:v>
       </x:c>
       <x:c r="D1085" s="0" t="s">
-        <x:v>3968</x:v>
+        <x:v>3946</x:v>
       </x:c>
       <x:c r="E1085" s="0" t="n">
-        <x:v>1318</x:v>
+        <x:v>1319</x:v>
       </x:c>
     </x:row>
     <x:row r="1086" spans="1:5">
       <x:c r="A1086" s="0" t="s">
-        <x:v>3969</x:v>
+        <x:v>3947</x:v>
       </x:c>
       <x:c r="B1086" s="0" t="s">
-        <x:v>3970</x:v>
+        <x:v>3948</x:v>
       </x:c>
       <x:c r="C1086" s="0" t="s">
-        <x:v>3971</x:v>
+        <x:v>3949</x:v>
       </x:c>
       <x:c r="D1086" s="0" t="s">
-        <x:v>3972</x:v>
+        <x:v>3950</x:v>
       </x:c>
       <x:c r="E1086" s="0" t="n">
-        <x:v>1319</x:v>
+        <x:v>1320</x:v>
       </x:c>
     </x:row>
     <x:row r="1087" spans="1:5">
       <x:c r="A1087" s="0" t="s">
-        <x:v>3973</x:v>
+        <x:v>3951</x:v>
       </x:c>
       <x:c r="B1087" s="0" t="s">
-        <x:v>3974</x:v>
+        <x:v>3952</x:v>
       </x:c>
       <x:c r="C1087" s="0" t="s">
-        <x:v>3975</x:v>
+        <x:v>3953</x:v>
       </x:c>
       <x:c r="D1087" s="0" t="s">
-        <x:v>3976</x:v>
+        <x:v>3954</x:v>
       </x:c>
       <x:c r="E1087" s="0" t="n">
-        <x:v>1320</x:v>
+        <x:v>1321</x:v>
       </x:c>
     </x:row>
     <x:row r="1088" spans="1:5">
       <x:c r="A1088" s="0" t="s">
-        <x:v>3977</x:v>
+        <x:v>3955</x:v>
       </x:c>
       <x:c r="B1088" s="0" t="s">
-        <x:v>3978</x:v>
+        <x:v>3956</x:v>
       </x:c>
       <x:c r="C1088" s="0" t="s">
-        <x:v>3979</x:v>
+        <x:v>3957</x:v>
       </x:c>
       <x:c r="D1088" s="0" t="s">
-        <x:v>3980</x:v>
+        <x:v>3958</x:v>
       </x:c>
       <x:c r="E1088" s="0" t="n">
         <x:v>1322</x:v>
@@ -33113,16 +33113,16 @@
     </x:row>
     <x:row r="1089" spans="1:5">
       <x:c r="A1089" s="0" t="s">
-        <x:v>3981</x:v>
+        <x:v>3959</x:v>
       </x:c>
       <x:c r="B1089" s="0" t="s">
-        <x:v>3982</x:v>
+        <x:v>3960</x:v>
       </x:c>
       <x:c r="C1089" s="0" t="s">
-        <x:v>3983</x:v>
+        <x:v>3961</x:v>
       </x:c>
       <x:c r="D1089" s="0" t="s">
-        <x:v>3984</x:v>
+        <x:v>3962</x:v>
       </x:c>
       <x:c r="E1089" s="0" t="n">
         <x:v>1323</x:v>
@@ -33130,16 +33130,16 @@
     </x:row>
     <x:row r="1090" spans="1:5">
       <x:c r="A1090" s="0" t="s">
-        <x:v>3985</x:v>
+        <x:v>3963</x:v>
       </x:c>
       <x:c r="B1090" s="0" t="s">
-        <x:v>3986</x:v>
+        <x:v>3964</x:v>
       </x:c>
       <x:c r="C1090" s="0" t="s">
-        <x:v>3987</x:v>
+        <x:v>3965</x:v>
       </x:c>
       <x:c r="D1090" s="0" t="s">
-        <x:v>3988</x:v>
+        <x:v>3966</x:v>
       </x:c>
       <x:c r="E1090" s="0" t="n">
         <x:v>1324</x:v>
@@ -33147,16 +33147,16 @@
     </x:row>
     <x:row r="1091" spans="1:5">
       <x:c r="A1091" s="0" t="s">
-        <x:v>3989</x:v>
+        <x:v>3967</x:v>
       </x:c>
       <x:c r="B1091" s="0" t="s">
-        <x:v>3990</x:v>
+        <x:v>3968</x:v>
       </x:c>
       <x:c r="C1091" s="0" t="s">
-        <x:v>3991</x:v>
+        <x:v>3969</x:v>
       </x:c>
       <x:c r="D1091" s="0" t="s">
-        <x:v>3992</x:v>
+        <x:v>3970</x:v>
       </x:c>
       <x:c r="E1091" s="0" t="n">
         <x:v>1325</x:v>
@@ -33164,16 +33164,16 @@
     </x:row>
     <x:row r="1092" spans="1:5">
       <x:c r="A1092" s="0" t="s">
-        <x:v>3993</x:v>
+        <x:v>3971</x:v>
       </x:c>
       <x:c r="B1092" s="0" t="s">
-        <x:v>3994</x:v>
+        <x:v>3972</x:v>
       </x:c>
       <x:c r="C1092" s="0" t="s">
-        <x:v>3995</x:v>
+        <x:v>3973</x:v>
       </x:c>
       <x:c r="D1092" s="0" t="s">
-        <x:v>3996</x:v>
+        <x:v>3974</x:v>
       </x:c>
       <x:c r="E1092" s="0" t="n">
         <x:v>1326</x:v>
@@ -33181,16 +33181,16 @@
     </x:row>
     <x:row r="1093" spans="1:5">
       <x:c r="A1093" s="0" t="s">
-        <x:v>3997</x:v>
+        <x:v>3975</x:v>
       </x:c>
       <x:c r="B1093" s="0" t="s">
-        <x:v>3998</x:v>
+        <x:v>3976</x:v>
       </x:c>
       <x:c r="C1093" s="0" t="s">
-        <x:v>3999</x:v>
+        <x:v>3977</x:v>
       </x:c>
       <x:c r="D1093" s="0" t="s">
-        <x:v>4000</x:v>
+        <x:v>3978</x:v>
       </x:c>
       <x:c r="E1093" s="0" t="n">
         <x:v>1327</x:v>
@@ -33198,16 +33198,16 @@
     </x:row>
     <x:row r="1094" spans="1:5">
       <x:c r="A1094" s="0" t="s">
-        <x:v>4001</x:v>
+        <x:v>3979</x:v>
       </x:c>
       <x:c r="B1094" s="0" t="s">
-        <x:v>4002</x:v>
+        <x:v>3980</x:v>
       </x:c>
       <x:c r="C1094" s="0" t="s">
-        <x:v>4003</x:v>
+        <x:v>3981</x:v>
       </x:c>
       <x:c r="D1094" s="0" t="s">
-        <x:v>4004</x:v>
+        <x:v>3982</x:v>
       </x:c>
       <x:c r="E1094" s="0" t="n">
         <x:v>1328</x:v>
@@ -33215,16 +33215,16 @@
     </x:row>
     <x:row r="1095" spans="1:5">
       <x:c r="A1095" s="0" t="s">
-        <x:v>4005</x:v>
+        <x:v>3983</x:v>
       </x:c>
       <x:c r="B1095" s="0" t="s">
-        <x:v>4006</x:v>
+        <x:v>3984</x:v>
       </x:c>
       <x:c r="C1095" s="0" t="s">
-        <x:v>4007</x:v>
+        <x:v>3985</x:v>
       </x:c>
       <x:c r="D1095" s="0" t="s">
-        <x:v>4008</x:v>
+        <x:v>3986</x:v>
       </x:c>
       <x:c r="E1095" s="0" t="n">
         <x:v>1329</x:v>
@@ -33232,16 +33232,16 @@
     </x:row>
     <x:row r="1096" spans="1:5">
       <x:c r="A1096" s="0" t="s">
-        <x:v>4009</x:v>
+        <x:v>3987</x:v>
       </x:c>
       <x:c r="B1096" s="0" t="s">
-        <x:v>4010</x:v>
+        <x:v>3988</x:v>
       </x:c>
       <x:c r="C1096" s="0" t="s">
-        <x:v>4011</x:v>
+        <x:v>3989</x:v>
       </x:c>
       <x:c r="D1096" s="0" t="s">
-        <x:v>4012</x:v>
+        <x:v>3990</x:v>
       </x:c>
       <x:c r="E1096" s="0" t="n">
         <x:v>1330</x:v>
@@ -33249,16 +33249,16 @@
     </x:row>
     <x:row r="1097" spans="1:5">
       <x:c r="A1097" s="0" t="s">
-        <x:v>4013</x:v>
+        <x:v>3991</x:v>
       </x:c>
       <x:c r="B1097" s="0" t="s">
-        <x:v>4014</x:v>
+        <x:v>3992</x:v>
       </x:c>
       <x:c r="C1097" s="0" t="s">
-        <x:v>4015</x:v>
+        <x:v>3993</x:v>
       </x:c>
       <x:c r="D1097" s="0" t="s">
-        <x:v>4016</x:v>
+        <x:v>3994</x:v>
       </x:c>
       <x:c r="E1097" s="0" t="n">
         <x:v>1331</x:v>
@@ -33266,16 +33266,16 @@
     </x:row>
     <x:row r="1098" spans="1:5">
       <x:c r="A1098" s="0" t="s">
-        <x:v>4017</x:v>
+        <x:v>3995</x:v>
       </x:c>
       <x:c r="B1098" s="0" t="s">
-        <x:v>4018</x:v>
+        <x:v>3996</x:v>
       </x:c>
       <x:c r="C1098" s="0" t="s">
-        <x:v>4019</x:v>
+        <x:v>3997</x:v>
       </x:c>
       <x:c r="D1098" s="0" t="s">
-        <x:v>4020</x:v>
+        <x:v>3998</x:v>
       </x:c>
       <x:c r="E1098" s="0" t="n">
         <x:v>1332</x:v>
@@ -33283,16 +33283,16 @@
     </x:row>
     <x:row r="1099" spans="1:5">
       <x:c r="A1099" s="0" t="s">
-        <x:v>4021</x:v>
+        <x:v>3999</x:v>
       </x:c>
       <x:c r="B1099" s="0" t="s">
-        <x:v>4022</x:v>
+        <x:v>4000</x:v>
       </x:c>
       <x:c r="C1099" s="0" t="s">
-        <x:v>4023</x:v>
+        <x:v>4001</x:v>
       </x:c>
       <x:c r="D1099" s="0" t="s">
-        <x:v>4024</x:v>
+        <x:v>4002</x:v>
       </x:c>
       <x:c r="E1099" s="0" t="n">
         <x:v>1333</x:v>
@@ -33300,16 +33300,16 @@
     </x:row>
     <x:row r="1100" spans="1:5">
       <x:c r="A1100" s="0" t="s">
-        <x:v>4025</x:v>
+        <x:v>4003</x:v>
       </x:c>
       <x:c r="B1100" s="0" t="s">
-        <x:v>4026</x:v>
+        <x:v>4004</x:v>
       </x:c>
       <x:c r="C1100" s="0" t="s">
-        <x:v>4027</x:v>
+        <x:v>4005</x:v>
       </x:c>
       <x:c r="D1100" s="0" t="s">
-        <x:v>4028</x:v>
+        <x:v>4006</x:v>
       </x:c>
       <x:c r="E1100" s="0" t="n">
         <x:v>1334</x:v>
@@ -33317,16 +33317,16 @@
     </x:row>
     <x:row r="1101" spans="1:5">
       <x:c r="A1101" s="0" t="s">
-        <x:v>4029</x:v>
+        <x:v>4007</x:v>
       </x:c>
       <x:c r="B1101" s="0" t="s">
-        <x:v>1433</x:v>
+        <x:v>4008</x:v>
       </x:c>
       <x:c r="C1101" s="0" t="s">
-        <x:v>4030</x:v>
+        <x:v>4009</x:v>
       </x:c>
       <x:c r="D1101" s="0" t="s">
-        <x:v>4031</x:v>
+        <x:v>4010</x:v>
       </x:c>
       <x:c r="E1101" s="0" t="n">
         <x:v>1335</x:v>
@@ -33334,16 +33334,16 @@
     </x:row>
     <x:row r="1102" spans="1:5">
       <x:c r="A1102" s="0" t="s">
-        <x:v>4032</x:v>
+        <x:v>4011</x:v>
       </x:c>
       <x:c r="B1102" s="0" t="s">
-        <x:v>4033</x:v>
+        <x:v>4012</x:v>
       </x:c>
       <x:c r="C1102" s="0" t="s">
-        <x:v>3796</x:v>
+        <x:v>4013</x:v>
       </x:c>
       <x:c r="D1102" s="0" t="s">
-        <x:v>3797</x:v>
+        <x:v>4014</x:v>
       </x:c>
       <x:c r="E1102" s="0" t="n">
         <x:v>1336</x:v>
@@ -33351,16 +33351,16 @@
     </x:row>
     <x:row r="1103" spans="1:5">
       <x:c r="A1103" s="0" t="s">
-        <x:v>4034</x:v>
+        <x:v>4015</x:v>
       </x:c>
       <x:c r="B1103" s="0" t="s">
-        <x:v>4035</x:v>
+        <x:v>4016</x:v>
       </x:c>
       <x:c r="C1103" s="0" t="s">
-        <x:v>4036</x:v>
+        <x:v>4017</x:v>
       </x:c>
       <x:c r="D1103" s="0" t="s">
-        <x:v>4037</x:v>
+        <x:v>4018</x:v>
       </x:c>
       <x:c r="E1103" s="0" t="n">
         <x:v>1337</x:v>
@@ -33368,16 +33368,16 @@
     </x:row>
     <x:row r="1104" spans="1:5">
       <x:c r="A1104" s="0" t="s">
-        <x:v>4038</x:v>
+        <x:v>4019</x:v>
       </x:c>
       <x:c r="B1104" s="0" t="s">
-        <x:v>4039</x:v>
+        <x:v>4020</x:v>
       </x:c>
       <x:c r="C1104" s="0" t="s">
-        <x:v>4040</x:v>
+        <x:v>4021</x:v>
       </x:c>
       <x:c r="D1104" s="0" t="s">
-        <x:v>4041</x:v>
+        <x:v>4022</x:v>
       </x:c>
       <x:c r="E1104" s="0" t="n">
         <x:v>1338</x:v>
@@ -33385,16 +33385,16 @@
     </x:row>
     <x:row r="1105" spans="1:5">
       <x:c r="A1105" s="0" t="s">
-        <x:v>4042</x:v>
+        <x:v>4023</x:v>
       </x:c>
       <x:c r="B1105" s="0" t="s">
-        <x:v>4043</x:v>
+        <x:v>4024</x:v>
       </x:c>
       <x:c r="C1105" s="0" t="s">
-        <x:v>877</x:v>
+        <x:v>4025</x:v>
       </x:c>
       <x:c r="D1105" s="0" t="s">
-        <x:v>878</x:v>
+        <x:v>4026</x:v>
       </x:c>
       <x:c r="E1105" s="0" t="n">
         <x:v>1339</x:v>
@@ -33402,16 +33402,16 @@
     </x:row>
     <x:row r="1106" spans="1:5">
       <x:c r="A1106" s="0" t="s">
-        <x:v>4044</x:v>
+        <x:v>4027</x:v>
       </x:c>
       <x:c r="B1106" s="0" t="s">
-        <x:v>4045</x:v>
+        <x:v>4028</x:v>
       </x:c>
       <x:c r="C1106" s="0" t="s">
-        <x:v>796</x:v>
+        <x:v>4029</x:v>
       </x:c>
       <x:c r="D1106" s="0" t="s">
-        <x:v>797</x:v>
+        <x:v>4030</x:v>
       </x:c>
       <x:c r="E1106" s="0" t="n">
         <x:v>1340</x:v>
@@ -33419,16 +33419,16 @@
     </x:row>
     <x:row r="1107" spans="1:5">
       <x:c r="A1107" s="0" t="s">
-        <x:v>4046</x:v>
+        <x:v>4031</x:v>
       </x:c>
       <x:c r="B1107" s="0" t="s">
-        <x:v>4047</x:v>
+        <x:v>4032</x:v>
       </x:c>
       <x:c r="C1107" s="0" t="s">
-        <x:v>4048</x:v>
+        <x:v>4033</x:v>
       </x:c>
       <x:c r="D1107" s="0" t="s">
-        <x:v>4049</x:v>
+        <x:v>4034</x:v>
       </x:c>
       <x:c r="E1107" s="0" t="n">
         <x:v>1341</x:v>
@@ -33436,16 +33436,16 @@
     </x:row>
     <x:row r="1108" spans="1:5">
       <x:c r="A1108" s="0" t="s">
-        <x:v>4050</x:v>
+        <x:v>4035</x:v>
       </x:c>
       <x:c r="B1108" s="0" t="s">
-        <x:v>4051</x:v>
+        <x:v>4036</x:v>
       </x:c>
       <x:c r="C1108" s="0" t="s">
-        <x:v>4052</x:v>
+        <x:v>4037</x:v>
       </x:c>
       <x:c r="D1108" s="0" t="s">
-        <x:v>4053</x:v>
+        <x:v>4038</x:v>
       </x:c>
       <x:c r="E1108" s="0" t="n">
         <x:v>1342</x:v>
@@ -33453,16 +33453,16 @@
     </x:row>
     <x:row r="1109" spans="1:5">
       <x:c r="A1109" s="0" t="s">
-        <x:v>4054</x:v>
+        <x:v>4039</x:v>
       </x:c>
       <x:c r="B1109" s="0" t="s">
-        <x:v>4055</x:v>
+        <x:v>4040</x:v>
       </x:c>
       <x:c r="C1109" s="0" t="s">
-        <x:v>4056</x:v>
+        <x:v>4041</x:v>
       </x:c>
       <x:c r="D1109" s="0" t="s">
-        <x:v>4057</x:v>
+        <x:v>4042</x:v>
       </x:c>
       <x:c r="E1109" s="0" t="n">
         <x:v>1343</x:v>
@@ -33470,16 +33470,16 @@
     </x:row>
     <x:row r="1110" spans="1:5">
       <x:c r="A1110" s="0" t="s">
-        <x:v>4058</x:v>
+        <x:v>4043</x:v>
       </x:c>
       <x:c r="B1110" s="0" t="s">
-        <x:v>4059</x:v>
+        <x:v>4044</x:v>
       </x:c>
       <x:c r="C1110" s="0" t="s">
-        <x:v>905</x:v>
+        <x:v>4045</x:v>
       </x:c>
       <x:c r="D1110" s="0" t="s">
-        <x:v>906</x:v>
+        <x:v>4046</x:v>
       </x:c>
       <x:c r="E1110" s="0" t="n">
         <x:v>1344</x:v>
@@ -33487,16 +33487,16 @@
     </x:row>
     <x:row r="1111" spans="1:5">
       <x:c r="A1111" s="0" t="s">
-        <x:v>4060</x:v>
+        <x:v>4047</x:v>
       </x:c>
       <x:c r="B1111" s="0" t="s">
-        <x:v>4061</x:v>
+        <x:v>1433</x:v>
       </x:c>
       <x:c r="C1111" s="0" t="s">
-        <x:v>869</x:v>
+        <x:v>4048</x:v>
       </x:c>
       <x:c r="D1111" s="0" t="s">
-        <x:v>870</x:v>
+        <x:v>4049</x:v>
       </x:c>
       <x:c r="E1111" s="0" t="n">
         <x:v>1345</x:v>
@@ -33504,16 +33504,16 @@
     </x:row>
     <x:row r="1112" spans="1:5">
       <x:c r="A1112" s="0" t="s">
-        <x:v>4062</x:v>
+        <x:v>4050</x:v>
       </x:c>
       <x:c r="B1112" s="0" t="s">
-        <x:v>4063</x:v>
+        <x:v>4051</x:v>
       </x:c>
       <x:c r="C1112" s="0" t="s">
-        <x:v>893</x:v>
+        <x:v>3800</x:v>
       </x:c>
       <x:c r="D1112" s="0" t="s">
-        <x:v>894</x:v>
+        <x:v>3801</x:v>
       </x:c>
       <x:c r="E1112" s="0" t="n">
         <x:v>1346</x:v>
@@ -33521,16 +33521,16 @@
     </x:row>
     <x:row r="1113" spans="1:5">
       <x:c r="A1113" s="0" t="s">
-        <x:v>4064</x:v>
+        <x:v>4052</x:v>
       </x:c>
       <x:c r="B1113" s="0" t="s">
-        <x:v>4065</x:v>
+        <x:v>4053</x:v>
       </x:c>
       <x:c r="C1113" s="0" t="s">
-        <x:v>4066</x:v>
+        <x:v>4054</x:v>
       </x:c>
       <x:c r="D1113" s="0" t="s">
-        <x:v>4067</x:v>
+        <x:v>4055</x:v>
       </x:c>
       <x:c r="E1113" s="0" t="n">
         <x:v>1347</x:v>
@@ -33538,16 +33538,16 @@
     </x:row>
     <x:row r="1114" spans="1:5">
       <x:c r="A1114" s="0" t="s">
-        <x:v>4068</x:v>
+        <x:v>4056</x:v>
       </x:c>
       <x:c r="B1114" s="0" t="s">
-        <x:v>4069</x:v>
+        <x:v>4057</x:v>
       </x:c>
       <x:c r="C1114" s="0" t="s">
-        <x:v>4070</x:v>
+        <x:v>4058</x:v>
       </x:c>
       <x:c r="D1114" s="0" t="s">
-        <x:v>4071</x:v>
+        <x:v>4059</x:v>
       </x:c>
       <x:c r="E1114" s="0" t="n">
         <x:v>1348</x:v>
@@ -33555,16 +33555,16 @@
     </x:row>
     <x:row r="1115" spans="1:5">
       <x:c r="A1115" s="0" t="s">
-        <x:v>4072</x:v>
+        <x:v>4060</x:v>
       </x:c>
       <x:c r="B1115" s="0" t="s">
-        <x:v>4073</x:v>
+        <x:v>4061</x:v>
       </x:c>
       <x:c r="C1115" s="0" t="s">
-        <x:v>4074</x:v>
+        <x:v>877</x:v>
       </x:c>
       <x:c r="D1115" s="0" t="s">
-        <x:v>4075</x:v>
+        <x:v>878</x:v>
       </x:c>
       <x:c r="E1115" s="0" t="n">
         <x:v>1349</x:v>
@@ -33572,16 +33572,16 @@
     </x:row>
     <x:row r="1116" spans="1:5">
       <x:c r="A1116" s="0" t="s">
-        <x:v>4076</x:v>
+        <x:v>4062</x:v>
       </x:c>
       <x:c r="B1116" s="0" t="s">
-        <x:v>4077</x:v>
+        <x:v>4063</x:v>
       </x:c>
       <x:c r="C1116" s="0" t="s">
-        <x:v>4078</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="D1116" s="0" t="s">
-        <x:v>4079</x:v>
+        <x:v>797</x:v>
       </x:c>
       <x:c r="E1116" s="0" t="n">
         <x:v>1350</x:v>
@@ -33589,1192 +33589,1192 @@
     </x:row>
     <x:row r="1117" spans="1:5">
       <x:c r="A1117" s="0" t="s">
-        <x:v>4080</x:v>
+        <x:v>4064</x:v>
       </x:c>
       <x:c r="B1117" s="0" t="s">
-        <x:v>4081</x:v>
+        <x:v>4065</x:v>
       </x:c>
       <x:c r="C1117" s="0" t="s">
-        <x:v>4082</x:v>
+        <x:v>4066</x:v>
       </x:c>
       <x:c r="D1117" s="0" t="s">
-        <x:v>4083</x:v>
+        <x:v>4067</x:v>
       </x:c>
       <x:c r="E1117" s="0" t="n">
-        <x:v>1352</x:v>
+        <x:v>1351</x:v>
       </x:c>
     </x:row>
     <x:row r="1118" spans="1:5">
       <x:c r="A1118" s="0" t="s">
-        <x:v>4084</x:v>
+        <x:v>4068</x:v>
       </x:c>
       <x:c r="B1118" s="0" t="s">
-        <x:v>4085</x:v>
+        <x:v>4069</x:v>
       </x:c>
       <x:c r="C1118" s="0" t="s">
-        <x:v>4086</x:v>
+        <x:v>4070</x:v>
       </x:c>
       <x:c r="D1118" s="0" t="s">
-        <x:v>4087</x:v>
+        <x:v>4071</x:v>
       </x:c>
       <x:c r="E1118" s="0" t="n">
-        <x:v>1353</x:v>
+        <x:v>1352</x:v>
       </x:c>
     </x:row>
     <x:row r="1119" spans="1:5">
       <x:c r="A1119" s="0" t="s">
-        <x:v>4088</x:v>
+        <x:v>4072</x:v>
       </x:c>
       <x:c r="B1119" s="0" t="s">
-        <x:v>4089</x:v>
+        <x:v>4073</x:v>
       </x:c>
       <x:c r="C1119" s="0" t="s">
-        <x:v>4090</x:v>
+        <x:v>4074</x:v>
       </x:c>
       <x:c r="D1119" s="0" t="s">
-        <x:v>4091</x:v>
+        <x:v>4075</x:v>
       </x:c>
       <x:c r="E1119" s="0" t="n">
-        <x:v>1354</x:v>
+        <x:v>1353</x:v>
       </x:c>
     </x:row>
     <x:row r="1120" spans="1:5">
       <x:c r="A1120" s="0" t="s">
-        <x:v>4092</x:v>
+        <x:v>4076</x:v>
       </x:c>
       <x:c r="B1120" s="0" t="s">
-        <x:v>4093</x:v>
+        <x:v>4077</x:v>
       </x:c>
       <x:c r="C1120" s="0" t="s">
-        <x:v>4094</x:v>
+        <x:v>905</x:v>
       </x:c>
       <x:c r="D1120" s="0" t="s">
-        <x:v>4095</x:v>
+        <x:v>906</x:v>
       </x:c>
       <x:c r="E1120" s="0" t="n">
-        <x:v>1355</x:v>
+        <x:v>1354</x:v>
       </x:c>
     </x:row>
     <x:row r="1121" spans="1:5">
       <x:c r="A1121" s="0" t="s">
-        <x:v>4096</x:v>
+        <x:v>4078</x:v>
       </x:c>
       <x:c r="B1121" s="0" t="s">
-        <x:v>4097</x:v>
+        <x:v>4079</x:v>
       </x:c>
       <x:c r="C1121" s="0" t="s">
-        <x:v>4098</x:v>
+        <x:v>869</x:v>
       </x:c>
       <x:c r="D1121" s="0" t="s">
-        <x:v>4099</x:v>
+        <x:v>870</x:v>
       </x:c>
       <x:c r="E1121" s="0" t="n">
-        <x:v>1356</x:v>
+        <x:v>1355</x:v>
       </x:c>
     </x:row>
     <x:row r="1122" spans="1:5">
       <x:c r="A1122" s="0" t="s">
-        <x:v>4100</x:v>
+        <x:v>4080</x:v>
       </x:c>
       <x:c r="B1122" s="0" t="s">
-        <x:v>4101</x:v>
+        <x:v>4081</x:v>
       </x:c>
       <x:c r="C1122" s="0" t="s">
-        <x:v>792</x:v>
+        <x:v>893</x:v>
       </x:c>
       <x:c r="D1122" s="0" t="s">
-        <x:v>793</x:v>
+        <x:v>894</x:v>
       </x:c>
       <x:c r="E1122" s="0" t="n">
-        <x:v>1357</x:v>
+        <x:v>1356</x:v>
       </x:c>
     </x:row>
     <x:row r="1123" spans="1:5">
       <x:c r="A1123" s="0" t="s">
-        <x:v>4102</x:v>
+        <x:v>4082</x:v>
       </x:c>
       <x:c r="B1123" s="0" t="s">
-        <x:v>4103</x:v>
+        <x:v>4083</x:v>
       </x:c>
       <x:c r="C1123" s="0" t="s">
-        <x:v>4104</x:v>
+        <x:v>4084</x:v>
       </x:c>
       <x:c r="D1123" s="0" t="s">
-        <x:v>4105</x:v>
+        <x:v>4085</x:v>
       </x:c>
       <x:c r="E1123" s="0" t="n">
-        <x:v>1358</x:v>
+        <x:v>1357</x:v>
       </x:c>
     </x:row>
     <x:row r="1124" spans="1:5">
       <x:c r="A1124" s="0" t="s">
-        <x:v>4106</x:v>
+        <x:v>4086</x:v>
       </x:c>
       <x:c r="B1124" s="0" t="s">
-        <x:v>4107</x:v>
+        <x:v>4087</x:v>
       </x:c>
       <x:c r="C1124" s="0" t="s">
-        <x:v>4108</x:v>
+        <x:v>4088</x:v>
       </x:c>
       <x:c r="D1124" s="0" t="s">
-        <x:v>4109</x:v>
+        <x:v>4089</x:v>
       </x:c>
       <x:c r="E1124" s="0" t="n">
-        <x:v>1359</x:v>
+        <x:v>1358</x:v>
       </x:c>
     </x:row>
     <x:row r="1125" spans="1:5">
       <x:c r="A1125" s="0" t="s">
-        <x:v>4110</x:v>
+        <x:v>4090</x:v>
       </x:c>
       <x:c r="B1125" s="0" t="s">
-        <x:v>4111</x:v>
+        <x:v>4091</x:v>
       </x:c>
       <x:c r="C1125" s="0" t="s">
-        <x:v>4112</x:v>
+        <x:v>4092</x:v>
       </x:c>
       <x:c r="D1125" s="0" t="s">
-        <x:v>4113</x:v>
+        <x:v>4093</x:v>
       </x:c>
       <x:c r="E1125" s="0" t="n">
-        <x:v>1360</x:v>
+        <x:v>1359</x:v>
       </x:c>
     </x:row>
     <x:row r="1126" spans="1:5">
       <x:c r="A1126" s="0" t="s">
-        <x:v>4114</x:v>
+        <x:v>4094</x:v>
       </x:c>
       <x:c r="B1126" s="0" t="s">
-        <x:v>4115</x:v>
+        <x:v>4095</x:v>
       </x:c>
       <x:c r="C1126" s="0" t="s">
-        <x:v>4116</x:v>
+        <x:v>4096</x:v>
       </x:c>
       <x:c r="D1126" s="0" t="s">
-        <x:v>4117</x:v>
+        <x:v>4097</x:v>
       </x:c>
       <x:c r="E1126" s="0" t="n">
-        <x:v>1361</x:v>
+        <x:v>1360</x:v>
       </x:c>
     </x:row>
     <x:row r="1127" spans="1:5">
       <x:c r="A1127" s="0" t="s">
-        <x:v>4118</x:v>
+        <x:v>4098</x:v>
       </x:c>
       <x:c r="B1127" s="0" t="s">
-        <x:v>4119</x:v>
+        <x:v>4099</x:v>
       </x:c>
       <x:c r="C1127" s="0" t="s">
-        <x:v>881</x:v>
+        <x:v>4100</x:v>
       </x:c>
       <x:c r="D1127" s="0" t="s">
-        <x:v>882</x:v>
+        <x:v>4101</x:v>
       </x:c>
       <x:c r="E1127" s="0" t="n">
-        <x:v>1363</x:v>
+        <x:v>1361</x:v>
       </x:c>
     </x:row>
     <x:row r="1128" spans="1:5">
       <x:c r="A1128" s="0" t="s">
-        <x:v>4120</x:v>
+        <x:v>4102</x:v>
       </x:c>
       <x:c r="B1128" s="0" t="s">
-        <x:v>4121</x:v>
+        <x:v>4103</x:v>
       </x:c>
       <x:c r="C1128" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>4104</x:v>
       </x:c>
       <x:c r="D1128" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>4105</x:v>
       </x:c>
       <x:c r="E1128" s="0" t="n">
-        <x:v>1364</x:v>
+        <x:v>1362</x:v>
       </x:c>
     </x:row>
     <x:row r="1129" spans="1:5">
       <x:c r="A1129" s="0" t="s">
-        <x:v>4122</x:v>
+        <x:v>4106</x:v>
       </x:c>
       <x:c r="B1129" s="0" t="s">
-        <x:v>4123</x:v>
+        <x:v>4107</x:v>
       </x:c>
       <x:c r="C1129" s="0" t="s">
-        <x:v>897</x:v>
+        <x:v>4108</x:v>
       </x:c>
       <x:c r="D1129" s="0" t="s">
-        <x:v>898</x:v>
+        <x:v>4109</x:v>
       </x:c>
       <x:c r="E1129" s="0" t="n">
-        <x:v>1365</x:v>
+        <x:v>1363</x:v>
       </x:c>
     </x:row>
     <x:row r="1130" spans="1:5">
       <x:c r="A1130" s="0" t="s">
-        <x:v>4124</x:v>
+        <x:v>4110</x:v>
       </x:c>
       <x:c r="B1130" s="0" t="s">
-        <x:v>4125</x:v>
+        <x:v>4111</x:v>
       </x:c>
       <x:c r="C1130" s="0" t="s">
-        <x:v>4126</x:v>
+        <x:v>4112</x:v>
       </x:c>
       <x:c r="D1130" s="0" t="s">
-        <x:v>4127</x:v>
+        <x:v>4113</x:v>
       </x:c>
       <x:c r="E1130" s="0" t="n">
-        <x:v>1366</x:v>
+        <x:v>1364</x:v>
       </x:c>
     </x:row>
     <x:row r="1131" spans="1:5">
       <x:c r="A1131" s="0" t="s">
-        <x:v>4128</x:v>
+        <x:v>4114</x:v>
       </x:c>
       <x:c r="B1131" s="0" t="s">
-        <x:v>4129</x:v>
+        <x:v>4115</x:v>
       </x:c>
       <x:c r="C1131" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>4116</x:v>
       </x:c>
       <x:c r="D1131" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>4117</x:v>
       </x:c>
       <x:c r="E1131" s="0" t="n">
-        <x:v>1367</x:v>
+        <x:v>1365</x:v>
       </x:c>
     </x:row>
     <x:row r="1132" spans="1:5">
       <x:c r="A1132" s="0" t="s">
-        <x:v>4130</x:v>
+        <x:v>4118</x:v>
       </x:c>
       <x:c r="B1132" s="0" t="s">
-        <x:v>4131</x:v>
+        <x:v>4119</x:v>
       </x:c>
       <x:c r="C1132" s="0" t="s">
-        <x:v>4132</x:v>
+        <x:v>792</x:v>
       </x:c>
       <x:c r="D1132" s="0" t="s">
-        <x:v>4133</x:v>
+        <x:v>793</x:v>
       </x:c>
       <x:c r="E1132" s="0" t="n">
-        <x:v>1368</x:v>
+        <x:v>1366</x:v>
       </x:c>
     </x:row>
     <x:row r="1133" spans="1:5">
       <x:c r="A1133" s="0" t="s">
-        <x:v>4134</x:v>
+        <x:v>4120</x:v>
       </x:c>
       <x:c r="B1133" s="0" t="s">
-        <x:v>4135</x:v>
+        <x:v>4121</x:v>
       </x:c>
       <x:c r="C1133" s="0" t="s">
-        <x:v>4136</x:v>
+        <x:v>4122</x:v>
       </x:c>
       <x:c r="D1133" s="0" t="s">
-        <x:v>4137</x:v>
+        <x:v>4123</x:v>
       </x:c>
       <x:c r="E1133" s="0" t="n">
-        <x:v>1369</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="1134" spans="1:5">
       <x:c r="A1134" s="0" t="s">
-        <x:v>4138</x:v>
+        <x:v>4124</x:v>
       </x:c>
       <x:c r="B1134" s="0" t="s">
-        <x:v>4139</x:v>
+        <x:v>4125</x:v>
       </x:c>
       <x:c r="C1134" s="0" t="s">
-        <x:v>873</x:v>
+        <x:v>4126</x:v>
       </x:c>
       <x:c r="D1134" s="0" t="s">
-        <x:v>874</x:v>
+        <x:v>4127</x:v>
       </x:c>
       <x:c r="E1134" s="0" t="n">
-        <x:v>1370</x:v>
+        <x:v>1368</x:v>
       </x:c>
     </x:row>
     <x:row r="1135" spans="1:5">
       <x:c r="A1135" s="0" t="s">
-        <x:v>4140</x:v>
+        <x:v>4128</x:v>
       </x:c>
       <x:c r="B1135" s="0" t="s">
-        <x:v>4141</x:v>
+        <x:v>4129</x:v>
       </x:c>
       <x:c r="C1135" s="0" t="s">
-        <x:v>4142</x:v>
+        <x:v>4130</x:v>
       </x:c>
       <x:c r="D1135" s="0" t="s">
-        <x:v>4143</x:v>
+        <x:v>4131</x:v>
       </x:c>
       <x:c r="E1135" s="0" t="n">
-        <x:v>1371</x:v>
+        <x:v>1369</x:v>
       </x:c>
     </x:row>
     <x:row r="1136" spans="1:5">
       <x:c r="A1136" s="0" t="s">
-        <x:v>4144</x:v>
+        <x:v>4132</x:v>
       </x:c>
       <x:c r="B1136" s="0" t="s">
-        <x:v>4145</x:v>
+        <x:v>4133</x:v>
       </x:c>
       <x:c r="C1136" s="0" t="s">
-        <x:v>4146</x:v>
+        <x:v>4134</x:v>
       </x:c>
       <x:c r="D1136" s="0" t="s">
-        <x:v>4147</x:v>
+        <x:v>4135</x:v>
       </x:c>
       <x:c r="E1136" s="0" t="n">
-        <x:v>1372</x:v>
+        <x:v>1370</x:v>
       </x:c>
     </x:row>
     <x:row r="1137" spans="1:5">
       <x:c r="A1137" s="0" t="s">
-        <x:v>4148</x:v>
+        <x:v>4136</x:v>
       </x:c>
       <x:c r="B1137" s="0" t="s">
-        <x:v>4149</x:v>
+        <x:v>4137</x:v>
       </x:c>
       <x:c r="C1137" s="0" t="s">
-        <x:v>889</x:v>
+        <x:v>881</x:v>
       </x:c>
       <x:c r="D1137" s="0" t="s">
-        <x:v>890</x:v>
+        <x:v>882</x:v>
       </x:c>
       <x:c r="E1137" s="0" t="n">
-        <x:v>1373</x:v>
+        <x:v>1371</x:v>
       </x:c>
     </x:row>
     <x:row r="1138" spans="1:5">
       <x:c r="A1138" s="0" t="s">
-        <x:v>4150</x:v>
+        <x:v>4138</x:v>
       </x:c>
       <x:c r="B1138" s="0" t="s">
-        <x:v>4151</x:v>
+        <x:v>4139</x:v>
       </x:c>
       <x:c r="C1138" s="0" t="s">
-        <x:v>4152</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D1138" s="0" t="s">
-        <x:v>4153</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E1138" s="0" t="n">
-        <x:v>1374</x:v>
+        <x:v>1372</x:v>
       </x:c>
     </x:row>
     <x:row r="1139" spans="1:5">
       <x:c r="A1139" s="0" t="s">
-        <x:v>4154</x:v>
+        <x:v>4140</x:v>
       </x:c>
       <x:c r="B1139" s="0" t="s">
-        <x:v>4155</x:v>
+        <x:v>4141</x:v>
       </x:c>
       <x:c r="C1139" s="0" t="s">
-        <x:v>4156</x:v>
+        <x:v>897</x:v>
       </x:c>
       <x:c r="D1139" s="0" t="s">
-        <x:v>4157</x:v>
+        <x:v>898</x:v>
       </x:c>
       <x:c r="E1139" s="0" t="n">
-        <x:v>1375</x:v>
+        <x:v>1373</x:v>
       </x:c>
     </x:row>
     <x:row r="1140" spans="1:5">
       <x:c r="A1140" s="0" t="s">
-        <x:v>4158</x:v>
+        <x:v>4142</x:v>
       </x:c>
       <x:c r="B1140" s="0" t="s">
-        <x:v>4159</x:v>
+        <x:v>4143</x:v>
       </x:c>
       <x:c r="C1140" s="0" t="s">
-        <x:v>4160</x:v>
+        <x:v>4144</x:v>
       </x:c>
       <x:c r="D1140" s="0" t="s">
-        <x:v>4161</x:v>
+        <x:v>4145</x:v>
       </x:c>
       <x:c r="E1140" s="0" t="n">
-        <x:v>1376</x:v>
+        <x:v>1374</x:v>
       </x:c>
     </x:row>
     <x:row r="1141" spans="1:5">
       <x:c r="A1141" s="0" t="s">
-        <x:v>4162</x:v>
+        <x:v>4146</x:v>
       </x:c>
       <x:c r="B1141" s="0" t="s">
-        <x:v>836</x:v>
+        <x:v>4147</x:v>
       </x:c>
       <x:c r="C1141" s="0" t="s">
-        <x:v>838</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="D1141" s="0" t="s">
-        <x:v>837</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="E1141" s="0" t="n">
-        <x:v>1377</x:v>
+        <x:v>1375</x:v>
       </x:c>
     </x:row>
     <x:row r="1142" spans="1:5">
       <x:c r="A1142" s="0" t="s">
-        <x:v>4163</x:v>
+        <x:v>4148</x:v>
       </x:c>
       <x:c r="B1142" s="0" t="s">
-        <x:v>4164</x:v>
+        <x:v>4149</x:v>
       </x:c>
       <x:c r="C1142" s="0" t="s">
-        <x:v>4165</x:v>
+        <x:v>4150</x:v>
       </x:c>
       <x:c r="D1142" s="0" t="s">
-        <x:v>4166</x:v>
+        <x:v>4151</x:v>
       </x:c>
       <x:c r="E1142" s="0" t="n">
-        <x:v>1378</x:v>
+        <x:v>1376</x:v>
       </x:c>
     </x:row>
     <x:row r="1143" spans="1:5">
       <x:c r="A1143" s="0" t="s">
-        <x:v>4167</x:v>
+        <x:v>4152</x:v>
       </x:c>
       <x:c r="B1143" s="0" t="s">
-        <x:v>4168</x:v>
+        <x:v>4153</x:v>
       </x:c>
       <x:c r="C1143" s="0" t="s">
-        <x:v>845</x:v>
+        <x:v>4154</x:v>
       </x:c>
       <x:c r="D1143" s="0" t="s">
-        <x:v>846</x:v>
+        <x:v>4155</x:v>
       </x:c>
       <x:c r="E1143" s="0" t="n">
-        <x:v>1379</x:v>
+        <x:v>1377</x:v>
       </x:c>
     </x:row>
     <x:row r="1144" spans="1:5">
       <x:c r="A1144" s="0" t="s">
-        <x:v>4169</x:v>
+        <x:v>4156</x:v>
       </x:c>
       <x:c r="B1144" s="0" t="s">
-        <x:v>4170</x:v>
+        <x:v>4157</x:v>
       </x:c>
       <x:c r="C1144" s="0" t="s">
-        <x:v>1667</x:v>
+        <x:v>873</x:v>
       </x:c>
       <x:c r="D1144" s="0" t="s">
-        <x:v>1667</x:v>
+        <x:v>874</x:v>
       </x:c>
       <x:c r="E1144" s="0" t="n">
-        <x:v>1380</x:v>
+        <x:v>1378</x:v>
       </x:c>
     </x:row>
     <x:row r="1145" spans="1:5">
       <x:c r="A1145" s="0" t="s">
-        <x:v>4171</x:v>
+        <x:v>4158</x:v>
       </x:c>
       <x:c r="B1145" s="0" t="s">
-        <x:v>4172</x:v>
+        <x:v>4159</x:v>
       </x:c>
       <x:c r="C1145" s="0" t="s">
-        <x:v>4173</x:v>
+        <x:v>4160</x:v>
       </x:c>
       <x:c r="D1145" s="0" t="s">
-        <x:v>4174</x:v>
+        <x:v>4161</x:v>
       </x:c>
       <x:c r="E1145" s="0" t="n">
-        <x:v>1381</x:v>
+        <x:v>1379</x:v>
       </x:c>
     </x:row>
     <x:row r="1146" spans="1:5">
       <x:c r="A1146" s="0" t="s">
-        <x:v>4175</x:v>
+        <x:v>4162</x:v>
       </x:c>
       <x:c r="B1146" s="0" t="s">
-        <x:v>4176</x:v>
+        <x:v>4163</x:v>
       </x:c>
       <x:c r="C1146" s="0" t="s">
-        <x:v>4177</x:v>
+        <x:v>4164</x:v>
       </x:c>
       <x:c r="D1146" s="0" t="s">
-        <x:v>4178</x:v>
+        <x:v>4165</x:v>
       </x:c>
       <x:c r="E1146" s="0" t="n">
-        <x:v>1382</x:v>
+        <x:v>1380</x:v>
       </x:c>
     </x:row>
     <x:row r="1147" spans="1:5">
       <x:c r="A1147" s="0" t="s">
-        <x:v>4179</x:v>
+        <x:v>4166</x:v>
       </x:c>
       <x:c r="B1147" s="0" t="s">
-        <x:v>4180</x:v>
+        <x:v>4167</x:v>
       </x:c>
       <x:c r="C1147" s="0" t="s">
-        <x:v>4181</x:v>
+        <x:v>889</x:v>
       </x:c>
       <x:c r="D1147" s="0" t="s">
-        <x:v>4182</x:v>
+        <x:v>890</x:v>
       </x:c>
       <x:c r="E1147" s="0" t="n">
-        <x:v>1383</x:v>
+        <x:v>1381</x:v>
       </x:c>
     </x:row>
     <x:row r="1148" spans="1:5">
       <x:c r="A1148" s="0" t="s">
-        <x:v>4183</x:v>
+        <x:v>4168</x:v>
       </x:c>
       <x:c r="B1148" s="0" t="s">
-        <x:v>4184</x:v>
+        <x:v>4169</x:v>
       </x:c>
       <x:c r="C1148" s="0" t="s">
-        <x:v>4185</x:v>
+        <x:v>4170</x:v>
       </x:c>
       <x:c r="D1148" s="0" t="s">
-        <x:v>4186</x:v>
+        <x:v>4171</x:v>
       </x:c>
       <x:c r="E1148" s="0" t="n">
-        <x:v>1384</x:v>
+        <x:v>1382</x:v>
       </x:c>
     </x:row>
     <x:row r="1149" spans="1:5">
       <x:c r="A1149" s="0" t="s">
-        <x:v>4187</x:v>
+        <x:v>4172</x:v>
       </x:c>
       <x:c r="B1149" s="0" t="s">
-        <x:v>4188</x:v>
+        <x:v>4173</x:v>
       </x:c>
       <x:c r="C1149" s="0" t="s">
-        <x:v>819</x:v>
+        <x:v>4174</x:v>
       </x:c>
       <x:c r="D1149" s="0" t="s">
-        <x:v>819</x:v>
+        <x:v>4175</x:v>
       </x:c>
       <x:c r="E1149" s="0" t="n">
-        <x:v>1385</x:v>
+        <x:v>1383</x:v>
       </x:c>
     </x:row>
     <x:row r="1150" spans="1:5">
       <x:c r="A1150" s="0" t="s">
-        <x:v>4189</x:v>
+        <x:v>4176</x:v>
       </x:c>
       <x:c r="B1150" s="0" t="s">
-        <x:v>4190</x:v>
+        <x:v>4177</x:v>
       </x:c>
       <x:c r="C1150" s="0" t="s">
-        <x:v>4191</x:v>
+        <x:v>4178</x:v>
       </x:c>
       <x:c r="D1150" s="0" t="s">
-        <x:v>4191</x:v>
+        <x:v>4179</x:v>
       </x:c>
       <x:c r="E1150" s="0" t="n">
-        <x:v>1386</x:v>
+        <x:v>1384</x:v>
       </x:c>
     </x:row>
     <x:row r="1151" spans="1:5">
       <x:c r="A1151" s="0" t="s">
-        <x:v>4192</x:v>
+        <x:v>4180</x:v>
       </x:c>
       <x:c r="B1151" s="0" t="s">
-        <x:v>4193</x:v>
+        <x:v>836</x:v>
       </x:c>
       <x:c r="C1151" s="0" t="s">
-        <x:v>4194</x:v>
+        <x:v>838</x:v>
       </x:c>
       <x:c r="D1151" s="0" t="s">
-        <x:v>4195</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="E1151" s="0" t="n">
-        <x:v>1387</x:v>
+        <x:v>1385</x:v>
       </x:c>
     </x:row>
     <x:row r="1152" spans="1:5">
       <x:c r="A1152" s="0" t="s">
-        <x:v>4196</x:v>
+        <x:v>4181</x:v>
       </x:c>
       <x:c r="B1152" s="0" t="s">
-        <x:v>4197</x:v>
+        <x:v>4182</x:v>
       </x:c>
       <x:c r="C1152" s="0" t="s">
-        <x:v>4198</x:v>
+        <x:v>4183</x:v>
       </x:c>
       <x:c r="D1152" s="0" t="s">
-        <x:v>4199</x:v>
+        <x:v>4184</x:v>
       </x:c>
       <x:c r="E1152" s="0" t="n">
-        <x:v>1388</x:v>
+        <x:v>1386</x:v>
       </x:c>
     </x:row>
     <x:row r="1153" spans="1:5">
       <x:c r="A1153" s="0" t="s">
-        <x:v>4200</x:v>
+        <x:v>4185</x:v>
       </x:c>
       <x:c r="B1153" s="0" t="s">
-        <x:v>4201</x:v>
+        <x:v>4186</x:v>
       </x:c>
       <x:c r="C1153" s="0" t="s">
-        <x:v>4202</x:v>
+        <x:v>845</x:v>
       </x:c>
       <x:c r="D1153" s="0" t="s">
-        <x:v>4203</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="E1153" s="0" t="n">
-        <x:v>1389</x:v>
+        <x:v>1387</x:v>
       </x:c>
     </x:row>
     <x:row r="1154" spans="1:5">
       <x:c r="A1154" s="0" t="s">
-        <x:v>4204</x:v>
+        <x:v>4187</x:v>
       </x:c>
       <x:c r="B1154" s="0" t="s">
-        <x:v>4205</x:v>
+        <x:v>4188</x:v>
       </x:c>
       <x:c r="C1154" s="0" t="s">
-        <x:v>1670</x:v>
+        <x:v>1667</x:v>
       </x:c>
       <x:c r="D1154" s="0" t="s">
-        <x:v>1670</x:v>
+        <x:v>1667</x:v>
       </x:c>
       <x:c r="E1154" s="0" t="n">
-        <x:v>1390</x:v>
+        <x:v>1388</x:v>
       </x:c>
     </x:row>
     <x:row r="1155" spans="1:5">
       <x:c r="A1155" s="0" t="s">
-        <x:v>4206</x:v>
+        <x:v>4189</x:v>
       </x:c>
       <x:c r="B1155" s="0" t="s">
-        <x:v>4207</x:v>
+        <x:v>4190</x:v>
       </x:c>
       <x:c r="C1155" s="0" t="s">
-        <x:v>4208</x:v>
+        <x:v>4191</x:v>
       </x:c>
       <x:c r="D1155" s="0" t="s">
-        <x:v>4209</x:v>
+        <x:v>4192</x:v>
       </x:c>
       <x:c r="E1155" s="0" t="n">
-        <x:v>1391</x:v>
+        <x:v>1389</x:v>
       </x:c>
     </x:row>
     <x:row r="1156" spans="1:5">
       <x:c r="A1156" s="0" t="s">
-        <x:v>4210</x:v>
+        <x:v>4193</x:v>
       </x:c>
       <x:c r="B1156" s="0" t="s">
-        <x:v>4211</x:v>
+        <x:v>4194</x:v>
       </x:c>
       <x:c r="C1156" s="0" t="s">
-        <x:v>4212</x:v>
+        <x:v>4195</x:v>
       </x:c>
       <x:c r="D1156" s="0" t="s">
-        <x:v>4213</x:v>
+        <x:v>4196</x:v>
       </x:c>
       <x:c r="E1156" s="0" t="n">
-        <x:v>1392</x:v>
+        <x:v>1390</x:v>
       </x:c>
     </x:row>
     <x:row r="1157" spans="1:5">
       <x:c r="A1157" s="0" t="s">
-        <x:v>4214</x:v>
+        <x:v>4197</x:v>
       </x:c>
       <x:c r="B1157" s="0" t="s">
-        <x:v>4215</x:v>
+        <x:v>4198</x:v>
       </x:c>
       <x:c r="C1157" s="0" t="s">
-        <x:v>1673</x:v>
+        <x:v>4199</x:v>
       </x:c>
       <x:c r="D1157" s="0" t="s">
-        <x:v>1673</x:v>
+        <x:v>4200</x:v>
       </x:c>
       <x:c r="E1157" s="0" t="n">
-        <x:v>1393</x:v>
+        <x:v>1391</x:v>
       </x:c>
     </x:row>
     <x:row r="1158" spans="1:5">
       <x:c r="A1158" s="0" t="s">
-        <x:v>4216</x:v>
+        <x:v>4201</x:v>
       </x:c>
       <x:c r="B1158" s="0" t="s">
-        <x:v>4217</x:v>
+        <x:v>4202</x:v>
       </x:c>
       <x:c r="C1158" s="0" t="s">
-        <x:v>4218</x:v>
+        <x:v>4203</x:v>
       </x:c>
       <x:c r="D1158" s="0" t="s">
-        <x:v>4219</x:v>
+        <x:v>4204</x:v>
       </x:c>
       <x:c r="E1158" s="0" t="n">
-        <x:v>1394</x:v>
+        <x:v>1392</x:v>
       </x:c>
     </x:row>
     <x:row r="1159" spans="1:5">
       <x:c r="A1159" s="0" t="s">
-        <x:v>4220</x:v>
+        <x:v>4205</x:v>
       </x:c>
       <x:c r="B1159" s="0" t="s">
-        <x:v>4221</x:v>
+        <x:v>4206</x:v>
       </x:c>
       <x:c r="C1159" s="0" t="s">
-        <x:v>849</x:v>
+        <x:v>819</x:v>
       </x:c>
       <x:c r="D1159" s="0" t="s">
-        <x:v>850</x:v>
+        <x:v>819</x:v>
       </x:c>
       <x:c r="E1159" s="0" t="n">
-        <x:v>1395</x:v>
+        <x:v>1393</x:v>
       </x:c>
     </x:row>
     <x:row r="1160" spans="1:5">
       <x:c r="A1160" s="0" t="s">
-        <x:v>4222</x:v>
+        <x:v>4207</x:v>
       </x:c>
       <x:c r="B1160" s="0" t="s">
-        <x:v>4223</x:v>
+        <x:v>4208</x:v>
       </x:c>
       <x:c r="C1160" s="0" t="s">
-        <x:v>865</x:v>
+        <x:v>4209</x:v>
       </x:c>
       <x:c r="D1160" s="0" t="s">
-        <x:v>866</x:v>
+        <x:v>4209</x:v>
       </x:c>
       <x:c r="E1160" s="0" t="n">
-        <x:v>1396</x:v>
+        <x:v>1394</x:v>
       </x:c>
     </x:row>
     <x:row r="1161" spans="1:5">
       <x:c r="A1161" s="0" t="s">
-        <x:v>4224</x:v>
+        <x:v>4210</x:v>
       </x:c>
       <x:c r="B1161" s="0" t="s">
-        <x:v>4225</x:v>
+        <x:v>4211</x:v>
       </x:c>
       <x:c r="C1161" s="0" t="s">
-        <x:v>659</x:v>
+        <x:v>4212</x:v>
       </x:c>
       <x:c r="D1161" s="0" t="s">
-        <x:v>659</x:v>
+        <x:v>4213</x:v>
       </x:c>
       <x:c r="E1161" s="0" t="n">
-        <x:v>1398</x:v>
+        <x:v>1395</x:v>
       </x:c>
     </x:row>
     <x:row r="1162" spans="1:5">
       <x:c r="A1162" s="0" t="s">
-        <x:v>4226</x:v>
+        <x:v>4214</x:v>
       </x:c>
       <x:c r="B1162" s="0" t="s">
-        <x:v>4227</x:v>
+        <x:v>4215</x:v>
       </x:c>
       <x:c r="C1162" s="0" t="s">
-        <x:v>669</x:v>
+        <x:v>4216</x:v>
       </x:c>
       <x:c r="D1162" s="0" t="s">
-        <x:v>670</x:v>
+        <x:v>4217</x:v>
       </x:c>
       <x:c r="E1162" s="0" t="n">
-        <x:v>1399</x:v>
+        <x:v>1396</x:v>
       </x:c>
     </x:row>
     <x:row r="1163" spans="1:5">
       <x:c r="A1163" s="0" t="s">
-        <x:v>4228</x:v>
+        <x:v>4218</x:v>
       </x:c>
       <x:c r="B1163" s="0" t="s">
-        <x:v>4229</x:v>
+        <x:v>4219</x:v>
       </x:c>
       <x:c r="C1163" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>4220</x:v>
       </x:c>
       <x:c r="D1163" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>4221</x:v>
       </x:c>
       <x:c r="E1163" s="0" t="n">
-        <x:v>1400</x:v>
+        <x:v>1397</x:v>
       </x:c>
     </x:row>
     <x:row r="1164" spans="1:5">
       <x:c r="A1164" s="0" t="s">
-        <x:v>4230</x:v>
+        <x:v>4222</x:v>
       </x:c>
       <x:c r="B1164" s="0" t="s">
-        <x:v>4231</x:v>
+        <x:v>4223</x:v>
       </x:c>
       <x:c r="C1164" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="D1164" s="0" t="s">
-        <x:v>4232</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="E1164" s="0" t="n">
-        <x:v>1401</x:v>
+        <x:v>1398</x:v>
       </x:c>
     </x:row>
     <x:row r="1165" spans="1:5">
       <x:c r="A1165" s="0" t="s">
-        <x:v>4233</x:v>
+        <x:v>4224</x:v>
       </x:c>
       <x:c r="B1165" s="0" t="s">
-        <x:v>4234</x:v>
+        <x:v>4225</x:v>
       </x:c>
       <x:c r="C1165" s="0" t="s">
-        <x:v>834</x:v>
+        <x:v>4226</x:v>
       </x:c>
       <x:c r="D1165" s="0" t="s">
-        <x:v>834</x:v>
+        <x:v>4227</x:v>
       </x:c>
       <x:c r="E1165" s="0" t="n">
-        <x:v>1402</x:v>
+        <x:v>1399</x:v>
       </x:c>
     </x:row>
     <x:row r="1166" spans="1:5">
       <x:c r="A1166" s="0" t="s">
-        <x:v>4235</x:v>
+        <x:v>4228</x:v>
       </x:c>
       <x:c r="B1166" s="0" t="s">
-        <x:v>4236</x:v>
+        <x:v>4229</x:v>
       </x:c>
       <x:c r="C1166" s="0" t="s">
-        <x:v>853</x:v>
+        <x:v>4230</x:v>
       </x:c>
       <x:c r="D1166" s="0" t="s">
-        <x:v>854</x:v>
+        <x:v>4231</x:v>
       </x:c>
       <x:c r="E1166" s="0" t="n">
-        <x:v>1403</x:v>
+        <x:v>1400</x:v>
       </x:c>
     </x:row>
     <x:row r="1167" spans="1:5">
       <x:c r="A1167" s="0" t="s">
-        <x:v>4237</x:v>
+        <x:v>4232</x:v>
       </x:c>
       <x:c r="B1167" s="0" t="s">
-        <x:v>4238</x:v>
+        <x:v>4233</x:v>
       </x:c>
       <x:c r="C1167" s="0" t="s">
-        <x:v>4239</x:v>
+        <x:v>1673</x:v>
       </x:c>
       <x:c r="D1167" s="0" t="s">
-        <x:v>4240</x:v>
+        <x:v>1673</x:v>
       </x:c>
       <x:c r="E1167" s="0" t="n">
-        <x:v>1404</x:v>
+        <x:v>1401</x:v>
       </x:c>
     </x:row>
     <x:row r="1168" spans="1:5">
       <x:c r="A1168" s="0" t="s">
-        <x:v>4241</x:v>
+        <x:v>4234</x:v>
       </x:c>
       <x:c r="B1168" s="0" t="s">
-        <x:v>4242</x:v>
+        <x:v>4235</x:v>
       </x:c>
       <x:c r="C1168" s="0" t="s">
-        <x:v>861</x:v>
+        <x:v>4236</x:v>
       </x:c>
       <x:c r="D1168" s="0" t="s">
-        <x:v>862</x:v>
+        <x:v>4237</x:v>
       </x:c>
       <x:c r="E1168" s="0" t="n">
-        <x:v>1405</x:v>
+        <x:v>1402</x:v>
       </x:c>
     </x:row>
     <x:row r="1169" spans="1:5">
       <x:c r="A1169" s="0" t="s">
-        <x:v>4243</x:v>
+        <x:v>4238</x:v>
       </x:c>
       <x:c r="B1169" s="0" t="s">
-        <x:v>4244</x:v>
+        <x:v>4239</x:v>
       </x:c>
       <x:c r="C1169" s="0" t="s">
-        <x:v>4245</x:v>
+        <x:v>849</x:v>
       </x:c>
       <x:c r="D1169" s="0" t="s">
-        <x:v>4246</x:v>
+        <x:v>850</x:v>
       </x:c>
       <x:c r="E1169" s="0" t="n">
-        <x:v>1406</x:v>
+        <x:v>1403</x:v>
       </x:c>
     </x:row>
     <x:row r="1170" spans="1:5">
       <x:c r="A1170" s="0" t="s">
-        <x:v>4247</x:v>
+        <x:v>4240</x:v>
       </x:c>
       <x:c r="B1170" s="0" t="s">
-        <x:v>4248</x:v>
+        <x:v>4241</x:v>
       </x:c>
       <x:c r="C1170" s="0" t="s">
-        <x:v>901</x:v>
+        <x:v>865</x:v>
       </x:c>
       <x:c r="D1170" s="0" t="s">
-        <x:v>902</x:v>
+        <x:v>866</x:v>
       </x:c>
       <x:c r="E1170" s="0" t="n">
-        <x:v>1407</x:v>
+        <x:v>1404</x:v>
       </x:c>
     </x:row>
     <x:row r="1171" spans="1:5">
       <x:c r="A1171" s="0" t="s">
-        <x:v>4249</x:v>
+        <x:v>4242</x:v>
       </x:c>
       <x:c r="B1171" s="0" t="s">
-        <x:v>4250</x:v>
+        <x:v>4243</x:v>
       </x:c>
       <x:c r="C1171" s="0" t="s">
-        <x:v>4251</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="D1171" s="0" t="s">
-        <x:v>4252</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="E1171" s="0" t="n">
-        <x:v>1408</x:v>
+        <x:v>1405</x:v>
       </x:c>
     </x:row>
     <x:row r="1172" spans="1:5">
       <x:c r="A1172" s="0" t="s">
-        <x:v>4253</x:v>
+        <x:v>4244</x:v>
       </x:c>
       <x:c r="B1172" s="0" t="s">
-        <x:v>4254</x:v>
+        <x:v>4245</x:v>
       </x:c>
       <x:c r="C1172" s="0" t="s">
-        <x:v>4255</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="D1172" s="0" t="s">
-        <x:v>4256</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="E1172" s="0" t="n">
-        <x:v>1409</x:v>
+        <x:v>1406</x:v>
       </x:c>
     </x:row>
     <x:row r="1173" spans="1:5">
       <x:c r="A1173" s="0" t="s">
-        <x:v>4257</x:v>
+        <x:v>4246</x:v>
       </x:c>
       <x:c r="B1173" s="0" t="s">
-        <x:v>4258</x:v>
+        <x:v>4247</x:v>
       </x:c>
       <x:c r="C1173" s="0" t="s">
-        <x:v>4259</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="D1173" s="0" t="s">
-        <x:v>4260</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="E1173" s="0" t="n">
-        <x:v>1410</x:v>
+        <x:v>1407</x:v>
       </x:c>
     </x:row>
     <x:row r="1174" spans="1:5">
       <x:c r="A1174" s="0" t="s">
-        <x:v>4261</x:v>
+        <x:v>4248</x:v>
       </x:c>
       <x:c r="B1174" s="0" t="s">
-        <x:v>4262</x:v>
+        <x:v>4249</x:v>
       </x:c>
       <x:c r="C1174" s="0" t="s">
-        <x:v>4263</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="D1174" s="0" t="s">
-        <x:v>4264</x:v>
+        <x:v>4250</x:v>
       </x:c>
       <x:c r="E1174" s="0" t="n">
-        <x:v>1411</x:v>
+        <x:v>1408</x:v>
       </x:c>
     </x:row>
     <x:row r="1175" spans="1:5">
       <x:c r="A1175" s="0" t="s">
-        <x:v>4265</x:v>
+        <x:v>4251</x:v>
       </x:c>
       <x:c r="B1175" s="0" t="s">
-        <x:v>4266</x:v>
+        <x:v>4252</x:v>
       </x:c>
       <x:c r="C1175" s="0" t="s">
-        <x:v>885</x:v>
+        <x:v>834</x:v>
       </x:c>
       <x:c r="D1175" s="0" t="s">
-        <x:v>886</x:v>
+        <x:v>834</x:v>
       </x:c>
       <x:c r="E1175" s="0" t="n">
-        <x:v>1412</x:v>
+        <x:v>1409</x:v>
       </x:c>
     </x:row>
     <x:row r="1176" spans="1:5">
       <x:c r="A1176" s="0" t="s">
-        <x:v>4267</x:v>
+        <x:v>4253</x:v>
       </x:c>
       <x:c r="B1176" s="0" t="s">
-        <x:v>4268</x:v>
+        <x:v>4254</x:v>
       </x:c>
       <x:c r="C1176" s="0" t="s">
-        <x:v>4269</x:v>
+        <x:v>853</x:v>
       </x:c>
       <x:c r="D1176" s="0" t="s">
-        <x:v>4270</x:v>
+        <x:v>854</x:v>
       </x:c>
       <x:c r="E1176" s="0" t="n">
-        <x:v>1413</x:v>
+        <x:v>1410</x:v>
       </x:c>
     </x:row>
     <x:row r="1177" spans="1:5">
       <x:c r="A1177" s="0" t="s">
-        <x:v>4271</x:v>
+        <x:v>4255</x:v>
       </x:c>
       <x:c r="B1177" s="0" t="s">
-        <x:v>1823</x:v>
+        <x:v>4256</x:v>
       </x:c>
       <x:c r="C1177" s="0" t="s">
-        <x:v>1823</x:v>
+        <x:v>4257</x:v>
       </x:c>
       <x:c r="D1177" s="0" t="s">
-        <x:v>4272</x:v>
+        <x:v>4258</x:v>
       </x:c>
       <x:c r="E1177" s="0" t="n">
-        <x:v>1414</x:v>
+        <x:v>1411</x:v>
       </x:c>
     </x:row>
     <x:row r="1178" spans="1:5">
       <x:c r="A1178" s="0" t="s">
-        <x:v>4273</x:v>
+        <x:v>4259</x:v>
       </x:c>
       <x:c r="B1178" s="0" t="s">
-        <x:v>1823</x:v>
+        <x:v>4260</x:v>
       </x:c>
       <x:c r="C1178" s="0" t="s">
-        <x:v>1823</x:v>
+        <x:v>861</x:v>
       </x:c>
       <x:c r="D1178" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>862</x:v>
       </x:c>
       <x:c r="E1178" s="0" t="n">
-        <x:v>1415</x:v>
+        <x:v>1412</x:v>
       </x:c>
     </x:row>
     <x:row r="1179" spans="1:5">
       <x:c r="A1179" s="0" t="s">
-        <x:v>4274</x:v>
+        <x:v>4261</x:v>
       </x:c>
       <x:c r="B1179" s="0" t="s">
-        <x:v>1823</x:v>
+        <x:v>4262</x:v>
       </x:c>
       <x:c r="C1179" s="0" t="s">
-        <x:v>1823</x:v>
+        <x:v>4263</x:v>
       </x:c>
       <x:c r="D1179" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>4264</x:v>
       </x:c>
       <x:c r="E1179" s="0" t="n">
-        <x:v>1418</x:v>
+        <x:v>1413</x:v>
       </x:c>
     </x:row>
     <x:row r="1180" spans="1:5">
       <x:c r="A1180" s="0" t="s">
-        <x:v>4275</x:v>
+        <x:v>4265</x:v>
       </x:c>
       <x:c r="B1180" s="0" t="s">
-        <x:v>1823</x:v>
+        <x:v>4266</x:v>
       </x:c>
       <x:c r="C1180" s="0" t="s">
-        <x:v>1823</x:v>
+        <x:v>901</x:v>
       </x:c>
       <x:c r="D1180" s="0" t="s">
-        <x:v>4276</x:v>
+        <x:v>902</x:v>
       </x:c>
       <x:c r="E1180" s="0" t="n">
-        <x:v>1419</x:v>
+        <x:v>1414</x:v>
       </x:c>
     </x:row>
     <x:row r="1181" spans="1:5">
       <x:c r="A1181" s="0" t="s">
-        <x:v>4277</x:v>
+        <x:v>4267</x:v>
       </x:c>
       <x:c r="B1181" s="0" t="s">
-        <x:v>1823</x:v>
+        <x:v>4268</x:v>
       </x:c>
       <x:c r="C1181" s="0" t="s">
-        <x:v>1823</x:v>
+        <x:v>4269</x:v>
       </x:c>
       <x:c r="D1181" s="0" t="s">
-        <x:v>4278</x:v>
+        <x:v>4270</x:v>
       </x:c>
       <x:c r="E1181" s="0" t="n">
-        <x:v>1420</x:v>
+        <x:v>1415</x:v>
       </x:c>
     </x:row>
     <x:row r="1182" spans="1:5">
       <x:c r="A1182" s="0" t="s">
-        <x:v>4279</x:v>
+        <x:v>4271</x:v>
       </x:c>
       <x:c r="B1182" s="0" t="s">
-        <x:v>1823</x:v>
+        <x:v>4272</x:v>
       </x:c>
       <x:c r="C1182" s="0" t="s">
-        <x:v>1823</x:v>
+        <x:v>4273</x:v>
       </x:c>
       <x:c r="D1182" s="0" t="s">
-        <x:v>4280</x:v>
+        <x:v>4274</x:v>
       </x:c>
       <x:c r="E1182" s="0" t="n">
-        <x:v>1421</x:v>
+        <x:v>1416</x:v>
       </x:c>
     </x:row>
     <x:row r="1183" spans="1:5">
       <x:c r="A1183" s="0" t="s">
-        <x:v>4281</x:v>
+        <x:v>4275</x:v>
       </x:c>
       <x:c r="B1183" s="0" t="s">
-        <x:v>1823</x:v>
+        <x:v>4276</x:v>
       </x:c>
       <x:c r="C1183" s="0" t="s">
-        <x:v>1823</x:v>
+        <x:v>4277</x:v>
       </x:c>
       <x:c r="D1183" s="0" t="s">
-        <x:v>4282</x:v>
+        <x:v>4278</x:v>
       </x:c>
       <x:c r="E1183" s="0" t="n">
-        <x:v>1422</x:v>
+        <x:v>1417</x:v>
       </x:c>
     </x:row>
     <x:row r="1184" spans="1:5">
       <x:c r="A1184" s="0" t="s">
-        <x:v>4283</x:v>
+        <x:v>4279</x:v>
       </x:c>
       <x:c r="B1184" s="0" t="s">
-        <x:v>1823</x:v>
+        <x:v>4280</x:v>
       </x:c>
       <x:c r="C1184" s="0" t="s">
-        <x:v>1823</x:v>
+        <x:v>4281</x:v>
       </x:c>
       <x:c r="D1184" s="0" t="s">
-        <x:v>4284</x:v>
+        <x:v>4282</x:v>
       </x:c>
       <x:c r="E1184" s="0" t="n">
-        <x:v>1423</x:v>
+        <x:v>1418</x:v>
       </x:c>
     </x:row>
     <x:row r="1185" spans="1:5">
       <x:c r="A1185" s="0" t="s">
-        <x:v>4285</x:v>
+        <x:v>4283</x:v>
       </x:c>
       <x:c r="B1185" s="0" t="s">
-        <x:v>1823</x:v>
+        <x:v>4284</x:v>
       </x:c>
       <x:c r="C1185" s="0" t="s">
-        <x:v>1823</x:v>
+        <x:v>885</x:v>
       </x:c>
       <x:c r="D1185" s="0" t="s">
-        <x:v>4286</x:v>
+        <x:v>886</x:v>
       </x:c>
       <x:c r="E1185" s="0" t="n">
-        <x:v>1424</x:v>
+        <x:v>1419</x:v>
       </x:c>
     </x:row>
     <x:row r="1186" spans="1:5">
       <x:c r="A1186" s="0" t="s">
+        <x:v>4285</x:v>
+      </x:c>
+      <x:c r="B1186" s="0" t="s">
+        <x:v>4286</x:v>
+      </x:c>
+      <x:c r="C1186" s="0" t="s">
         <x:v>4287</x:v>
-      </x:c>
-      <x:c r="B1186" s="0" t="s">
-        <x:v>1823</x:v>
-      </x:c>
-      <x:c r="C1186" s="0" t="s">
-        <x:v>1823</x:v>
       </x:c>
       <x:c r="D1186" s="0" t="s">
         <x:v>4288</x:v>
       </x:c>
       <x:c r="E1186" s="0" t="n">
-        <x:v>1425</x:v>
+        <x:v>1420</x:v>
       </x:c>
     </x:row>
     <x:row r="1187" spans="1:5">
@@ -34791,7 +34791,7 @@
         <x:v>4290</x:v>
       </x:c>
       <x:c r="E1187" s="0" t="n">
-        <x:v>1426</x:v>
+        <x:v>1421</x:v>
       </x:c>
     </x:row>
     <x:row r="1188" spans="1:5">
@@ -34808,7 +34808,7 @@
         <x:v>4292</x:v>
       </x:c>
       <x:c r="E1188" s="0" t="n">
-        <x:v>1427</x:v>
+        <x:v>1422</x:v>
       </x:c>
     </x:row>
     <x:row r="1189" spans="1:5">
@@ -34825,7 +34825,7 @@
         <x:v>4294</x:v>
       </x:c>
       <x:c r="E1189" s="0" t="n">
-        <x:v>1428</x:v>
+        <x:v>1423</x:v>
       </x:c>
     </x:row>
     <x:row r="1190" spans="1:5">
@@ -34859,7 +34859,7 @@
         <x:v>4297</x:v>
       </x:c>
       <x:c r="E1191" s="0" t="n">
-        <x:v>899</x:v>
+        <x:v>904</x:v>
       </x:c>
     </x:row>
     <x:row r="1192" spans="1:5">
@@ -34995,7 +34995,7 @@
         <x:v>4312</x:v>
       </x:c>
       <x:c r="E1199" s="0" t="n">
-        <x:v>1052</x:v>
+        <x:v>1059</x:v>
       </x:c>
     </x:row>
     <x:row r="1200" spans="1:5">
@@ -35029,7 +35029,7 @@
         <x:v>4317</x:v>
       </x:c>
       <x:c r="E1201" s="0" t="n">
-        <x:v>927</x:v>
+        <x:v>970</x:v>
       </x:c>
     </x:row>
     <x:row r="1202" spans="1:5">
@@ -35063,7 +35063,7 @@
         <x:v>4321</x:v>
       </x:c>
       <x:c r="E1203" s="0" t="n">
-        <x:v>928</x:v>
+        <x:v>971</x:v>
       </x:c>
     </x:row>
     <x:row r="1204" spans="1:5">
@@ -35097,7 +35097,7 @@
         <x:v>4325</x:v>
       </x:c>
       <x:c r="E1205" s="0" t="n">
-        <x:v>929</x:v>
+        <x:v>972</x:v>
       </x:c>
     </x:row>
     <x:row r="1206" spans="1:5">
@@ -35131,7 +35131,7 @@
         <x:v>4325</x:v>
       </x:c>
       <x:c r="E1207" s="0" t="n">
-        <x:v>930</x:v>
+        <x:v>973</x:v>
       </x:c>
     </x:row>
     <x:row r="1208" spans="1:5">
@@ -35165,7 +35165,7 @@
         <x:v>4332</x:v>
       </x:c>
       <x:c r="E1209" s="0" t="n">
-        <x:v>964</x:v>
+        <x:v>974</x:v>
       </x:c>
     </x:row>
     <x:row r="1210" spans="1:5">
@@ -35199,7 +35199,7 @@
         <x:v>4336</x:v>
       </x:c>
       <x:c r="E1211" s="0" t="n">
-        <x:v>939</x:v>
+        <x:v>975</x:v>
       </x:c>
     </x:row>
     <x:row r="1212" spans="1:5">
@@ -35233,7 +35233,7 @@
         <x:v>4341</x:v>
       </x:c>
       <x:c r="E1213" s="0" t="n">
-        <x:v>956</x:v>
+        <x:v>976</x:v>
       </x:c>
     </x:row>
     <x:row r="1214" spans="1:5">
@@ -35267,7 +35267,7 @@
         <x:v>4345</x:v>
       </x:c>
       <x:c r="E1215" s="0" t="n">
-        <x:v>954</x:v>
+        <x:v>977</x:v>
       </x:c>
     </x:row>
     <x:row r="1216" spans="1:5">
@@ -35301,7 +35301,7 @@
         <x:v>4349</x:v>
       </x:c>
       <x:c r="E1217" s="0" t="n">
-        <x:v>955</x:v>
+        <x:v>978</x:v>
       </x:c>
     </x:row>
     <x:row r="1218" spans="1:5">
@@ -35335,7 +35335,7 @@
         <x:v>4354</x:v>
       </x:c>
       <x:c r="E1219" s="0" t="n">
-        <x:v>1124</x:v>
+        <x:v>1146</x:v>
       </x:c>
     </x:row>
     <x:row r="1220" spans="1:5">
@@ -35369,7 +35369,7 @@
         <x:v>4358</x:v>
       </x:c>
       <x:c r="E1221" s="0" t="n">
-        <x:v>1121</x:v>
+        <x:v>1147</x:v>
       </x:c>
     </x:row>
     <x:row r="1222" spans="1:5">
@@ -35403,7 +35403,7 @@
         <x:v>4363</x:v>
       </x:c>
       <x:c r="E1223" s="0" t="n">
-        <x:v>1263</x:v>
+        <x:v>1269</x:v>
       </x:c>
     </x:row>
     <x:row r="1224" spans="1:5">
@@ -35437,7 +35437,7 @@
         <x:v>4368</x:v>
       </x:c>
       <x:c r="E1225" s="0" t="n">
-        <x:v>1078</x:v>
+        <x:v>1096</x:v>
       </x:c>
     </x:row>
     <x:row r="1226" spans="1:5">
@@ -35454,7 +35454,7 @@
         <x:v>4368</x:v>
       </x:c>
       <x:c r="E1226" s="0" t="n">
-        <x:v>1222</x:v>
+        <x:v>1207</x:v>
       </x:c>
     </x:row>
     <x:row r="1227" spans="1:5">
@@ -35471,7 +35471,7 @@
         <x:v>4368</x:v>
       </x:c>
       <x:c r="E1227" s="0" t="n">
-        <x:v>1232</x:v>
+        <x:v>1215</x:v>
       </x:c>
     </x:row>
     <x:row r="1228" spans="1:5">
@@ -35482,10 +35482,10 @@
         <x:v>4373</x:v>
       </x:c>
       <x:c r="C1228" s="0" t="s">
-        <x:v>3487</x:v>
+        <x:v>3490</x:v>
       </x:c>
       <x:c r="D1228" s="0" t="s">
-        <x:v>3488</x:v>
+        <x:v>3491</x:v>
       </x:c>
       <x:c r="E1228" s="0" t="n">
         <x:v>176</x:v>
@@ -35499,13 +35499,13 @@
         <x:v>4373</x:v>
       </x:c>
       <x:c r="C1229" s="0" t="s">
-        <x:v>3487</x:v>
+        <x:v>3490</x:v>
       </x:c>
       <x:c r="D1229" s="0" t="s">
-        <x:v>3488</x:v>
+        <x:v>3491</x:v>
       </x:c>
       <x:c r="E1229" s="0" t="n">
-        <x:v>1223</x:v>
+        <x:v>1208</x:v>
       </x:c>
     </x:row>
     <x:row r="1230" spans="1:5">
@@ -35516,13 +35516,13 @@
         <x:v>4373</x:v>
       </x:c>
       <x:c r="C1230" s="0" t="s">
-        <x:v>3487</x:v>
+        <x:v>3490</x:v>
       </x:c>
       <x:c r="D1230" s="0" t="s">
-        <x:v>3488</x:v>
+        <x:v>3491</x:v>
       </x:c>
       <x:c r="E1230" s="0" t="n">
-        <x:v>1235</x:v>
+        <x:v>1216</x:v>
       </x:c>
     </x:row>
     <x:row r="1231" spans="1:5">
@@ -35556,7 +35556,7 @@
         <x:v>4379</x:v>
       </x:c>
       <x:c r="E1232" s="0" t="n">
-        <x:v>1079</x:v>
+        <x:v>1097</x:v>
       </x:c>
     </x:row>
     <x:row r="1233" spans="1:5">
@@ -35573,7 +35573,7 @@
         <x:v>4379</x:v>
       </x:c>
       <x:c r="E1233" s="0" t="n">
-        <x:v>1224</x:v>
+        <x:v>1209</x:v>
       </x:c>
     </x:row>
     <x:row r="1234" spans="1:5">
@@ -35590,7 +35590,7 @@
         <x:v>4379</x:v>
       </x:c>
       <x:c r="E1234" s="0" t="n">
-        <x:v>1233</x:v>
+        <x:v>1217</x:v>
       </x:c>
     </x:row>
     <x:row r="1235" spans="1:5">
@@ -35598,7 +35598,7 @@
         <x:v>4383</x:v>
       </x:c>
       <x:c r="B1235" s="0" t="s">
-        <x:v>3490</x:v>
+        <x:v>3493</x:v>
       </x:c>
       <x:c r="C1235" s="0" t="s">
         <x:v>4384</x:v>
@@ -35615,7 +35615,7 @@
         <x:v>4386</x:v>
       </x:c>
       <x:c r="B1236" s="0" t="s">
-        <x:v>3490</x:v>
+        <x:v>3493</x:v>
       </x:c>
       <x:c r="C1236" s="0" t="s">
         <x:v>4384</x:v>
@@ -35624,7 +35624,7 @@
         <x:v>4385</x:v>
       </x:c>
       <x:c r="E1236" s="0" t="n">
-        <x:v>1225</x:v>
+        <x:v>1210</x:v>
       </x:c>
     </x:row>
     <x:row r="1237" spans="1:5">
@@ -35632,7 +35632,7 @@
         <x:v>4387</x:v>
       </x:c>
       <x:c r="B1237" s="0" t="s">
-        <x:v>3490</x:v>
+        <x:v>3493</x:v>
       </x:c>
       <x:c r="C1237" s="0" t="s">
         <x:v>4384</x:v>
@@ -35641,7 +35641,7 @@
         <x:v>4385</x:v>
       </x:c>
       <x:c r="E1237" s="0" t="n">
-        <x:v>1236</x:v>
+        <x:v>1218</x:v>
       </x:c>
     </x:row>
     <x:row r="1238" spans="1:5">
@@ -35652,10 +35652,10 @@
         <x:v>4389</x:v>
       </x:c>
       <x:c r="C1238" s="0" t="s">
-        <x:v>3514</x:v>
+        <x:v>3517</x:v>
       </x:c>
       <x:c r="D1238" s="0" t="s">
-        <x:v>3515</x:v>
+        <x:v>3518</x:v>
       </x:c>
       <x:c r="E1238" s="0" t="n">
         <x:v>181</x:v>
@@ -35669,13 +35669,13 @@
         <x:v>4389</x:v>
       </x:c>
       <x:c r="C1239" s="0" t="s">
-        <x:v>3514</x:v>
+        <x:v>3517</x:v>
       </x:c>
       <x:c r="D1239" s="0" t="s">
-        <x:v>3515</x:v>
+        <x:v>3518</x:v>
       </x:c>
       <x:c r="E1239" s="0" t="n">
-        <x:v>1228</x:v>
+        <x:v>1213</x:v>
       </x:c>
     </x:row>
     <x:row r="1240" spans="1:5">
@@ -35686,13 +35686,13 @@
         <x:v>4389</x:v>
       </x:c>
       <x:c r="C1240" s="0" t="s">
-        <x:v>3514</x:v>
+        <x:v>3517</x:v>
       </x:c>
       <x:c r="D1240" s="0" t="s">
-        <x:v>3515</x:v>
+        <x:v>3518</x:v>
       </x:c>
       <x:c r="E1240" s="0" t="n">
-        <x:v>1230</x:v>
+        <x:v>1219</x:v>
       </x:c>
     </x:row>
     <x:row r="1241" spans="1:5">
@@ -35726,7 +35726,7 @@
         <x:v>4394</x:v>
       </x:c>
       <x:c r="E1242" s="0" t="n">
-        <x:v>1351</x:v>
+        <x:v>1424</x:v>
       </x:c>
     </x:row>
     <x:row r="1243" spans="1:5">
@@ -35760,7 +35760,7 @@
         <x:v>4398</x:v>
       </x:c>
       <x:c r="E1244" s="0" t="n">
-        <x:v>1397</x:v>
+        <x:v>1425</x:v>
       </x:c>
     </x:row>
     <x:row r="1245" spans="1:5">
@@ -35768,7 +35768,7 @@
         <x:v>4400</x:v>
       </x:c>
       <x:c r="B1245" s="0" t="s">
-        <x:v>3396</x:v>
+        <x:v>3398</x:v>
       </x:c>
       <x:c r="C1245" s="0" t="s">
         <x:v>1990</x:v>
@@ -35785,7 +35785,7 @@
         <x:v>4401</x:v>
       </x:c>
       <x:c r="B1246" s="0" t="s">
-        <x:v>3396</x:v>
+        <x:v>3398</x:v>
       </x:c>
       <x:c r="C1246" s="0" t="s">
         <x:v>1990</x:v>
@@ -35802,7 +35802,7 @@
         <x:v>4402</x:v>
       </x:c>
       <x:c r="B1247" s="0" t="s">
-        <x:v>4073</x:v>
+        <x:v>4091</x:v>
       </x:c>
       <x:c r="C1247" s="0" t="s">
         <x:v>4403</x:v>
@@ -35819,7 +35819,7 @@
         <x:v>4405</x:v>
       </x:c>
       <x:c r="B1248" s="0" t="s">
-        <x:v>4073</x:v>
+        <x:v>4091</x:v>
       </x:c>
       <x:c r="C1248" s="0" t="s">
         <x:v>4403</x:v>
@@ -35862,7 +35862,7 @@
         <x:v>4409</x:v>
       </x:c>
       <x:c r="E1250" s="0" t="n">
-        <x:v>1264</x:v>
+        <x:v>1270</x:v>
       </x:c>
     </x:row>
     <x:row r="1251" spans="1:5">
@@ -35896,7 +35896,7 @@
         <x:v>3374</x:v>
       </x:c>
       <x:c r="E1252" s="0" t="n">
-        <x:v>1239</x:v>
+        <x:v>1247</x:v>
       </x:c>
     </x:row>
     <x:row r="1253" spans="1:5">
@@ -35930,7 +35930,7 @@
         <x:v>4415</x:v>
       </x:c>
       <x:c r="E1254" s="0" t="n">
-        <x:v>932</x:v>
+        <x:v>979</x:v>
       </x:c>
     </x:row>
     <x:row r="1255" spans="1:5">
@@ -35975,10 +35975,10 @@
         <x:v>4423</x:v>
       </x:c>
       <x:c r="C1257" s="0" t="s">
-        <x:v>3456</x:v>
+        <x:v>3459</x:v>
       </x:c>
       <x:c r="D1257" s="0" t="s">
-        <x:v>3457</x:v>
+        <x:v>3460</x:v>
       </x:c>
       <x:c r="E1257" s="0" t="n">
         <x:v>410</x:v>
@@ -35992,10 +35992,10 @@
         <x:v>4423</x:v>
       </x:c>
       <x:c r="C1258" s="0" t="s">
-        <x:v>3456</x:v>
+        <x:v>3459</x:v>
       </x:c>
       <x:c r="D1258" s="0" t="s">
-        <x:v>3457</x:v>
+        <x:v>3460</x:v>
       </x:c>
       <x:c r="E1258" s="0" t="n">
         <x:v>423</x:v>
@@ -36009,13 +36009,13 @@
         <x:v>4423</x:v>
       </x:c>
       <x:c r="C1259" s="0" t="s">
-        <x:v>3456</x:v>
+        <x:v>3459</x:v>
       </x:c>
       <x:c r="D1259" s="0" t="s">
-        <x:v>3457</x:v>
+        <x:v>3460</x:v>
       </x:c>
       <x:c r="E1259" s="0" t="n">
-        <x:v>926</x:v>
+        <x:v>980</x:v>
       </x:c>
     </x:row>
     <x:row r="1260" spans="1:5">
@@ -36134,7 +36134,7 @@
         <x:v>4438</x:v>
       </x:c>
       <x:c r="E1266" s="0" t="n">
-        <x:v>1062</x:v>
+        <x:v>1098</x:v>
       </x:c>
     </x:row>
     <x:row r="1267" spans="1:5">
@@ -36202,7 +36202,7 @@
         <x:v>4447</x:v>
       </x:c>
       <x:c r="E1270" s="0" t="n">
-        <x:v>1070</x:v>
+        <x:v>1099</x:v>
       </x:c>
     </x:row>
     <x:row r="1271" spans="1:5">
@@ -36270,7 +36270,7 @@
         <x:v>4457</x:v>
       </x:c>
       <x:c r="E1274" s="0" t="n">
-        <x:v>1050</x:v>
+        <x:v>1060</x:v>
       </x:c>
     </x:row>
     <x:row r="1275" spans="1:5">
@@ -36304,7 +36304,7 @@
         <x:v>706</x:v>
       </x:c>
       <x:c r="E1276" s="0" t="n">
-        <x:v>937</x:v>
+        <x:v>981</x:v>
       </x:c>
     </x:row>
     <x:row r="1277" spans="1:5">
@@ -36474,7 +36474,7 @@
         <x:v>2416</x:v>
       </x:c>
       <x:c r="E1286" s="0" t="n">
-        <x:v>1146</x:v>
+        <x:v>1148</x:v>
       </x:c>
     </x:row>
     <x:row r="1287" spans="1:5">
@@ -36508,7 +36508,7 @@
         <x:v>2416</x:v>
       </x:c>
       <x:c r="E1288" s="0" t="n">
-        <x:v>1154</x:v>
+        <x:v>1156</x:v>
       </x:c>
     </x:row>
     <x:row r="1289" spans="1:5">
@@ -36525,7 +36525,7 @@
         <x:v>2416</x:v>
       </x:c>
       <x:c r="E1289" s="0" t="n">
-        <x:v>1163</x:v>
+        <x:v>1162</x:v>
       </x:c>
     </x:row>
     <x:row r="1290" spans="1:5">
@@ -36542,7 +36542,7 @@
         <x:v>2416</x:v>
       </x:c>
       <x:c r="E1290" s="0" t="n">
-        <x:v>1164</x:v>
+        <x:v>1166</x:v>
       </x:c>
     </x:row>
     <x:row r="1291" spans="1:5">
@@ -36559,7 +36559,7 @@
         <x:v>2416</x:v>
       </x:c>
       <x:c r="E1291" s="0" t="n">
-        <x:v>1171</x:v>
+        <x:v>1175</x:v>
       </x:c>
     </x:row>
     <x:row r="1292" spans="1:5">
@@ -36576,7 +36576,7 @@
         <x:v>2416</x:v>
       </x:c>
       <x:c r="E1292" s="0" t="n">
-        <x:v>1172</x:v>
+        <x:v>1197</x:v>
       </x:c>
     </x:row>
     <x:row r="1293" spans="1:5">
@@ -36593,7 +36593,7 @@
         <x:v>2416</x:v>
       </x:c>
       <x:c r="E1293" s="0" t="n">
-        <x:v>1184</x:v>
+        <x:v>1202</x:v>
       </x:c>
     </x:row>
     <x:row r="1294" spans="1:5">
@@ -36610,7 +36610,7 @@
         <x:v>2416</x:v>
       </x:c>
       <x:c r="E1294" s="0" t="n">
-        <x:v>1189</x:v>
+        <x:v>1223</x:v>
       </x:c>
     </x:row>
     <x:row r="1295" spans="1:5">
@@ -36627,7 +36627,7 @@
         <x:v>2416</x:v>
       </x:c>
       <x:c r="E1295" s="0" t="n">
-        <x:v>1200</x:v>
+        <x:v>1227</x:v>
       </x:c>
     </x:row>
     <x:row r="1296" spans="1:5">
@@ -36644,7 +36644,7 @@
         <x:v>2416</x:v>
       </x:c>
       <x:c r="E1296" s="0" t="n">
-        <x:v>1201</x:v>
+        <x:v>1231</x:v>
       </x:c>
     </x:row>
     <x:row r="1297" spans="1:5">
@@ -36661,7 +36661,7 @@
         <x:v>2416</x:v>
       </x:c>
       <x:c r="E1297" s="0" t="n">
-        <x:v>1210</x:v>
+        <x:v>1237</x:v>
       </x:c>
     </x:row>
     <x:row r="1298" spans="1:5">
@@ -36678,7 +36678,7 @@
         <x:v>2416</x:v>
       </x:c>
       <x:c r="E1298" s="0" t="n">
-        <x:v>1362</x:v>
+        <x:v>1426</x:v>
       </x:c>
     </x:row>
     <x:row r="1299" spans="1:5">
@@ -36961,7 +36961,7 @@
         <x:v>2067</x:v>
       </x:c>
       <x:c r="C1315" s="0" t="s">
-        <x:v>3720</x:v>
+        <x:v>3723</x:v>
       </x:c>
       <x:c r="D1315" s="0" t="s">
         <x:v>4512</x:v>
@@ -36978,7 +36978,7 @@
         <x:v>2067</x:v>
       </x:c>
       <x:c r="C1316" s="0" t="s">
-        <x:v>3720</x:v>
+        <x:v>3723</x:v>
       </x:c>
       <x:c r="D1316" s="0" t="s">
         <x:v>4512</x:v>
@@ -37052,7 +37052,7 @@
         <x:v>4520</x:v>
       </x:c>
       <x:c r="E1320" s="0" t="n">
-        <x:v>1255</x:v>
+        <x:v>1266</x:v>
       </x:c>
     </x:row>
     <x:row r="1321" spans="1:5">
@@ -37069,7 +37069,7 @@
         <x:v>4520</x:v>
       </x:c>
       <x:c r="E1321" s="0" t="n">
-        <x:v>1280</x:v>
+        <x:v>1293</x:v>
       </x:c>
     </x:row>
     <x:row r="1322" spans="1:5">
@@ -37103,7 +37103,7 @@
         <x:v>4526</x:v>
       </x:c>
       <x:c r="E1323" s="0" t="n">
-        <x:v>980</x:v>
+        <x:v>982</x:v>
       </x:c>
     </x:row>
     <x:row r="1324" spans="1:5">
@@ -37137,7 +37137,7 @@
         <x:v>4531</x:v>
       </x:c>
       <x:c r="E1325" s="0" t="n">
-        <x:v>1251</x:v>
+        <x:v>1258</x:v>
       </x:c>
     </x:row>
     <x:row r="1326" spans="1:5">
@@ -37205,7 +37205,7 @@
         <x:v>4541</x:v>
       </x:c>
       <x:c r="E1329" s="0" t="n">
-        <x:v>1253</x:v>
+        <x:v>1259</x:v>
       </x:c>
     </x:row>
     <x:row r="1330" spans="1:5">
@@ -37307,7 +37307,7 @@
         <x:v>4555</x:v>
       </x:c>
       <x:c r="E1335" s="0" t="n">
-        <x:v>921</x:v>
+        <x:v>917</x:v>
       </x:c>
     </x:row>
     <x:row r="1336" spans="1:5">
@@ -37341,7 +37341,7 @@
         <x:v>4560</x:v>
       </x:c>
       <x:c r="E1337" s="0" t="n">
-        <x:v>917</x:v>
+        <x:v>918</x:v>
       </x:c>
     </x:row>
     <x:row r="1338" spans="1:5">
@@ -37375,7 +37375,7 @@
         <x:v>4565</x:v>
       </x:c>
       <x:c r="E1339" s="0" t="n">
-        <x:v>915</x:v>
+        <x:v>919</x:v>
       </x:c>
     </x:row>
     <x:row r="1340" spans="1:5">
@@ -37409,7 +37409,7 @@
         <x:v>4570</x:v>
       </x:c>
       <x:c r="E1341" s="0" t="n">
-        <x:v>919</x:v>
+        <x:v>920</x:v>
       </x:c>
     </x:row>
     <x:row r="1342" spans="1:5">
@@ -37443,7 +37443,7 @@
         <x:v>1144</x:v>
       </x:c>
       <x:c r="E1343" s="0" t="n">
-        <x:v>918</x:v>
+        <x:v>921</x:v>
       </x:c>
     </x:row>
     <x:row r="1344" spans="1:5">
@@ -37460,7 +37460,7 @@
         <x:v>4578</x:v>
       </x:c>
       <x:c r="E1344" s="0" t="n">
-        <x:v>945</x:v>
+        <x:v>937</x:v>
       </x:c>
     </x:row>
     <x:row r="1345" spans="1:5">
@@ -37477,7 +37477,7 @@
         <x:v>4578</x:v>
       </x:c>
       <x:c r="E1345" s="0" t="n">
-        <x:v>977</x:v>
+        <x:v>983</x:v>
       </x:c>
     </x:row>
     <x:row r="1346" spans="1:5">
@@ -37494,7 +37494,7 @@
         <x:v>4583</x:v>
       </x:c>
       <x:c r="E1346" s="0" t="n">
-        <x:v>953</x:v>
+        <x:v>984</x:v>
       </x:c>
     </x:row>
     <x:row r="1347" spans="1:5">
@@ -37511,7 +37511,7 @@
         <x:v>4583</x:v>
       </x:c>
       <x:c r="E1347" s="0" t="n">
-        <x:v>1321</x:v>
+        <x:v>1427</x:v>
       </x:c>
     </x:row>
     <x:row r="1348" spans="1:5">
@@ -37528,7 +37528,7 @@
         <x:v>4588</x:v>
       </x:c>
       <x:c r="E1348" s="0" t="n">
-        <x:v>973</x:v>
+        <x:v>985</x:v>
       </x:c>
     </x:row>
     <x:row r="1349" spans="1:5">
@@ -37545,7 +37545,7 @@
         <x:v>4588</x:v>
       </x:c>
       <x:c r="E1349" s="0" t="n">
-        <x:v>975</x:v>
+        <x:v>986</x:v>
       </x:c>
     </x:row>
     <x:row r="1350" spans="1:5">
@@ -37579,7 +37579,7 @@
         <x:v>4593</x:v>
       </x:c>
       <x:c r="E1351" s="0" t="n">
-        <x:v>1023</x:v>
+        <x:v>1032</x:v>
       </x:c>
     </x:row>
     <x:row r="1352" spans="1:5">
@@ -37596,7 +37596,7 @@
         <x:v>4598</x:v>
       </x:c>
       <x:c r="E1352" s="0" t="n">
-        <x:v>1047</x:v>
+        <x:v>1048</x:v>
       </x:c>
     </x:row>
     <x:row r="1353" spans="1:5">
@@ -37613,7 +37613,7 @@
         <x:v>4598</x:v>
       </x:c>
       <x:c r="E1353" s="0" t="n">
-        <x:v>1243</x:v>
+        <x:v>1250</x:v>
       </x:c>
     </x:row>
     <x:row r="1354" spans="1:5">
@@ -37630,7 +37630,7 @@
         <x:v>4598</x:v>
       </x:c>
       <x:c r="E1354" s="0" t="n">
-        <x:v>1300</x:v>
+        <x:v>1310</x:v>
       </x:c>
     </x:row>
     <x:row r="1355" spans="1:5">
@@ -37647,7 +37647,7 @@
         <x:v>2773</x:v>
       </x:c>
       <x:c r="E1355" s="0" t="n">
-        <x:v>1065</x:v>
+        <x:v>1100</x:v>
       </x:c>
     </x:row>
     <x:row r="1356" spans="1:5">
@@ -37664,7 +37664,7 @@
         <x:v>2773</x:v>
       </x:c>
       <x:c r="E1356" s="0" t="n">
-        <x:v>1205</x:v>
+        <x:v>1201</x:v>
       </x:c>
     </x:row>
     <x:row r="1357" spans="1:5">
@@ -37681,7 +37681,7 @@
         <x:v>2773</x:v>
       </x:c>
       <x:c r="E1357" s="0" t="n">
-        <x:v>1208</x:v>
+        <x:v>1203</x:v>
       </x:c>
     </x:row>
     <x:row r="1358" spans="1:5">
@@ -37698,7 +37698,7 @@
         <x:v>611</x:v>
       </x:c>
       <x:c r="E1358" s="0" t="n">
-        <x:v>1080</x:v>
+        <x:v>1101</x:v>
       </x:c>
     </x:row>
     <x:row r="1359" spans="1:5">
@@ -37715,7 +37715,7 @@
         <x:v>611</x:v>
       </x:c>
       <x:c r="E1359" s="0" t="n">
-        <x:v>1227</x:v>
+        <x:v>1212</x:v>
       </x:c>
     </x:row>
     <x:row r="1360" spans="1:5">
@@ -37732,7 +37732,7 @@
         <x:v>611</x:v>
       </x:c>
       <x:c r="E1360" s="0" t="n">
-        <x:v>1229</x:v>
+        <x:v>1220</x:v>
       </x:c>
     </x:row>
     <x:row r="1361" spans="1:5">
@@ -37749,7 +37749,7 @@
         <x:v>611</x:v>
       </x:c>
       <x:c r="E1361" s="0" t="n">
-        <x:v>1234</x:v>
+        <x:v>1221</x:v>
       </x:c>
     </x:row>
     <x:row r="1362" spans="1:5">
@@ -37766,7 +37766,7 @@
         <x:v>4613</x:v>
       </x:c>
       <x:c r="E1362" s="0" t="n">
-        <x:v>1116</x:v>
+        <x:v>1118</x:v>
       </x:c>
     </x:row>
     <x:row r="1363" spans="1:5">
@@ -37783,7 +37783,7 @@
         <x:v>4613</x:v>
       </x:c>
       <x:c r="E1363" s="0" t="n">
-        <x:v>1117</x:v>
+        <x:v>1119</x:v>
       </x:c>
     </x:row>
     <x:row r="1364" spans="1:5">
@@ -37800,7 +37800,7 @@
         <x:v>4617</x:v>
       </x:c>
       <x:c r="E1364" s="0" t="n">
-        <x:v>1147</x:v>
+        <x:v>1149</x:v>
       </x:c>
     </x:row>
     <x:row r="1365" spans="1:5">
@@ -37817,7 +37817,7 @@
         <x:v>4617</x:v>
       </x:c>
       <x:c r="E1365" s="0" t="n">
-        <x:v>1151</x:v>
+        <x:v>1154</x:v>
       </x:c>
     </x:row>
     <x:row r="1366" spans="1:5">
@@ -37834,7 +37834,7 @@
         <x:v>4509</x:v>
       </x:c>
       <x:c r="E1366" s="0" t="n">
-        <x:v>1148</x:v>
+        <x:v>1150</x:v>
       </x:c>
     </x:row>
     <x:row r="1367" spans="1:5">
@@ -37851,7 +37851,7 @@
         <x:v>4509</x:v>
       </x:c>
       <x:c r="E1367" s="0" t="n">
-        <x:v>1152</x:v>
+        <x:v>1155</x:v>
       </x:c>
     </x:row>
     <x:row r="1368" spans="1:5">
@@ -37868,7 +37868,7 @@
         <x:v>4624</x:v>
       </x:c>
       <x:c r="E1368" s="0" t="n">
-        <x:v>1155</x:v>
+        <x:v>1157</x:v>
       </x:c>
     </x:row>
     <x:row r="1369" spans="1:5">
@@ -37885,7 +37885,7 @@
         <x:v>4624</x:v>
       </x:c>
       <x:c r="E1369" s="0" t="n">
-        <x:v>1159</x:v>
+        <x:v>1163</x:v>
       </x:c>
     </x:row>
     <x:row r="1370" spans="1:5">
@@ -37902,7 +37902,7 @@
         <x:v>4628</x:v>
       </x:c>
       <x:c r="E1370" s="0" t="n">
-        <x:v>1156</x:v>
+        <x:v>1158</x:v>
       </x:c>
     </x:row>
     <x:row r="1371" spans="1:5">
@@ -37919,7 +37919,7 @@
         <x:v>4628</x:v>
       </x:c>
       <x:c r="E1371" s="0" t="n">
-        <x:v>1161</x:v>
+        <x:v>1164</x:v>
       </x:c>
     </x:row>
     <x:row r="1372" spans="1:5">
@@ -37936,7 +37936,7 @@
         <x:v>428</x:v>
       </x:c>
       <x:c r="E1372" s="0" t="n">
-        <x:v>1158</x:v>
+        <x:v>1160</x:v>
       </x:c>
     </x:row>
     <x:row r="1373" spans="1:5">
@@ -37953,7 +37953,7 @@
         <x:v>428</x:v>
       </x:c>
       <x:c r="E1373" s="0" t="n">
-        <x:v>1160</x:v>
+        <x:v>1165</x:v>
       </x:c>
     </x:row>
     <x:row r="1374" spans="1:5">
@@ -37967,10 +37967,10 @@
         <x:v>4635</x:v>
       </x:c>
       <x:c r="D1374" s="0" t="s">
-        <x:v>4635</x:v>
+        <x:v>3887</x:v>
       </x:c>
       <x:c r="E1374" s="0" t="n">
-        <x:v>1165</x:v>
+        <x:v>1167</x:v>
       </x:c>
     </x:row>
     <x:row r="1375" spans="1:5">
@@ -37984,10 +37984,10 @@
         <x:v>4635</x:v>
       </x:c>
       <x:c r="D1375" s="0" t="s">
-        <x:v>4635</x:v>
+        <x:v>3887</x:v>
       </x:c>
       <x:c r="E1375" s="0" t="n">
-        <x:v>1170</x:v>
+        <x:v>1176</x:v>
       </x:c>
     </x:row>
     <x:row r="1376" spans="1:5">
@@ -38001,15 +38001,15 @@
         <x:v>4639</x:v>
       </x:c>
       <x:c r="D1376" s="0" t="s">
-        <x:v>4639</x:v>
+        <x:v>4640</x:v>
       </x:c>
       <x:c r="E1376" s="0" t="n">
-        <x:v>1166</x:v>
+        <x:v>1168</x:v>
       </x:c>
     </x:row>
     <x:row r="1377" spans="1:5">
       <x:c r="A1377" s="0" t="s">
-        <x:v>4640</x:v>
+        <x:v>4641</x:v>
       </x:c>
       <x:c r="B1377" s="0" t="s">
         <x:v>4638</x:v>
@@ -38018,214 +38018,214 @@
         <x:v>4639</x:v>
       </x:c>
       <x:c r="D1377" s="0" t="s">
-        <x:v>4639</x:v>
+        <x:v>4640</x:v>
       </x:c>
       <x:c r="E1377" s="0" t="n">
-        <x:v>1169</x:v>
+        <x:v>1177</x:v>
       </x:c>
     </x:row>
     <x:row r="1378" spans="1:5">
       <x:c r="A1378" s="0" t="s">
-        <x:v>4641</x:v>
+        <x:v>4642</x:v>
       </x:c>
       <x:c r="B1378" s="0" t="s">
-        <x:v>4642</x:v>
+        <x:v>4643</x:v>
       </x:c>
       <x:c r="C1378" s="0" t="s">
-        <x:v>2891</x:v>
+        <x:v>4644</x:v>
       </x:c>
       <x:c r="D1378" s="0" t="s">
-        <x:v>2892</x:v>
+        <x:v>4644</x:v>
       </x:c>
       <x:c r="E1378" s="0" t="n">
-        <x:v>1167</x:v>
+        <x:v>1169</x:v>
       </x:c>
     </x:row>
     <x:row r="1379" spans="1:5">
       <x:c r="A1379" s="0" t="s">
+        <x:v>4645</x:v>
+      </x:c>
+      <x:c r="B1379" s="0" t="s">
         <x:v>4643</x:v>
       </x:c>
-      <x:c r="B1379" s="0" t="s">
-        <x:v>4642</x:v>
-      </x:c>
       <x:c r="C1379" s="0" t="s">
-        <x:v>2891</x:v>
+        <x:v>4644</x:v>
       </x:c>
       <x:c r="D1379" s="0" t="s">
-        <x:v>2892</x:v>
+        <x:v>4644</x:v>
       </x:c>
       <x:c r="E1379" s="0" t="n">
-        <x:v>1168</x:v>
+        <x:v>1178</x:v>
       </x:c>
     </x:row>
     <x:row r="1380" spans="1:5">
       <x:c r="A1380" s="0" t="s">
-        <x:v>4644</x:v>
+        <x:v>4646</x:v>
       </x:c>
       <x:c r="B1380" s="0" t="s">
-        <x:v>4642</x:v>
+        <x:v>4647</x:v>
       </x:c>
       <x:c r="C1380" s="0" t="s">
-        <x:v>2891</x:v>
+        <x:v>4648</x:v>
       </x:c>
       <x:c r="D1380" s="0" t="s">
-        <x:v>2892</x:v>
+        <x:v>4649</x:v>
       </x:c>
       <x:c r="E1380" s="0" t="n">
-        <x:v>1298</x:v>
+        <x:v>1170</x:v>
       </x:c>
     </x:row>
     <x:row r="1381" spans="1:5">
       <x:c r="A1381" s="0" t="s">
-        <x:v>4645</x:v>
+        <x:v>4650</x:v>
       </x:c>
       <x:c r="B1381" s="0" t="s">
-        <x:v>4646</x:v>
+        <x:v>4647</x:v>
       </x:c>
       <x:c r="C1381" s="0" t="s">
-        <x:v>4647</x:v>
+        <x:v>4648</x:v>
       </x:c>
       <x:c r="D1381" s="0" t="s">
-        <x:v>3871</x:v>
+        <x:v>4649</x:v>
       </x:c>
       <x:c r="E1381" s="0" t="n">
-        <x:v>1173</x:v>
+        <x:v>1179</x:v>
       </x:c>
     </x:row>
     <x:row r="1382" spans="1:5">
       <x:c r="A1382" s="0" t="s">
-        <x:v>4648</x:v>
+        <x:v>4651</x:v>
       </x:c>
       <x:c r="B1382" s="0" t="s">
-        <x:v>4646</x:v>
+        <x:v>4652</x:v>
       </x:c>
       <x:c r="C1382" s="0" t="s">
-        <x:v>4647</x:v>
+        <x:v>4653</x:v>
       </x:c>
       <x:c r="D1382" s="0" t="s">
-        <x:v>3871</x:v>
+        <x:v>4654</x:v>
       </x:c>
       <x:c r="E1382" s="0" t="n">
-        <x:v>1181</x:v>
+        <x:v>1171</x:v>
       </x:c>
     </x:row>
     <x:row r="1383" spans="1:5">
       <x:c r="A1383" s="0" t="s">
-        <x:v>4649</x:v>
+        <x:v>4655</x:v>
       </x:c>
       <x:c r="B1383" s="0" t="s">
-        <x:v>4650</x:v>
+        <x:v>4652</x:v>
       </x:c>
       <x:c r="C1383" s="0" t="s">
-        <x:v>4651</x:v>
+        <x:v>4653</x:v>
       </x:c>
       <x:c r="D1383" s="0" t="s">
-        <x:v>4652</x:v>
+        <x:v>4654</x:v>
       </x:c>
       <x:c r="E1383" s="0" t="n">
-        <x:v>1174</x:v>
+        <x:v>1180</x:v>
       </x:c>
     </x:row>
     <x:row r="1384" spans="1:5">
       <x:c r="A1384" s="0" t="s">
-        <x:v>4653</x:v>
+        <x:v>4656</x:v>
       </x:c>
       <x:c r="B1384" s="0" t="s">
-        <x:v>4650</x:v>
+        <x:v>4657</x:v>
       </x:c>
       <x:c r="C1384" s="0" t="s">
-        <x:v>4651</x:v>
+        <x:v>4658</x:v>
       </x:c>
       <x:c r="D1384" s="0" t="s">
-        <x:v>4652</x:v>
+        <x:v>4659</x:v>
       </x:c>
       <x:c r="E1384" s="0" t="n">
-        <x:v>1183</x:v>
+        <x:v>1172</x:v>
       </x:c>
     </x:row>
     <x:row r="1385" spans="1:5">
       <x:c r="A1385" s="0" t="s">
-        <x:v>4654</x:v>
+        <x:v>4660</x:v>
       </x:c>
       <x:c r="B1385" s="0" t="s">
-        <x:v>4655</x:v>
+        <x:v>4657</x:v>
       </x:c>
       <x:c r="C1385" s="0" t="s">
-        <x:v>4656</x:v>
+        <x:v>4658</x:v>
       </x:c>
       <x:c r="D1385" s="0" t="s">
-        <x:v>4656</x:v>
+        <x:v>4659</x:v>
       </x:c>
       <x:c r="E1385" s="0" t="n">
-        <x:v>1175</x:v>
+        <x:v>1181</x:v>
       </x:c>
     </x:row>
     <x:row r="1386" spans="1:5">
       <x:c r="A1386" s="0" t="s">
-        <x:v>4657</x:v>
+        <x:v>4661</x:v>
       </x:c>
       <x:c r="B1386" s="0" t="s">
-        <x:v>4655</x:v>
+        <x:v>4662</x:v>
       </x:c>
       <x:c r="C1386" s="0" t="s">
-        <x:v>4656</x:v>
+        <x:v>3734</x:v>
       </x:c>
       <x:c r="D1386" s="0" t="s">
-        <x:v>4656</x:v>
+        <x:v>4663</x:v>
       </x:c>
       <x:c r="E1386" s="0" t="n">
-        <x:v>1187</x:v>
+        <x:v>1173</x:v>
       </x:c>
     </x:row>
     <x:row r="1387" spans="1:5">
       <x:c r="A1387" s="0" t="s">
-        <x:v>4658</x:v>
+        <x:v>4664</x:v>
       </x:c>
       <x:c r="B1387" s="0" t="s">
-        <x:v>4659</x:v>
+        <x:v>4662</x:v>
       </x:c>
       <x:c r="C1387" s="0" t="s">
-        <x:v>4660</x:v>
+        <x:v>3734</x:v>
       </x:c>
       <x:c r="D1387" s="0" t="s">
-        <x:v>4661</x:v>
+        <x:v>4663</x:v>
       </x:c>
       <x:c r="E1387" s="0" t="n">
-        <x:v>1176</x:v>
+        <x:v>1182</x:v>
       </x:c>
     </x:row>
     <x:row r="1388" spans="1:5">
       <x:c r="A1388" s="0" t="s">
-        <x:v>4662</x:v>
+        <x:v>4665</x:v>
       </x:c>
       <x:c r="B1388" s="0" t="s">
-        <x:v>4659</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="C1388" s="0" t="s">
-        <x:v>4660</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="D1388" s="0" t="s">
-        <x:v>4661</x:v>
+        <x:v>2416</x:v>
       </x:c>
       <x:c r="E1388" s="0" t="n">
-        <x:v>1180</x:v>
+        <x:v>1183</x:v>
       </x:c>
     </x:row>
     <x:row r="1389" spans="1:5">
       <x:c r="A1389" s="0" t="s">
-        <x:v>4663</x:v>
+        <x:v>4666</x:v>
       </x:c>
       <x:c r="B1389" s="0" t="s">
-        <x:v>4664</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="C1389" s="0" t="s">
-        <x:v>4665</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="D1389" s="0" t="s">
-        <x:v>4666</x:v>
+        <x:v>2416</x:v>
       </x:c>
       <x:c r="E1389" s="0" t="n">
-        <x:v>1177</x:v>
+        <x:v>1196</x:v>
       </x:c>
     </x:row>
     <x:row r="1390" spans="1:5">
@@ -38233,33 +38233,33 @@
         <x:v>4667</x:v>
       </x:c>
       <x:c r="B1390" s="0" t="s">
-        <x:v>4664</x:v>
+        <x:v>4668</x:v>
       </x:c>
       <x:c r="C1390" s="0" t="s">
-        <x:v>4665</x:v>
+        <x:v>4669</x:v>
       </x:c>
       <x:c r="D1390" s="0" t="s">
-        <x:v>4666</x:v>
+        <x:v>4670</x:v>
       </x:c>
       <x:c r="E1390" s="0" t="n">
-        <x:v>1182</x:v>
+        <x:v>1184</x:v>
       </x:c>
     </x:row>
     <x:row r="1391" spans="1:5">
       <x:c r="A1391" s="0" t="s">
+        <x:v>4671</x:v>
+      </x:c>
+      <x:c r="B1391" s="0" t="s">
         <x:v>4668</x:v>
       </x:c>
-      <x:c r="B1391" s="0" t="s">
+      <x:c r="C1391" s="0" t="s">
         <x:v>4669</x:v>
       </x:c>
-      <x:c r="C1391" s="0" t="s">
+      <x:c r="D1391" s="0" t="s">
         <x:v>4670</x:v>
       </x:c>
-      <x:c r="D1391" s="0" t="s">
-        <x:v>4671</x:v>
-      </x:c>
       <x:c r="E1391" s="0" t="n">
-        <x:v>1178</x:v>
+        <x:v>1191</x:v>
       </x:c>
     </x:row>
     <x:row r="1392" spans="1:5">
@@ -38267,50 +38267,50 @@
         <x:v>4672</x:v>
       </x:c>
       <x:c r="B1392" s="0" t="s">
-        <x:v>4669</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C1392" s="0" t="s">
-        <x:v>4670</x:v>
+        <x:v>4673</x:v>
       </x:c>
       <x:c r="D1392" s="0" t="s">
-        <x:v>4671</x:v>
+        <x:v>4673</x:v>
       </x:c>
       <x:c r="E1392" s="0" t="n">
-        <x:v>1186</x:v>
+        <x:v>1185</x:v>
       </x:c>
     </x:row>
     <x:row r="1393" spans="1:5">
       <x:c r="A1393" s="0" t="s">
+        <x:v>4674</x:v>
+      </x:c>
+      <x:c r="B1393" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="C1393" s="0" t="s">
         <x:v>4673</x:v>
       </x:c>
-      <x:c r="B1393" s="0" t="s">
-        <x:v>4674</x:v>
-      </x:c>
-      <x:c r="C1393" s="0" t="s">
-        <x:v>3731</x:v>
-      </x:c>
       <x:c r="D1393" s="0" t="s">
-        <x:v>4675</x:v>
+        <x:v>4673</x:v>
       </x:c>
       <x:c r="E1393" s="0" t="n">
-        <x:v>1179</x:v>
+        <x:v>1192</x:v>
       </x:c>
     </x:row>
     <x:row r="1394" spans="1:5">
       <x:c r="A1394" s="0" t="s">
+        <x:v>4675</x:v>
+      </x:c>
+      <x:c r="B1394" s="0" t="s">
         <x:v>4676</x:v>
       </x:c>
-      <x:c r="B1394" s="0" t="s">
-        <x:v>4674</x:v>
-      </x:c>
       <x:c r="C1394" s="0" t="s">
-        <x:v>3731</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D1394" s="0" t="s">
-        <x:v>4675</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E1394" s="0" t="n">
-        <x:v>1185</x:v>
+        <x:v>1187</x:v>
       </x:c>
     </x:row>
     <x:row r="1395" spans="1:5">
@@ -38318,33 +38318,33 @@
         <x:v>4677</x:v>
       </x:c>
       <x:c r="B1395" s="0" t="s">
-        <x:v>4678</x:v>
+        <x:v>4676</x:v>
       </x:c>
       <x:c r="C1395" s="0" t="s">
-        <x:v>2865</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D1395" s="0" t="s">
-        <x:v>2865</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E1395" s="0" t="n">
-        <x:v>1190</x:v>
+        <x:v>1193</x:v>
       </x:c>
     </x:row>
     <x:row r="1396" spans="1:5">
       <x:c r="A1396" s="0" t="s">
+        <x:v>4678</x:v>
+      </x:c>
+      <x:c r="B1396" s="0" t="s">
         <x:v>4679</x:v>
       </x:c>
-      <x:c r="B1396" s="0" t="s">
-        <x:v>4678</x:v>
-      </x:c>
       <x:c r="C1396" s="0" t="s">
-        <x:v>2865</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D1396" s="0" t="s">
-        <x:v>2865</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E1396" s="0" t="n">
-        <x:v>1198</x:v>
+        <x:v>1188</x:v>
       </x:c>
     </x:row>
     <x:row r="1397" spans="1:5">
@@ -38352,33 +38352,33 @@
         <x:v>4680</x:v>
       </x:c>
       <x:c r="B1397" s="0" t="s">
-        <x:v>4681</x:v>
+        <x:v>4679</x:v>
       </x:c>
       <x:c r="C1397" s="0" t="s">
-        <x:v>2867</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D1397" s="0" t="s">
-        <x:v>2867</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E1397" s="0" t="n">
-        <x:v>1191</x:v>
+        <x:v>1194</x:v>
       </x:c>
     </x:row>
     <x:row r="1398" spans="1:5">
       <x:c r="A1398" s="0" t="s">
+        <x:v>4681</x:v>
+      </x:c>
+      <x:c r="B1398" s="0" t="s">
         <x:v>4682</x:v>
       </x:c>
-      <x:c r="B1398" s="0" t="s">
-        <x:v>4681</x:v>
-      </x:c>
       <x:c r="C1398" s="0" t="s">
-        <x:v>2867</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D1398" s="0" t="s">
-        <x:v>2867</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E1398" s="0" t="n">
-        <x:v>1196</x:v>
+        <x:v>1189</x:v>
       </x:c>
     </x:row>
     <x:row r="1399" spans="1:5">
@@ -38386,33 +38386,33 @@
         <x:v>4683</x:v>
       </x:c>
       <x:c r="B1399" s="0" t="s">
-        <x:v>4684</x:v>
+        <x:v>4682</x:v>
       </x:c>
       <x:c r="C1399" s="0" t="s">
-        <x:v>2869</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D1399" s="0" t="s">
-        <x:v>2870</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E1399" s="0" t="n">
-        <x:v>1192</x:v>
+        <x:v>1195</x:v>
       </x:c>
     </x:row>
     <x:row r="1400" spans="1:5">
       <x:c r="A1400" s="0" t="s">
+        <x:v>4684</x:v>
+      </x:c>
+      <x:c r="B1400" s="0" t="s">
         <x:v>4685</x:v>
       </x:c>
-      <x:c r="B1400" s="0" t="s">
-        <x:v>4684</x:v>
-      </x:c>
       <x:c r="C1400" s="0" t="s">
-        <x:v>2869</x:v>
+        <x:v>2765</x:v>
       </x:c>
       <x:c r="D1400" s="0" t="s">
-        <x:v>2870</x:v>
+        <x:v>2765</x:v>
       </x:c>
       <x:c r="E1400" s="0" t="n">
-        <x:v>1199</x:v>
+        <x:v>1198</x:v>
       </x:c>
     </x:row>
     <x:row r="1401" spans="1:5">
@@ -38420,33 +38420,33 @@
         <x:v>4686</x:v>
       </x:c>
       <x:c r="B1401" s="0" t="s">
-        <x:v>4687</x:v>
+        <x:v>4685</x:v>
       </x:c>
       <x:c r="C1401" s="0" t="s">
-        <x:v>2872</x:v>
+        <x:v>2765</x:v>
       </x:c>
       <x:c r="D1401" s="0" t="s">
-        <x:v>2872</x:v>
+        <x:v>2765</x:v>
       </x:c>
       <x:c r="E1401" s="0" t="n">
-        <x:v>1193</x:v>
+        <x:v>1204</x:v>
       </x:c>
     </x:row>
     <x:row r="1402" spans="1:5">
       <x:c r="A1402" s="0" t="s">
+        <x:v>4687</x:v>
+      </x:c>
+      <x:c r="B1402" s="0" t="s">
         <x:v>4688</x:v>
       </x:c>
-      <x:c r="B1402" s="0" t="s">
-        <x:v>4687</x:v>
-      </x:c>
       <x:c r="C1402" s="0" t="s">
-        <x:v>2872</x:v>
+        <x:v>2767</x:v>
       </x:c>
       <x:c r="D1402" s="0" t="s">
-        <x:v>2872</x:v>
+        <x:v>2768</x:v>
       </x:c>
       <x:c r="E1402" s="0" t="n">
-        <x:v>1197</x:v>
+        <x:v>1199</x:v>
       </x:c>
     </x:row>
     <x:row r="1403" spans="1:5">
@@ -38454,33 +38454,33 @@
         <x:v>4689</x:v>
       </x:c>
       <x:c r="B1403" s="0" t="s">
-        <x:v>4690</x:v>
+        <x:v>4688</x:v>
       </x:c>
       <x:c r="C1403" s="0" t="s">
-        <x:v>2874</x:v>
+        <x:v>2767</x:v>
       </x:c>
       <x:c r="D1403" s="0" t="s">
-        <x:v>2874</x:v>
+        <x:v>2768</x:v>
       </x:c>
       <x:c r="E1403" s="0" t="n">
-        <x:v>1194</x:v>
+        <x:v>1205</x:v>
       </x:c>
     </x:row>
     <x:row r="1404" spans="1:5">
       <x:c r="A1404" s="0" t="s">
+        <x:v>4690</x:v>
+      </x:c>
+      <x:c r="B1404" s="0" t="s">
         <x:v>4691</x:v>
       </x:c>
-      <x:c r="B1404" s="0" t="s">
-        <x:v>4690</x:v>
-      </x:c>
       <x:c r="C1404" s="0" t="s">
-        <x:v>2874</x:v>
+        <x:v>2770</x:v>
       </x:c>
       <x:c r="D1404" s="0" t="s">
-        <x:v>2874</x:v>
+        <x:v>2771</x:v>
       </x:c>
       <x:c r="E1404" s="0" t="n">
-        <x:v>1195</x:v>
+        <x:v>1200</x:v>
       </x:c>
     </x:row>
     <x:row r="1405" spans="1:5">
@@ -38488,33 +38488,33 @@
         <x:v>4692</x:v>
       </x:c>
       <x:c r="B1405" s="0" t="s">
-        <x:v>4693</x:v>
+        <x:v>4691</x:v>
       </x:c>
       <x:c r="C1405" s="0" t="s">
-        <x:v>2765</x:v>
+        <x:v>2770</x:v>
       </x:c>
       <x:c r="D1405" s="0" t="s">
-        <x:v>2765</x:v>
+        <x:v>2771</x:v>
       </x:c>
       <x:c r="E1405" s="0" t="n">
-        <x:v>1202</x:v>
+        <x:v>1206</x:v>
       </x:c>
     </x:row>
     <x:row r="1406" spans="1:5">
       <x:c r="A1406" s="0" t="s">
+        <x:v>4693</x:v>
+      </x:c>
+      <x:c r="B1406" s="0" t="s">
         <x:v>4694</x:v>
       </x:c>
-      <x:c r="B1406" s="0" t="s">
-        <x:v>4693</x:v>
-      </x:c>
       <x:c r="C1406" s="0" t="s">
-        <x:v>2765</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="D1406" s="0" t="s">
-        <x:v>2765</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="E1406" s="0" t="n">
-        <x:v>1207</x:v>
+        <x:v>1211</x:v>
       </x:c>
     </x:row>
     <x:row r="1407" spans="1:5">
@@ -38522,50 +38522,50 @@
         <x:v>4695</x:v>
       </x:c>
       <x:c r="B1407" s="0" t="s">
-        <x:v>4696</x:v>
+        <x:v>4694</x:v>
       </x:c>
       <x:c r="C1407" s="0" t="s">
-        <x:v>2767</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="D1407" s="0" t="s">
-        <x:v>2768</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="E1407" s="0" t="n">
-        <x:v>1203</x:v>
+        <x:v>1222</x:v>
       </x:c>
     </x:row>
     <x:row r="1408" spans="1:5">
       <x:c r="A1408" s="0" t="s">
+        <x:v>4696</x:v>
+      </x:c>
+      <x:c r="B1408" s="0" t="s">
         <x:v>4697</x:v>
       </x:c>
-      <x:c r="B1408" s="0" t="s">
-        <x:v>4696</x:v>
-      </x:c>
       <x:c r="C1408" s="0" t="s">
-        <x:v>2767</x:v>
+        <x:v>4698</x:v>
       </x:c>
       <x:c r="D1408" s="0" t="s">
-        <x:v>2768</x:v>
+        <x:v>4698</x:v>
       </x:c>
       <x:c r="E1408" s="0" t="n">
-        <x:v>1206</x:v>
+        <x:v>1224</x:v>
       </x:c>
     </x:row>
     <x:row r="1409" spans="1:5">
       <x:c r="A1409" s="0" t="s">
+        <x:v>4699</x:v>
+      </x:c>
+      <x:c r="B1409" s="0" t="s">
+        <x:v>4697</x:v>
+      </x:c>
+      <x:c r="C1409" s="0" t="s">
         <x:v>4698</x:v>
       </x:c>
-      <x:c r="B1409" s="0" t="s">
-        <x:v>4699</x:v>
-      </x:c>
-      <x:c r="C1409" s="0" t="s">
-        <x:v>2770</x:v>
-      </x:c>
       <x:c r="D1409" s="0" t="s">
-        <x:v>2771</x:v>
+        <x:v>4698</x:v>
       </x:c>
       <x:c r="E1409" s="0" t="n">
-        <x:v>1204</x:v>
+        <x:v>1228</x:v>
       </x:c>
     </x:row>
     <x:row r="1410" spans="1:5">
@@ -38573,50 +38573,50 @@
         <x:v>4700</x:v>
       </x:c>
       <x:c r="B1410" s="0" t="s">
-        <x:v>4699</x:v>
+        <x:v>4701</x:v>
       </x:c>
       <x:c r="C1410" s="0" t="s">
-        <x:v>2770</x:v>
+        <x:v>4702</x:v>
       </x:c>
       <x:c r="D1410" s="0" t="s">
-        <x:v>2771</x:v>
+        <x:v>4702</x:v>
       </x:c>
       <x:c r="E1410" s="0" t="n">
-        <x:v>1209</x:v>
+        <x:v>1225</x:v>
       </x:c>
     </x:row>
     <x:row r="1411" spans="1:5">
       <x:c r="A1411" s="0" t="s">
+        <x:v>4703</x:v>
+      </x:c>
+      <x:c r="B1411" s="0" t="s">
         <x:v>4701</x:v>
       </x:c>
-      <x:c r="B1411" s="0" t="s">
+      <x:c r="C1411" s="0" t="s">
         <x:v>4702</x:v>
       </x:c>
-      <x:c r="C1411" s="0" t="s">
-        <x:v>4703</x:v>
-      </x:c>
       <x:c r="D1411" s="0" t="s">
-        <x:v>4704</x:v>
+        <x:v>4702</x:v>
       </x:c>
       <x:c r="E1411" s="0" t="n">
-        <x:v>1211</x:v>
+        <x:v>1229</x:v>
       </x:c>
     </x:row>
     <x:row r="1412" spans="1:5">
       <x:c r="A1412" s="0" t="s">
+        <x:v>4704</x:v>
+      </x:c>
+      <x:c r="B1412" s="0" t="s">
         <x:v>4705</x:v>
       </x:c>
-      <x:c r="B1412" s="0" t="s">
-        <x:v>4702</x:v>
-      </x:c>
       <x:c r="C1412" s="0" t="s">
-        <x:v>4703</x:v>
+        <x:v>2891</x:v>
       </x:c>
       <x:c r="D1412" s="0" t="s">
-        <x:v>4704</x:v>
+        <x:v>2892</x:v>
       </x:c>
       <x:c r="E1412" s="0" t="n">
-        <x:v>1219</x:v>
+        <x:v>1226</x:v>
       </x:c>
     </x:row>
     <x:row r="1413" spans="1:5">
@@ -38624,288 +38624,288 @@
         <x:v>4706</x:v>
       </x:c>
       <x:c r="B1413" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>4705</x:v>
       </x:c>
       <x:c r="C1413" s="0" t="s">
-        <x:v>4707</x:v>
+        <x:v>2891</x:v>
       </x:c>
       <x:c r="D1413" s="0" t="s">
-        <x:v>4707</x:v>
+        <x:v>2892</x:v>
       </x:c>
       <x:c r="E1413" s="0" t="n">
-        <x:v>1212</x:v>
+        <x:v>1230</x:v>
       </x:c>
     </x:row>
     <x:row r="1414" spans="1:5">
       <x:c r="A1414" s="0" t="s">
-        <x:v>4708</x:v>
+        <x:v>4707</x:v>
       </x:c>
       <x:c r="B1414" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>4705</x:v>
       </x:c>
       <x:c r="C1414" s="0" t="s">
-        <x:v>4707</x:v>
+        <x:v>2891</x:v>
       </x:c>
       <x:c r="D1414" s="0" t="s">
-        <x:v>4707</x:v>
+        <x:v>2892</x:v>
       </x:c>
       <x:c r="E1414" s="0" t="n">
-        <x:v>1220</x:v>
+        <x:v>1308</x:v>
       </x:c>
     </x:row>
     <x:row r="1415" spans="1:5">
       <x:c r="A1415" s="0" t="s">
+        <x:v>4708</x:v>
+      </x:c>
+      <x:c r="B1415" s="0" t="s">
         <x:v>4709</x:v>
       </x:c>
-      <x:c r="B1415" s="0" t="s">
-        <x:v>4710</x:v>
-      </x:c>
       <x:c r="C1415" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>2865</x:v>
       </x:c>
       <x:c r="D1415" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>2865</x:v>
       </x:c>
       <x:c r="E1415" s="0" t="n">
-        <x:v>1214</x:v>
+        <x:v>1232</x:v>
       </x:c>
     </x:row>
     <x:row r="1416" spans="1:5">
       <x:c r="A1416" s="0" t="s">
-        <x:v>4711</x:v>
+        <x:v>4710</x:v>
       </x:c>
       <x:c r="B1416" s="0" t="s">
-        <x:v>4710</x:v>
+        <x:v>4709</x:v>
       </x:c>
       <x:c r="C1416" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>2865</x:v>
       </x:c>
       <x:c r="D1416" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>2865</x:v>
       </x:c>
       <x:c r="E1416" s="0" t="n">
-        <x:v>1221</x:v>
+        <x:v>1238</x:v>
       </x:c>
     </x:row>
     <x:row r="1417" spans="1:5">
       <x:c r="A1417" s="0" t="s">
+        <x:v>4711</x:v>
+      </x:c>
+      <x:c r="B1417" s="0" t="s">
         <x:v>4712</x:v>
       </x:c>
-      <x:c r="B1417" s="0" t="s">
-        <x:v>4713</x:v>
-      </x:c>
       <x:c r="C1417" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>2867</x:v>
       </x:c>
       <x:c r="D1417" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>2867</x:v>
       </x:c>
       <x:c r="E1417" s="0" t="n">
-        <x:v>1215</x:v>
+        <x:v>1233</x:v>
       </x:c>
     </x:row>
     <x:row r="1418" spans="1:5">
       <x:c r="A1418" s="0" t="s">
-        <x:v>4714</x:v>
+        <x:v>4713</x:v>
       </x:c>
       <x:c r="B1418" s="0" t="s">
-        <x:v>4713</x:v>
+        <x:v>4712</x:v>
       </x:c>
       <x:c r="C1418" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>2867</x:v>
       </x:c>
       <x:c r="D1418" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>2867</x:v>
       </x:c>
       <x:c r="E1418" s="0" t="n">
-        <x:v>1218</x:v>
+        <x:v>1239</x:v>
       </x:c>
     </x:row>
     <x:row r="1419" spans="1:5">
       <x:c r="A1419" s="0" t="s">
+        <x:v>4714</x:v>
+      </x:c>
+      <x:c r="B1419" s="0" t="s">
         <x:v>4715</x:v>
       </x:c>
-      <x:c r="B1419" s="0" t="s">
-        <x:v>4716</x:v>
-      </x:c>
       <x:c r="C1419" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>2869</x:v>
       </x:c>
       <x:c r="D1419" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>2870</x:v>
       </x:c>
       <x:c r="E1419" s="0" t="n">
-        <x:v>1216</x:v>
+        <x:v>1234</x:v>
       </x:c>
     </x:row>
     <x:row r="1420" spans="1:5">
       <x:c r="A1420" s="0" t="s">
-        <x:v>4717</x:v>
+        <x:v>4716</x:v>
       </x:c>
       <x:c r="B1420" s="0" t="s">
-        <x:v>4716</x:v>
+        <x:v>4715</x:v>
       </x:c>
       <x:c r="C1420" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>2869</x:v>
       </x:c>
       <x:c r="D1420" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>2870</x:v>
       </x:c>
       <x:c r="E1420" s="0" t="n">
-        <x:v>1217</x:v>
+        <x:v>1240</x:v>
       </x:c>
     </x:row>
     <x:row r="1421" spans="1:5">
       <x:c r="A1421" s="0" t="s">
+        <x:v>4717</x:v>
+      </x:c>
+      <x:c r="B1421" s="0" t="s">
         <x:v>4718</x:v>
       </x:c>
-      <x:c r="B1421" s="0" t="s">
-        <x:v>4719</x:v>
-      </x:c>
       <x:c r="C1421" s="0" t="s">
-        <x:v>606</x:v>
+        <x:v>2872</x:v>
       </x:c>
       <x:c r="D1421" s="0" t="s">
-        <x:v>607</x:v>
+        <x:v>2872</x:v>
       </x:c>
       <x:c r="E1421" s="0" t="n">
-        <x:v>1226</x:v>
+        <x:v>1235</x:v>
       </x:c>
     </x:row>
     <x:row r="1422" spans="1:5">
       <x:c r="A1422" s="0" t="s">
-        <x:v>4720</x:v>
+        <x:v>4719</x:v>
       </x:c>
       <x:c r="B1422" s="0" t="s">
-        <x:v>4719</x:v>
+        <x:v>4718</x:v>
       </x:c>
       <x:c r="C1422" s="0" t="s">
-        <x:v>606</x:v>
+        <x:v>2872</x:v>
       </x:c>
       <x:c r="D1422" s="0" t="s">
-        <x:v>607</x:v>
+        <x:v>2872</x:v>
       </x:c>
       <x:c r="E1422" s="0" t="n">
-        <x:v>1231</x:v>
+        <x:v>1241</x:v>
       </x:c>
     </x:row>
     <x:row r="1423" spans="1:5">
       <x:c r="A1423" s="0" t="s">
+        <x:v>4720</x:v>
+      </x:c>
+      <x:c r="B1423" s="0" t="s">
         <x:v>4721</x:v>
       </x:c>
-      <x:c r="B1423" s="0" t="s">
-        <x:v>4722</x:v>
-      </x:c>
       <x:c r="C1423" s="0" t="s">
-        <x:v>4723</x:v>
+        <x:v>2874</x:v>
       </x:c>
       <x:c r="D1423" s="0" t="s">
-        <x:v>4724</x:v>
+        <x:v>2874</x:v>
       </x:c>
       <x:c r="E1423" s="0" t="n">
-        <x:v>1245</x:v>
+        <x:v>1236</x:v>
       </x:c>
     </x:row>
     <x:row r="1424" spans="1:5">
       <x:c r="A1424" s="0" t="s">
-        <x:v>4725</x:v>
+        <x:v>4722</x:v>
       </x:c>
       <x:c r="B1424" s="0" t="s">
-        <x:v>4722</x:v>
+        <x:v>4721</x:v>
       </x:c>
       <x:c r="C1424" s="0" t="s">
-        <x:v>4723</x:v>
+        <x:v>2874</x:v>
       </x:c>
       <x:c r="D1424" s="0" t="s">
-        <x:v>4724</x:v>
+        <x:v>2874</x:v>
       </x:c>
       <x:c r="E1424" s="0" t="n">
-        <x:v>1295</x:v>
+        <x:v>1242</x:v>
       </x:c>
     </x:row>
     <x:row r="1425" spans="1:5">
       <x:c r="A1425" s="0" t="s">
+        <x:v>4723</x:v>
+      </x:c>
+      <x:c r="B1425" s="0" t="s">
+        <x:v>4724</x:v>
+      </x:c>
+      <x:c r="C1425" s="0" t="s">
+        <x:v>4725</x:v>
+      </x:c>
+      <x:c r="D1425" s="0" t="s">
         <x:v>4726</x:v>
       </x:c>
-      <x:c r="B1425" s="0" t="s">
-        <x:v>4727</x:v>
-      </x:c>
-      <x:c r="C1425" s="0" t="s">
-        <x:v>4728</x:v>
-      </x:c>
-      <x:c r="D1425" s="0" t="s">
-        <x:v>4729</x:v>
-      </x:c>
       <x:c r="E1425" s="0" t="n">
-        <x:v>1246</x:v>
+        <x:v>1251</x:v>
       </x:c>
     </x:row>
     <x:row r="1426" spans="1:5">
       <x:c r="A1426" s="0" t="s">
-        <x:v>4730</x:v>
+        <x:v>4727</x:v>
       </x:c>
       <x:c r="B1426" s="0" t="s">
-        <x:v>4727</x:v>
+        <x:v>4724</x:v>
       </x:c>
       <x:c r="C1426" s="0" t="s">
-        <x:v>4728</x:v>
+        <x:v>4725</x:v>
       </x:c>
       <x:c r="D1426" s="0" t="s">
-        <x:v>4729</x:v>
+        <x:v>4726</x:v>
       </x:c>
       <x:c r="E1426" s="0" t="n">
-        <x:v>1296</x:v>
+        <x:v>1311</x:v>
       </x:c>
     </x:row>
     <x:row r="1427" spans="1:5">
       <x:c r="A1427" s="0" t="s">
+        <x:v>4728</x:v>
+      </x:c>
+      <x:c r="B1427" s="0" t="s">
+        <x:v>4729</x:v>
+      </x:c>
+      <x:c r="C1427" s="0" t="s">
+        <x:v>4730</x:v>
+      </x:c>
+      <x:c r="D1427" s="0" t="s">
         <x:v>4731</x:v>
       </x:c>
-      <x:c r="B1427" s="0" t="s">
-        <x:v>4732</x:v>
-      </x:c>
-      <x:c r="C1427" s="0" t="s">
-        <x:v>4733</x:v>
-      </x:c>
-      <x:c r="D1427" s="0" t="s">
-        <x:v>4272</x:v>
-      </x:c>
       <x:c r="E1427" s="0" t="n">
-        <x:v>1275</x:v>
+        <x:v>1252</x:v>
       </x:c>
     </x:row>
     <x:row r="1428" spans="1:5">
       <x:c r="A1428" s="0" t="s">
-        <x:v>4734</x:v>
+        <x:v>4732</x:v>
       </x:c>
       <x:c r="B1428" s="0" t="s">
-        <x:v>4732</x:v>
+        <x:v>4729</x:v>
       </x:c>
       <x:c r="C1428" s="0" t="s">
-        <x:v>4733</x:v>
+        <x:v>4730</x:v>
       </x:c>
       <x:c r="D1428" s="0" t="s">
-        <x:v>4272</x:v>
+        <x:v>4731</x:v>
       </x:c>
       <x:c r="E1428" s="0" t="n">
-        <x:v>1311</x:v>
+        <x:v>1312</x:v>
       </x:c>
     </x:row>
     <x:row r="1429" spans="1:5">
       <x:c r="A1429" s="0" t="s">
+        <x:v>4733</x:v>
+      </x:c>
+      <x:c r="B1429" s="0" t="s">
+        <x:v>4734</x:v>
+      </x:c>
+      <x:c r="C1429" s="0" t="s">
         <x:v>4735</x:v>
       </x:c>
-      <x:c r="B1429" s="0" t="s">
-        <x:v>1823</x:v>
-      </x:c>
-      <x:c r="C1429" s="0" t="s">
-        <x:v>1823</x:v>
-      </x:c>
       <x:c r="D1429" s="0" t="s">
-        <x:v>2416</x:v>
+        <x:v>3396</x:v>
       </x:c>
       <x:c r="E1429" s="0" t="n">
-        <x:v>1416</x:v>
+        <x:v>1288</x:v>
       </x:c>
     </x:row>
     <x:row r="1430" spans="1:5">
@@ -38913,16 +38913,16 @@
         <x:v>4736</x:v>
       </x:c>
       <x:c r="B1430" s="0" t="s">
-        <x:v>1823</x:v>
+        <x:v>4734</x:v>
       </x:c>
       <x:c r="C1430" s="0" t="s">
-        <x:v>1823</x:v>
+        <x:v>4735</x:v>
       </x:c>
       <x:c r="D1430" s="0" t="s">
-        <x:v>2416</x:v>
+        <x:v>3396</x:v>
       </x:c>
       <x:c r="E1430" s="0" t="n">
-        <x:v>1417</x:v>
+        <x:v>1428</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/src/langXls.xlsx
+++ b/src/langXls.xlsx
@@ -38225,7 +38225,7 @@
         <x:v>2416</x:v>
       </x:c>
       <x:c r="E1389" s="0" t="n">
-        <x:v>1196</x:v>
+        <x:v>1191</x:v>
       </x:c>
     </x:row>
     <x:row r="1390" spans="1:5">
@@ -38259,7 +38259,7 @@
         <x:v>4670</x:v>
       </x:c>
       <x:c r="E1391" s="0" t="n">
-        <x:v>1191</x:v>
+        <x:v>1192</x:v>
       </x:c>
     </x:row>
     <x:row r="1392" spans="1:5">
@@ -38293,7 +38293,7 @@
         <x:v>4673</x:v>
       </x:c>
       <x:c r="E1393" s="0" t="n">
-        <x:v>1192</x:v>
+        <x:v>1193</x:v>
       </x:c>
     </x:row>
     <x:row r="1394" spans="1:5">
@@ -38327,7 +38327,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E1395" s="0" t="n">
-        <x:v>1193</x:v>
+        <x:v>1194</x:v>
       </x:c>
     </x:row>
     <x:row r="1396" spans="1:5">
@@ -38361,7 +38361,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E1397" s="0" t="n">
-        <x:v>1194</x:v>
+        <x:v>1195</x:v>
       </x:c>
     </x:row>
     <x:row r="1398" spans="1:5">
@@ -38395,7 +38395,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E1399" s="0" t="n">
-        <x:v>1195</x:v>
+        <x:v>1196</x:v>
       </x:c>
     </x:row>
     <x:row r="1400" spans="1:5">

--- a/src/langXls.xlsx
+++ b/src/langXls.xlsx
@@ -31,7 +31,7 @@
     <x:t>zh-tw</x:t>
   </x:si>
   <x:si>
-    <x:t>id</x:t>
+    <x:t>rowid</x:t>
   </x:si>
   <x:si>
     <x:t>backstage.agent.startegyName</x:t>

--- a/src/langXls.xlsx
+++ b/src/langXls.xlsx
@@ -10085,7 +10085,7 @@
     <x:t>新资金密码</x:t>
   </x:si>
   <x:si>
-    <x:t>新資金密碼</x:t>
+    <x:t>\b新資金密碼</x:t>
   </x:si>
   <x:si>
     <x:t>frontstage.form.label.BranchBankName</x:t>

--- a/src/langXls.xlsx
+++ b/src/langXls.xlsx
@@ -2770,7 +2770,7 @@
     <x:t>AVIA to Center</x:t>
   </x:si>
   <x:si>
-    <x:t>[泛亚电竞]转[中心钱包]	</x:t>
+    <x:t>[泛亚电竞]转[中心钱包]\t</x:t>
   </x:si>
   <x:si>
     <x:t>[泛亞電競]轉[中心錢包]</x:t>
@@ -2782,7 +2782,7 @@
     <x:t>Center to EG</x:t>
   </x:si>
   <x:si>
-    <x:t>[中心钱包]转[EG]	</x:t>
+    <x:t>[中心钱包]转[EG]\t</x:t>
   </x:si>
   <x:si>
     <x:t>[中心錢包]轉[EG]</x:t>
@@ -2962,7 +2962,7 @@
     <x:t>NWG to Center</x:t>
   </x:si>
   <x:si>
-    <x:t>[新世界棋牌]转[中心钱包]	</x:t>
+    <x:t>[新世界棋牌]转[中心钱包]\t</x:t>
   </x:si>
   <x:si>
     <x:t>[新世界棋牌]轉[中心錢包]</x:t>
@@ -2986,7 +2986,7 @@
     <x:t>RMG to Center</x:t>
   </x:si>
   <x:si>
-    <x:t>[大富翁棋牌]转[中心钱包]	</x:t>
+    <x:t>[大富翁棋牌]转[中心钱包]\t</x:t>
   </x:si>
   <x:si>
     <x:t>[大富翁棋牌]轉[中心錢包]</x:t>
@@ -2998,7 +2998,7 @@
     <x:t>Center to SA</x:t>
   </x:si>
   <x:si>
-    <x:t>[中心钱包]转[沙龙]	</x:t>
+    <x:t>[中心钱包]转[沙龙]\t</x:t>
   </x:si>
   <x:si>
     <x:t>[中心錢包]轉[沙龍]</x:t>

--- a/src/langXls.xlsx
+++ b/src/langXls.xlsx
@@ -12080,22 +12080,22 @@
     <x:t>This bank card is only applicable to this credit adding order, and next time you add credit, you need to re-submit the information for credit adding.</x:t>
   </x:si>
   <x:si>
+    <x:t>该收款银行卡仅适用此次充值订单，下次充值需重新提交充值信息！</x:t>
+  </x:si>
+  <x:si>
     <x:t>該收款銀行卡僅適用此次充值訂單，下次充值需重新提交充值信息！</x:t>
   </x:si>
   <x:si>
-    <x:t>该收款银行卡仅适用此次充值订单，下次充值需重新提交充值信息！</x:t>
-  </x:si>
-  <x:si>
     <x:t>frontstage.user.deposit.bankcardOrderRemind.1</x:t>
   </x:si>
   <x:si>
     <x:t>Please log in online banking or mobile banking to complete the transfer.</x:t>
   </x:si>
   <x:si>
+    <x:t>请登录网上银行或手机银行完成转账</x:t>
+  </x:si>
+  <x:si>
     <x:t>請登錄網上銀行或手機銀行完成轉帳</x:t>
-  </x:si>
-  <x:si>
-    <x:t>请登录网上银行或手机银行完成转账</x:t>
   </x:si>
   <x:si>
     <x:t>frontstage.user.deposit.goCheckDepositRecord</x:t>
@@ -40249,16 +40249,16 @@
         <x:v>4011</x:v>
       </x:c>
       <x:c r="C1096" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D1096" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E1096" s="0" t="s">
         <x:v>4012</x:v>
       </x:c>
-      <x:c r="D1096" s="0" t="s">
-        <x:v>4012</x:v>
-      </x:c>
-      <x:c r="E1096" s="0" t="s">
+      <x:c r="F1096" s="0" t="s">
         <x:v>4013</x:v>
-      </x:c>
-      <x:c r="F1096" s="0" t="s">
-        <x:v>4012</x:v>
       </x:c>
       <x:c r="G1096" s="0" t="n">
         <x:v>1347</x:v>
@@ -40272,16 +40272,16 @@
         <x:v>4015</x:v>
       </x:c>
       <x:c r="C1097" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D1097" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E1097" s="0" t="s">
         <x:v>4016</x:v>
       </x:c>
-      <x:c r="D1097" s="0" t="s">
-        <x:v>4016</x:v>
-      </x:c>
-      <x:c r="E1097" s="0" t="s">
+      <x:c r="F1097" s="0" t="s">
         <x:v>4017</x:v>
-      </x:c>
-      <x:c r="F1097" s="0" t="s">
-        <x:v>4016</x:v>
       </x:c>
       <x:c r="G1097" s="0" t="n">
         <x:v>1348</x:v>

--- a/src/langXls.xlsx
+++ b/src/langXls.xlsx
@@ -10546,12 +10546,10 @@
     <x:t>frontstage.dd.sentence.ESport.0</x:t>
   </x:si>
   <x:si>
-    <x:t>The betting page is delicate, the information is pithy, and the operation is simple, 
- making placing bets simple and efficient.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>投注界面柔美、信息简洁、操作简单
-让投注变得简单高效</x:t>
+    <x:t>The betting page is delicate, the information is pithy, and the operation is simple, \n making placing bets simple and efficient.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>投注界面柔美、信息简洁、操作简单\n让投注变得简单高效</x:t>
   </x:si>
   <x:si>
     <x:t>投注界面柔美、信息簡潔、操作簡單&lt;br /&gt;讓投注變得簡單高效</x:t>
@@ -10560,12 +10558,10 @@
     <x:t>frontstage.dd.sentence.ESport.1</x:t>
   </x:si>
   <x:si>
-    <x:t>There are plenty handicaps, with more than 50 special handicaps 
- allowing you to enjoy a unique betting experience.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>盘口丰富，超过50种特殊盘口
-让你享受独特的投注体验</x:t>
+    <x:t>There are plenty handicaps, with more than 50 special handicaps \n allowing you to enjoy a unique betting experience.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>盘口丰富，超过50种特殊盘口\n让你享受独特的投注体验</x:t>
   </x:si>
   <x:si>
     <x:t>盤口豐富，超過50種特殊盤口&lt;br /&gt;讓你享受獨特的投注體驗</x:t>
@@ -10574,12 +10570,10 @@
     <x:t>frontstage.dd.sentence.ESport.2</x:t>
   </x:si>
   <x:si>
-    <x:t>The awesome and cool betting interface with various betting methods 
- is the most mature betting platform in Asia.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>超炫酷投注界面，投注玩法多样
-亚洲最成熟投注平台</x:t>
+    <x:t>The awesome and cool betting interface with various betting methods \n is the most mature betting platform in Asia.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>超炫酷投注界面，投注玩法多样\n亚洲最成熟投注平台</x:t>
   </x:si>
   <x:si>
     <x:t>超炫酷投注界面，投注玩法多樣&lt;br /&gt;亞洲最成熟投注平台</x:t>
@@ -10588,12 +10582,10 @@
     <x:t>frontstage.dd.sentence.ESport.3</x:t>
   </x:si>
   <x:si>
-    <x:t>European licenses, hottest and most complete eSports and 
- all kinds of eSports competitions.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>欧洲牌照 热门最全电子竞技
-竞技赛事 应有尽有</x:t>
+    <x:t>European licenses, hottest and most complete eSports and \n all kinds of eSports competitions.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>欧洲牌照 热门最全电子竞技\n竞技赛事 应有尽有</x:t>
   </x:si>
   <x:si>
     <x:t>歐洲牌照 熱門最全電子競技&lt;br /&gt;競技賽事 應有盡有</x:t>
@@ -10602,12 +10594,10 @@
     <x:t>frontstage.dd.sentence.sport.0</x:t>
   </x:si>
   <x:si>
-    <x:t>With diversified betting, there are many sport competitions that you can place bets during the game. 
- With super high betting odds, you can win a lot of prize money.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>多样化投注 超多赛事滚球
-超高赔率，赢到手软</x:t>
+    <x:t>With diversified betting, there are many sport competitions that you can place bets during the game. \n With super high betting odds, you can win a lot of prize money.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>多样化投注 超多赛事滚球\n超高赔率，赢到手软</x:t>
   </x:si>
   <x:si>
     <x:t>多樣化投注 超多賽事滾球&lt;br/&gt;超高賠率，贏到手軟</x:t>
@@ -10616,12 +10606,10 @@
     <x:t>frontstage.dd.sentence.sport.1</x:t>
   </x:si>
   <x:si>
-    <x:t>Plenty handicaps and compensation make betting more flexible, 
- and tens of thousands of sports competitions with various handicaps for you to choose.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>盘口多 赔付款 让投注更灵活
-数万赛事多种盘口，供您选择</x:t>
+    <x:t>Plenty handicaps and compensation make betting more flexible, \n and tens of thousands of sports competitions with various handicaps for you to choose.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>盘口多 赔付款 让投注更灵活\n数万赛事多种盘口，供您选择</x:t>
   </x:si>
   <x:si>
     <x:t>盤口多 賠付款 讓投注更靈活&lt;br/&gt;數萬賽事多種盤口，供您選擇</x:t>
@@ -10630,12 +10618,10 @@
     <x:t>frontstage.dd.sentence.sport.2</x:t>
   </x:si>
   <x:si>
-    <x:t>Plenty betting methods, such as handicaps, big and small, half-time and whole game, and mixed clearance, 
- allow you to place bets while watching the game.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>让球、大小、半全场、混合过关等丰富竞猜玩法
-边看比赛边投注</x:t>
+    <x:t>Plenty betting methods, such as handicaps, big and small, half-time and whole game, and mixed clearance, \n allow you to place bets while watching the game.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>让球、大小、半全场、混合过关等丰富竞猜玩法\n边看比赛边投注</x:t>
   </x:si>
   <x:si>
     <x:t>讓球、大小、半全場、混合過關等豐富競猜玩法&lt;br/&gt;邊看比賽邊投注</x:t>
@@ -10644,12 +10630,10 @@
     <x:t>frontstage.dd.sentence.sport.3</x:t>
   </x:si>
   <x:si>
-    <x:t>Hong Kong style handicap, Asian style handicap and virtual sports to maximize your betting profit, 
- and with various handicap options, there is always one suitable for you.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>香港盘 亚洲盘 虚拟运动 让您的投注盈利最大化
-多种盘口选择，总有一款适合您</x:t>
+    <x:t>Hong Kong style handicap, Asian style handicap and virtual sports to maximize your betting profit, \n and with various handicap options, there is always one suitable for you.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>香港盘 亚洲盘 虚拟运动 让您的投注盈利最大化\n多种盘口选择，总有一款适合您</x:t>
   </x:si>
   <x:si>
     <x:t>香港盤 亞洲盤 虛擬運動 讓您的投注盈利最大化&lt;br/&gt;多種盤口選擇，總有一款適合您</x:t>
@@ -10766,61 +10750,49 @@
     <x:t>frontstage.dd.sentence.lottery.0</x:t>
   </x:si>
   <x:si>
-    <x:t>Rich color, high bonus group
-Extreme betting experience, quick betting mode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>彩种丰富，高额奖金组
-极致投注体验，快捷投注模式</x:t>
-  </x:si>
-  <x:si>
-    <x:t>彩種豐富，高額獎金組
-極致投注體驗，快捷投注模式</x:t>
+    <x:t>Rich color, high bonus group\nExtreme betting experience, quick betting mode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>彩种丰富，高额奖金组\n极致投注体验，快捷投注模式</x:t>
+  </x:si>
+  <x:si>
+    <x:t>彩種豐富，高額獎金組\n極致投注體驗，快捷投注模式</x:t>
   </x:si>
   <x:si>
     <x:t>frontstage.dd.sentence.lottery.1</x:t>
   </x:si>
   <x:si>
-    <x:t>Double-sided disk Traditional disk Various betting methods
-Rich color variety Gameplay stimulation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>双面盘 传统盘 投注方式多样
-彩种丰富 玩法刺激</x:t>
-  </x:si>
-  <x:si>
-    <x:t>雙面盤 傳統盤 投注方式多樣
-彩種豐富 玩法刺激</x:t>
+    <x:t>Double-sided disk Traditional disk Various betting methods\nRich color variety Gameplay stimulation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>双面盘 传统盘 投注方式多样\n彩种丰富 玩法刺激</x:t>
+  </x:si>
+  <x:si>
+    <x:t>雙面盤 傳統盤 投注方式多樣\n彩種豐富 玩法刺激</x:t>
   </x:si>
   <x:si>
     <x:t>frontstage.dd.sentence.lottery.2</x:t>
   </x:si>
   <x:si>
-    <x:t>Traditional lottery model and scratch lottery tickets
-Enjoy multiple fun with scratch cards</x:t>
-  </x:si>
-  <x:si>
-    <x:t>传统彩票模式与刮刮乐彩票
-尽兴刮卡尽享多重趣味</x:t>
-  </x:si>
-  <x:si>
-    <x:t>傳統彩票模式與刮刮樂彩票
-盡興刮卡盡享多重趣味</x:t>
+    <x:t>Traditional lottery model and scratch lottery tickets\nEnjoy multiple fun with scratch cards</x:t>
+  </x:si>
+  <x:si>
+    <x:t>传统彩票模式与刮刮乐彩票\n尽兴刮卡尽享多重趣味</x:t>
+  </x:si>
+  <x:si>
+    <x:t>傳統彩票模式與刮刮樂彩票\n盡興刮卡盡享多重趣味</x:t>
   </x:si>
   <x:si>
     <x:t>frontstage.dd.sentence.lottery.3</x:t>
   </x:si>
   <x:si>
-    <x:t>New-type video lottery, hot girl anchors always interact
-Quick cycle lottery mode, betting softly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>新型视讯彩票，火辣美女主播时时互动
-快周期开奖模式，投注到手软</x:t>
-  </x:si>
-  <x:si>
-    <x:t>新型視訊彩票，火辣美女主播時時互動
-快週期開獎模式，投注到手軟</x:t>
+    <x:t>New-type video lottery, hot girl anchors always interact\nQuick cycle lottery mode, betting softly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>新型视讯彩票，火辣美女主播时时互动\n快周期开奖模式，投注到手软</x:t>
+  </x:si>
+  <x:si>
+    <x:t>新型視訊彩票，火辣美女主播時時互動\n快週期開獎模式，投注到手軟</x:t>
   </x:si>
   <x:si>
     <x:t>frontstage.dialog.deleteBankCardLabel</x:t>
